--- a/metadata/MAL/MAL-BR_DASHBOARD_V1_DHIS2.34/reference.xlsx
+++ b/metadata/MAL/MAL-BR_DASHBOARD_V1_DHIS2.34/reference.xlsx
@@ -426,13 +426,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="51.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -464,7 +464,7 @@
         <v>Version</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>V1.1.0</v>
+        <v>1.2.0</v>
       </c>
     </row>
     <row r="5">
@@ -472,23 +472,31 @@
         <v>DHIS2 version</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>DHIS2.34</v>
+        <v>2.34.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>Created</v>
+        <v>DHIS2 build</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>2020-09-12T17:00</v>
+        <v>aff07fb</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>Identifier</v>
+        <v>Last updated</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>MAL-BR_DASHBOARD_V1.1.0_DHIS2.34_2020-09-12T17:00</v>
+        <v>20210623T074306</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="str">
+        <v>Name</v>
+      </c>
+      <c r="B8" s="4" t="str">
+        <v>MAL-BR_DASHBOARD_V1.2.0_2.34.4-en</v>
       </c>
     </row>
   </sheetData>
@@ -497,14 +505,14 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="123.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -524,128 +532,128 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>MAL - % of All Deaths and Admissions (QL)</v>
+        <v>MAL - Surveillance (cases and threshold) - last 12 months</v>
       </c>
       <c r="B2" s="4" t="str">
         <v/>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2019-10-20T13:04:01.421</v>
+        <v>2019-10-20</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>zt23Bi5f3F3</v>
+        <v>bIwPfcT9JVN</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>MAL - Case Confirmation (QL)</v>
+        <v>MAL - DQ - RDT positivity rate</v>
       </c>
       <c r="B3" s="5" t="str">
         <v/>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2019-10-20T13:03:51.567</v>
+        <v>2021-06-18</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>uX3m5YW9cuM</v>
+        <v>bmGtBDNFQUQ</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>MAL - Case Fatality - OPD and Admissions (QL)</v>
+        <v>MAL - Proportion of facilities with stockout days for ART</v>
       </c>
       <c r="B4" s="4" t="str">
         <v/>
       </c>
       <c r="C4" s="4" t="str">
-        <v>2019-10-20T13:03:53.192</v>
+        <v>2021-05-03</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>tU3rJIp9STm</v>
+        <v>crtJKEjULHN</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>MAL - Conf cases &amp; ABER</v>
+        <v>MAL - Deaths</v>
       </c>
       <c r="B5" s="5" t="str">
         <v/>
       </c>
       <c r="C5" s="5" t="str">
-        <v>2019-06-29T06:58:58.118</v>
+        <v>2019-06-29</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>T4eg1e5rjXE</v>
+        <v>Cyy6FR0wEGe</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>MAL - Conf cases &amp; ABER</v>
+        <v>MAL - Reporting completeness</v>
       </c>
       <c r="B6" s="4" t="str">
         <v/>
       </c>
       <c r="C6" s="4" t="str">
-        <v>2019-10-20T13:03:54.601</v>
+        <v>2019-06-29</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>XG7LBCz7nQn</v>
+        <v>d1RmmimorCK</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>MAL - Deaths</v>
+        <v>MAL - Proportion of facilities with stockout days for SX-PYR</v>
       </c>
       <c r="B7" s="5" t="str">
         <v/>
       </c>
       <c r="C7" s="5" t="str">
-        <v>2019-10-20T13:03:57.311</v>
+        <v>2021-05-03</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>Q0H2GvXlpYB</v>
+        <v>dGDFOvzgkdw</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>MAL - Deaths</v>
+        <v>MAL - Cases treated with ACT vs ACT distributed from stock</v>
       </c>
       <c r="B8" s="4" t="str">
         <v/>
       </c>
       <c r="C8" s="4" t="str">
-        <v>2019-06-29T06:58:55.100</v>
+        <v>2021-06-23</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>Cyy6FR0wEGe</v>
+        <v>DxEj12FUBH7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>MAL - Deaths</v>
+        <v>MAL - Reporting Comp</v>
       </c>
       <c r="B9" s="5" t="str">
         <v/>
       </c>
       <c r="C9" s="5" t="str">
-        <v>2019-10-20T13:03:58.642</v>
+        <v>2019-10-20</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>tq6l6xuECZo</v>
+        <v>eqbjzgCFSFs</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>MAL - IPD</v>
+        <v>MAL - DQ - Reporting completeness in public and private sector</v>
       </c>
       <c r="B10" s="4" t="str">
         <v/>
       </c>
       <c r="C10" s="4" t="str">
-        <v>2019-06-29T06:58:52.010</v>
+        <v>2021-06-21</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>GmqjzU8Crmi</v>
+        <v>g6am8vrCpkm</v>
       </c>
     </row>
     <row r="11">
@@ -656,262 +664,724 @@
         <v/>
       </c>
       <c r="C11" s="5" t="str">
-        <v>2019-10-24T10:47:26.041</v>
+        <v>2019-06-29</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>mmdI4h7KdLL</v>
+        <v>GmqjzU8Crmi</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>MAL - Microscopy</v>
+        <v>MAL - LLIN stock status</v>
       </c>
       <c r="B12" s="4" t="str">
         <v/>
       </c>
       <c r="C12" s="4" t="str">
-        <v>2019-06-29T06:58:48.978</v>
+        <v>2021-05-03</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>qo7xD7OTGcF</v>
+        <v>hg3TLfpnmMK</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>MAL - OPD</v>
+        <v>MAL - SX-PYR stock discrepancy</v>
       </c>
       <c r="B13" s="5" t="str">
         <v/>
       </c>
       <c r="C13" s="5" t="str">
-        <v>2019-10-20T13:04:02.774</v>
+        <v>2021-05-03</v>
       </c>
       <c r="D13" s="5" t="str">
-        <v>wSudey0Yc2R</v>
+        <v>hxigEHxwMss</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>MAL - Percent Tested (QL)</v>
+        <v>MAL - Proportion of facilities with stockout days for PMQ</v>
       </c>
       <c r="B14" s="4" t="str">
         <v/>
       </c>
       <c r="C14" s="4" t="str">
-        <v>2019-10-20T13:04:05.554</v>
+        <v>2021-05-03</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>zbZhaW2GXQV</v>
+        <v>I6ItxljZV76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>MAL - Positivity</v>
+        <v>MAL - Trend in MAL - Percentage of estimated pregnancies benefiting from ANC visit and receipt of an ITN</v>
       </c>
       <c r="B15" s="5" t="str">
         <v/>
       </c>
       <c r="C15" s="5" t="str">
-        <v>2019-06-29T06:58:45.937</v>
+        <v>2019-09-23</v>
       </c>
       <c r="D15" s="5" t="str">
-        <v>wleqcZVkF9U</v>
+        <v>iSZUMq4XZyd</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>MAL - Positivity</v>
+        <v>MAL - SX-PYR stock status</v>
       </c>
       <c r="B16" s="4" t="str">
         <v/>
       </c>
       <c r="C16" s="4" t="str">
-        <v>2019-10-20T13:04:06.885</v>
+        <v>2021-05-03</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>SKJkOTlS8vN</v>
+        <v>J2wuAUXZeYw</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>MAL - Proportion</v>
+        <v xml:space="preserve">MAL - DQ - Proportion of inpatient deaths </v>
       </c>
       <c r="B17" s="5" t="str">
         <v/>
       </c>
       <c r="C17" s="5" t="str">
-        <v>2019-06-29T06:58:42.899</v>
+        <v>2021-06-18</v>
       </c>
       <c r="D17" s="5" t="str">
-        <v>uZ03Z5GgJJ0</v>
+        <v>j8AshcRp31c</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>MAL - Proportion</v>
+        <v>MAL - LLIN stock discrepancy</v>
       </c>
       <c r="B18" s="4" t="str">
         <v/>
       </c>
       <c r="C18" s="4" t="str">
-        <v>2019-10-20T13:04:08.234</v>
+        <v>2021-05-03</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>pnEMZYfUAZt</v>
+        <v>KJ6MBCbC77f</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>MAL - QL Surveillance - 01</v>
+        <v>MAL - DQ - Proportion of inpatient malaria cases</v>
       </c>
       <c r="B19" s="5" t="str">
         <v/>
       </c>
       <c r="C19" s="5" t="str">
-        <v>2019-06-29T06:58:39.866</v>
+        <v>2021-06-18</v>
       </c>
       <c r="D19" s="5" t="str">
-        <v>yieNDIkKEu2</v>
+        <v>L6B1ookZQMW</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>MAL - Ratio Consultancy and Admissions (QL)</v>
+        <v>MAL - Testing (QL)</v>
       </c>
       <c r="B20" s="4" t="str">
         <v/>
       </c>
       <c r="C20" s="4" t="str">
-        <v>2019-10-20T13:04:13.595</v>
+        <v>2021-05-22</v>
       </c>
       <c r="D20" s="4" t="str">
-        <v>v5tVurZ9vUf</v>
+        <v>Mbgcb9pdFR1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>MAL - Reporting Comp</v>
+        <v>MAL - IPD</v>
       </c>
       <c r="B21" s="5" t="str">
         <v/>
       </c>
       <c r="C21" s="5" t="str">
-        <v>2019-10-20T13:04:16.290</v>
+        <v>2019-10-24</v>
       </c>
       <c r="D21" s="5" t="str">
-        <v>eqbjzgCFSFs</v>
+        <v>mmdI4h7KdLL</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>MAL - Reporting completeness</v>
+        <v>MAL - DQ - Reporting timeliness</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v/>
+        <v>Reporting timeliness in private and public sector</v>
       </c>
       <c r="C22" s="4" t="str">
-        <v>2019-06-29T06:58:36.805</v>
+        <v>2021-06-18</v>
       </c>
       <c r="D22" s="4" t="str">
-        <v>d1RmmimorCK</v>
+        <v>MqF4vunDaSH</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>MAL - Surveillance (cases and threshold) - last 12 months</v>
+        <v>MAL - DQ - Test positivity rate</v>
       </c>
       <c r="B23" s="5" t="str">
         <v/>
       </c>
       <c r="C23" s="5" t="str">
-        <v>2019-10-20T13:04:17.616</v>
+        <v>2021-06-18</v>
       </c>
       <c r="D23" s="5" t="str">
-        <v>bIwPfcT9JVN</v>
+        <v>Nd1Vpv1eWuy</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>MAL - Testing</v>
+        <v>MAL - Trend in coverages: ANC1, IPTp1 and IPTp3</v>
       </c>
       <c r="B24" s="4" t="str">
         <v/>
       </c>
       <c r="C24" s="4" t="str">
-        <v>2019-10-20T13:04:18.973</v>
+        <v>2019-09-24</v>
       </c>
       <c r="D24" s="4" t="str">
-        <v>QqZNdTABzsZ</v>
+        <v>odF8xIAXyzh</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>MAL - Testing (QL)</v>
+        <v>MAL - ART stock discrepancy</v>
       </c>
       <c r="B25" s="5" t="str">
         <v/>
       </c>
       <c r="C25" s="5" t="str">
-        <v>2019-10-20T13:04:20.301</v>
+        <v>2021-05-03</v>
       </c>
       <c r="D25" s="5" t="str">
-        <v>Mbgcb9pdFR1</v>
+        <v>oODq4oDEcBU</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>MAL - Trend in coverages: ANC1, IPTp1 and IPTp3</v>
+        <v>MAL - DQ - Reporting completeness</v>
       </c>
       <c r="B26" s="4" t="str">
         <v/>
       </c>
       <c r="C26" s="4" t="str">
-        <v>2019-09-24T18:48:26.820</v>
+        <v>2021-06-18</v>
       </c>
       <c r="D26" s="4" t="str">
-        <v>odF8xIAXyzh</v>
+        <v>p29zcNGL0Aj</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
-        <v>MAL - Trend in coverages: ANC1, ITNs to pregnant women and infants</v>
+        <v>MAL - Proportion</v>
       </c>
       <c r="B27" s="5" t="str">
         <v/>
       </c>
       <c r="C27" s="5" t="str">
-        <v>2019-09-29T18:37:03.607</v>
+        <v>2019-10-20</v>
       </c>
       <c r="D27" s="5" t="str">
-        <v>yJNAGE2iN7e</v>
+        <v>pnEMZYfUAZt</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>MAL - Trend in MAL - Percentage of estimated pregnancies benefiting from ANC visit and receipt of 1,2 and 3 doses of IPTp</v>
+        <v>MAL - RDT stock discrepancy</v>
       </c>
       <c r="B28" s="4" t="str">
         <v/>
       </c>
       <c r="C28" s="4" t="str">
-        <v>2019-09-23T19:48:57.868</v>
+        <v>2021-05-03</v>
       </c>
       <c r="D28" s="4" t="str">
-        <v>Xx6WI5IfnoQ</v>
+        <v>PNoYjlfeAfD</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="str">
-        <v>MAL - Trend in MAL - Percentage of estimated pregnancies benefiting from ANC visit and receipt of an ITN</v>
+        <v>MAL - Deaths</v>
       </c>
       <c r="B29" s="5" t="str">
         <v/>
       </c>
       <c r="C29" s="5" t="str">
-        <v>2019-09-23T19:49:19.873</v>
+        <v>2019-10-20</v>
       </c>
       <c r="D29" s="5" t="str">
-        <v>iSZUMq4XZyd</v>
+        <v>Q0H2GvXlpYB</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="str">
+        <v>MAL - RDT stock status</v>
+      </c>
+      <c r="B30" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C30" s="4" t="str">
+        <v>2021-05-03</v>
+      </c>
+      <c r="D30" s="4" t="str">
+        <v>q4lZvYKBohV</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="str">
+        <v>MAL - Microscopy</v>
+      </c>
+      <c r="B31" s="5" t="str">
+        <v/>
+      </c>
+      <c r="C31" s="5" t="str">
+        <v>2019-06-29</v>
+      </c>
+      <c r="D31" s="5" t="str">
+        <v>qo7xD7OTGcF</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="str">
+        <v>MAL - Testing</v>
+      </c>
+      <c r="B32" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C32" s="4" t="str">
+        <v>2019-10-20</v>
+      </c>
+      <c r="D32" s="4" t="str">
+        <v>QqZNdTABzsZ</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="str">
+        <v>MAL - ART stock status</v>
+      </c>
+      <c r="B33" s="5" t="str">
+        <v/>
+      </c>
+      <c r="C33" s="5" t="str">
+        <v>2021-05-03</v>
+      </c>
+      <c r="D33" s="5" t="str">
+        <v>rhDXNWkNwBS</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="str">
+        <v>MAL - DQ - Reporting timeliness in public and private sector</v>
+      </c>
+      <c r="B34" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C34" s="4" t="str">
+        <v>2021-06-21</v>
+      </c>
+      <c r="D34" s="4" t="str">
+        <v>sgTE8MwRu38</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="str">
+        <v>MAL - Positivity</v>
+      </c>
+      <c r="B35" s="5" t="str">
+        <v/>
+      </c>
+      <c r="C35" s="5" t="str">
+        <v>2019-10-20</v>
+      </c>
+      <c r="D35" s="5" t="str">
+        <v>SKJkOTlS8vN</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="str">
+        <v>MAL - Conf cases &amp; ABER</v>
+      </c>
+      <c r="B36" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C36" s="4" t="str">
+        <v>2019-06-29</v>
+      </c>
+      <c r="D36" s="4" t="str">
+        <v>T4eg1e5rjXE</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="str">
+        <v>MAL - Deaths</v>
+      </c>
+      <c r="B37" s="5" t="str">
+        <v/>
+      </c>
+      <c r="C37" s="5" t="str">
+        <v>2019-10-20</v>
+      </c>
+      <c r="D37" s="5" t="str">
+        <v>tq6l6xuECZo</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="str">
+        <v>MAL - Case Fatality - OPD and Admissions (QL)</v>
+      </c>
+      <c r="B38" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C38" s="4" t="str">
+        <v>2021-05-22</v>
+      </c>
+      <c r="D38" s="4" t="str">
+        <v>tU3rJIp9STm</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="str">
+        <v>MAL - RDT used for diagnosis vs RDT distributed from stock</v>
+      </c>
+      <c r="B39" s="5" t="str">
+        <v/>
+      </c>
+      <c r="C39" s="5" t="str">
+        <v>2021-06-23</v>
+      </c>
+      <c r="D39" s="5" t="str">
+        <v>u5O5Io0rtav</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="str">
+        <v>MAL - Proportion of facilities with stockout days for ACT</v>
+      </c>
+      <c r="B40" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C40" s="4" t="str">
+        <v>2021-05-03</v>
+      </c>
+      <c r="D40" s="4" t="str">
+        <v>U78hxMa95Zb</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="str">
+        <v>MAL - DQ - Proportion of suspected individuals tested</v>
+      </c>
+      <c r="B41" s="5" t="str">
+        <v/>
+      </c>
+      <c r="C41" s="5" t="str">
+        <v>2021-06-18</v>
+      </c>
+      <c r="D41" s="5" t="str">
+        <v>UCT3c9PPCQZ</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="str">
+        <v>MAL - PMQ stock discrepancy</v>
+      </c>
+      <c r="B42" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C42" s="4" t="str">
+        <v>2021-05-03</v>
+      </c>
+      <c r="D42" s="4" t="str">
+        <v>uDKGtAjZyQn</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="str">
+        <v>MAL - Consistency between variables</v>
+      </c>
+      <c r="B43" s="5" t="str">
+        <v/>
+      </c>
+      <c r="C43" s="5" t="str">
+        <v>2021-06-21</v>
+      </c>
+      <c r="D43" s="5" t="str">
+        <v>uGfyrJEQAWx</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="str">
+        <v>MAL - ACT stock status</v>
+      </c>
+      <c r="B44" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C44" s="4" t="str">
+        <v>2021-05-03</v>
+      </c>
+      <c r="D44" s="4" t="str">
+        <v>UIgM3wfpuDv</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="str">
+        <v>MAL - DQ - Slide positivity rate</v>
+      </c>
+      <c r="B45" s="5" t="str">
+        <v/>
+      </c>
+      <c r="C45" s="5" t="str">
+        <v>2021-06-18</v>
+      </c>
+      <c r="D45" s="5" t="str">
+        <v>uvzNDbkmNEp</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="str">
+        <v>MAL - Case Confirmation (QL)</v>
+      </c>
+      <c r="B46" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C46" s="4" t="str">
+        <v>2021-05-22</v>
+      </c>
+      <c r="D46" s="4" t="str">
+        <v>uX3m5YW9cuM</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="str">
+        <v>MAL - Proportion</v>
+      </c>
+      <c r="B47" s="5" t="str">
+        <v/>
+      </c>
+      <c r="C47" s="5" t="str">
+        <v>2019-06-29</v>
+      </c>
+      <c r="D47" s="5" t="str">
+        <v>uZ03Z5GgJJ0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="str">
+        <v>MAL - Ratio Consultancy and Admissions (QL)</v>
+      </c>
+      <c r="B48" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C48" s="4" t="str">
+        <v>2021-05-22</v>
+      </c>
+      <c r="D48" s="4" t="str">
+        <v>v5tVurZ9vUf</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="str">
+        <v>MAL - PMQ stock status</v>
+      </c>
+      <c r="B49" s="5" t="str">
+        <v/>
+      </c>
+      <c r="C49" s="5" t="str">
+        <v>2021-05-03</v>
+      </c>
+      <c r="D49" s="5" t="str">
+        <v>vBv9CkukHXr</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="str">
+        <v>MAL - Proportion of facilities with stockout days for RDT</v>
+      </c>
+      <c r="B50" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C50" s="4" t="str">
+        <v>2021-05-03</v>
+      </c>
+      <c r="D50" s="4" t="str">
+        <v>wBjmnGxpBhy</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="str">
+        <v>MAL - ACT stock discrepancy</v>
+      </c>
+      <c r="B51" s="5" t="str">
+        <v/>
+      </c>
+      <c r="C51" s="5" t="str">
+        <v>2021-05-03</v>
+      </c>
+      <c r="D51" s="5" t="str">
+        <v>WdMfLZwEGih</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="str">
+        <v>MAL - Positivity</v>
+      </c>
+      <c r="B52" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C52" s="4" t="str">
+        <v>2019-06-29</v>
+      </c>
+      <c r="D52" s="4" t="str">
+        <v>wleqcZVkF9U</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="str">
+        <v>MAL - OPD</v>
+      </c>
+      <c r="B53" s="5" t="str">
+        <v/>
+      </c>
+      <c r="C53" s="5" t="str">
+        <v>2019-10-20</v>
+      </c>
+      <c r="D53" s="5" t="str">
+        <v>wSudey0Yc2R</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="str">
+        <v>MAL - DQ - Proportion of outpatient malaria cases</v>
+      </c>
+      <c r="B54" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C54" s="4" t="str">
+        <v>2021-06-18</v>
+      </c>
+      <c r="D54" s="4" t="str">
+        <v>wyHtEhO9WJx</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="str">
+        <v>MAL - Conf cases &amp; ABER</v>
+      </c>
+      <c r="B55" s="5" t="str">
+        <v/>
+      </c>
+      <c r="C55" s="5" t="str">
+        <v>2019-10-20</v>
+      </c>
+      <c r="D55" s="5" t="str">
+        <v>XG7LBCz7nQn</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="str">
+        <v>MAL - DQ - Completeness of variable in actual reports</v>
+      </c>
+      <c r="B56" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C56" s="4" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="D56" s="4" t="str">
+        <v>XHJUbmzHSK0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="str">
+        <v>MAL - Trend in MAL - Percentage of estimated pregnancies benefiting from ANC visit and receipt of 1,2 and 3 doses of IPTp</v>
+      </c>
+      <c r="B57" s="5" t="str">
+        <v/>
+      </c>
+      <c r="C57" s="5" t="str">
+        <v>2019-09-23</v>
+      </c>
+      <c r="D57" s="5" t="str">
+        <v>Xx6WI5IfnoQ</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="str">
+        <v>MAL - Proportion of facilities with stockout days for LLIN</v>
+      </c>
+      <c r="B58" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C58" s="4" t="str">
+        <v>2021-05-03</v>
+      </c>
+      <c r="D58" s="4" t="str">
+        <v>Y50TU1bYMgG</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="str">
+        <v>MAL - QL Surveillance - 01</v>
+      </c>
+      <c r="B59" s="5" t="str">
+        <v/>
+      </c>
+      <c r="C59" s="5" t="str">
+        <v>2021-05-22</v>
+      </c>
+      <c r="D59" s="5" t="str">
+        <v>yieNDIkKEu2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="str">
+        <v>MAL - Trend in coverages: ANC1, ITNs to pregnant women and infants</v>
+      </c>
+      <c r="B60" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C60" s="4" t="str">
+        <v>2019-09-29</v>
+      </c>
+      <c r="D60" s="4" t="str">
+        <v>yJNAGE2iN7e</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="str">
+        <v>MAL - Percent Tested (QL)</v>
+      </c>
+      <c r="B61" s="5" t="str">
+        <v/>
+      </c>
+      <c r="C61" s="5" t="str">
+        <v>2021-05-22</v>
+      </c>
+      <c r="D61" s="5" t="str">
+        <v>zbZhaW2GXQV</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="str">
+        <v>MAL - % of All Deaths and Admissions (QL)</v>
+      </c>
+      <c r="B62" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C62" s="4" t="str">
+        <v>2021-05-22</v>
+      </c>
+      <c r="D62" s="4" t="str">
+        <v>zt23Bi5f3F3</v>
       </c>
     </row>
   </sheetData>
@@ -920,7 +1390,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -947,58 +1417,226 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>MAL: Incidence of confirmed malaria cases</v>
+        <v>MAL - LLIN stock coverage time by facility</v>
       </c>
       <c r="B2" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2019-09-25</v>
+        <v>2021-05-03</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>uNj85CCHumE</v>
+        <v>A6jfttWWf26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>MAL: Malaria test positivity rate</v>
+        <v>MAL - RDT stockout days by facility</v>
       </c>
       <c r="B3" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2019-09-25</v>
+        <v>2021-05-03</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>ZEBh5DFbW73</v>
+        <v>ftdO69wPX7n</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>MAL: Percentage of suspected cases tested</v>
+        <v>MAL - LLIN stockout days by facility</v>
       </c>
       <c r="B4" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>2019-09-25</v>
+        <v>2021-05-03</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>R2aoozdWrnW</v>
+        <v>hiqBHfHKDsf</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>MAL: Rate of completeness of reporting by health facilities (OPD)</v>
+        <v>MAL - ACT stockout days by facility</v>
       </c>
       <c r="B5" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C5" s="5" t="str">
+        <v>2021-05-03</v>
+      </c>
+      <c r="D5" s="5" t="str">
+        <v>Hl08cF6zvw1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="str">
+        <v>MAL - RDT stock coverage time by facility</v>
+      </c>
+      <c r="B6" s="4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C6" s="4" t="str">
+        <v>2021-05-03</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <v>Iwk0AIqANFI</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="str">
+        <v>MAL - ART stock coverage time by facility</v>
+      </c>
+      <c r="B7" s="5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C7" s="5" t="str">
+        <v>2021-05-03</v>
+      </c>
+      <c r="D7" s="5" t="str">
+        <v>KF5vZLVpYJv</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="str">
+        <v>MAL - SX-PYR stock coverage time by facility</v>
+      </c>
+      <c r="B8" s="4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C8" s="4" t="str">
+        <v>2021-05-03</v>
+      </c>
+      <c r="D8" s="4" t="str">
+        <v>L2DpofVDPFY</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="str">
+        <v>MAL - ACT stock coverage time by facility</v>
+      </c>
+      <c r="B9" s="5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C9" s="5" t="str">
+        <v>2021-05-03</v>
+      </c>
+      <c r="D9" s="5" t="str">
+        <v>Oj0tAh55DjD</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="str">
+        <v>MAL - PMQ stock coverage time by facility</v>
+      </c>
+      <c r="B10" s="4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C10" s="4" t="str">
+        <v>2021-05-03</v>
+      </c>
+      <c r="D10" s="4" t="str">
+        <v>oUX9xgrBW5w</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="str">
+        <v>MAL: Percentage of suspected cases tested</v>
+      </c>
+      <c r="B11" s="5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C11" s="5" t="str">
         <v>2019-09-25</v>
       </c>
-      <c r="D5" s="5" t="str">
+      <c r="D11" s="5" t="str">
+        <v>R2aoozdWrnW</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="str">
+        <v>MAL: Incidence of confirmed malaria cases</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C12" s="4" t="str">
+        <v>2019-09-25</v>
+      </c>
+      <c r="D12" s="4" t="str">
+        <v>uNj85CCHumE</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="str">
+        <v>MAL - SX-PYR stockout days by facility</v>
+      </c>
+      <c r="B13" s="5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C13" s="5" t="str">
+        <v>2021-05-03</v>
+      </c>
+      <c r="D13" s="5" t="str">
+        <v>upKEZrMval4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="str">
+        <v>MAL - ART stockout days by facility</v>
+      </c>
+      <c r="B14" s="4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C14" s="4" t="str">
+        <v>2021-05-03</v>
+      </c>
+      <c r="D14" s="4" t="str">
+        <v>uwxMr52SxjE</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="str">
+        <v>MAL: Rate of completeness of reporting by health facilities (OPD)</v>
+      </c>
+      <c r="B15" s="5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C15" s="5" t="str">
+        <v>2019-09-25</v>
+      </c>
+      <c r="D15" s="5" t="str">
         <v>XFGdbwY5OA9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="str">
+        <v>MAL - PMQ stockout days by facility</v>
+      </c>
+      <c r="B16" s="4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C16" s="4" t="str">
+        <v>2021-05-03</v>
+      </c>
+      <c r="D16" s="4" t="str">
+        <v>xp7wFqgHXfa</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="str">
+        <v>MAL: Malaria test positivity rate</v>
+      </c>
+      <c r="B17" s="5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C17" s="5" t="str">
+        <v>2019-09-25</v>
+      </c>
+      <c r="D17" s="5" t="str">
+        <v>ZEBh5DFbW73</v>
       </c>
     </row>
   </sheetData>
@@ -1007,17 +1645,17 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="39.7109375" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1046,117 +1684,117 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>Malaria annual blood examination rate</v>
+        <v>Stock coverage time</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>phSksJ6YPO4</v>
+        <v>f1hWZIYCTzc</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>&gt; 20%</v>
+        <v>Invalid</v>
       </c>
       <c r="D2" s="4">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E2" s="4">
-        <v>100000</v>
+        <v>200</v>
       </c>
       <c r="F2" s="4" t="str">
-        <v>2019-09-20T20:35:30.079</v>
+        <v>2021-04-30</v>
       </c>
       <c r="G2" s="4" t="str">
-        <v>FBXi3pC4cxa</v>
+        <v>wfbGANgbnMR</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>Malaria annual blood examination rate</v>
+        <v>Stock coverage time</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>phSksJ6YPO4</v>
+        <v>f1hWZIYCTzc</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>10 - 20%</v>
+        <v>Overstock</v>
       </c>
       <c r="D3" s="5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E3" s="5">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F3" s="5" t="str">
-        <v>2019-09-20T20:35:30.079</v>
+        <v>2021-04-30</v>
       </c>
       <c r="G3" s="5" t="str">
-        <v>akwC7jln8y6</v>
+        <v>ee8QJxth4ul</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>Malaria annual blood examination rate</v>
+        <v>Stock coverage time</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>phSksJ6YPO4</v>
+        <v>f1hWZIYCTzc</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>&lt; 10%</v>
+        <v>Adequate stock</v>
       </c>
       <c r="D4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F4" s="4" t="str">
-        <v>2019-09-20T20:35:30.079</v>
+        <v>2021-04-30</v>
       </c>
       <c r="G4" s="4" t="str">
-        <v>oSfIJvHtVbQ</v>
+        <v>mmvDbIcm41d</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>Malaria confirmed incidence rate</v>
+        <v>Stock coverage time</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>JUG5nRDqRFl</v>
+        <v>f1hWZIYCTzc</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>80 - 100%</v>
+        <v>Understock</v>
       </c>
       <c r="D5" s="5">
-        <v>80</v>
+        <v>0.0001</v>
       </c>
       <c r="E5" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F5" s="5" t="str">
-        <v>2018-02-13T09:39:51.705</v>
+        <v>2021-04-30</v>
       </c>
       <c r="G5" s="5" t="str">
-        <v>LOaqcFHJu0y</v>
+        <v>wAdm1fy3Fmk</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>Malaria confirmed incidence rate</v>
+        <v>Stock coverage time</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>JUG5nRDqRFl</v>
+        <v>f1hWZIYCTzc</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>60 - 80%</v>
+        <v>Stock out</v>
       </c>
       <c r="D6" s="4">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E6" s="4">
-        <v>80</v>
+        <v>0.0001</v>
       </c>
       <c r="F6" s="4" t="str">
-        <v>2018-02-13T09:39:51.705</v>
+        <v>2021-04-30</v>
       </c>
       <c r="G6" s="4" t="str">
-        <v>LCN14FU1Qg1</v>
+        <v>fFBIEwglorN</v>
       </c>
     </row>
     <row r="7">
@@ -1167,19 +1805,19 @@
         <v>JUG5nRDqRFl</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>40 - 60%</v>
+        <v>80 - 100%</v>
       </c>
       <c r="D7" s="5">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E7" s="5">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F7" s="5" t="str">
-        <v>2018-02-13T09:39:51.704</v>
+        <v>2018-02-13</v>
       </c>
       <c r="G7" s="5" t="str">
-        <v>ureY1y63dr5</v>
+        <v>LOaqcFHJu0y</v>
       </c>
     </row>
     <row r="8">
@@ -1190,19 +1828,19 @@
         <v>JUG5nRDqRFl</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>20 -40%</v>
+        <v>60 - 80%</v>
       </c>
       <c r="D8" s="4">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E8" s="4">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F8" s="4" t="str">
-        <v>2018-02-13T09:39:51.702</v>
+        <v>2018-02-13</v>
       </c>
       <c r="G8" s="4" t="str">
-        <v>YzUpHZ2rmuf</v>
+        <v>LCN14FU1Qg1</v>
       </c>
     </row>
     <row r="9">
@@ -1213,19 +1851,19 @@
         <v>JUG5nRDqRFl</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>10 - 20%</v>
+        <v>40 - 60%</v>
       </c>
       <c r="D9" s="5">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E9" s="5">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F9" s="5" t="str">
-        <v>2018-02-13T09:39:51.704</v>
+        <v>2018-02-13</v>
       </c>
       <c r="G9" s="5" t="str">
-        <v>BuOTVNarbyt</v>
+        <v>ureY1y63dr5</v>
       </c>
     </row>
     <row r="10">
@@ -1236,19 +1874,19 @@
         <v>JUG5nRDqRFl</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>1 - 10%</v>
+        <v>20 -40%</v>
       </c>
       <c r="D10" s="4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E10" s="4">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F10" s="4" t="str">
-        <v>2018-02-13T09:39:51.705</v>
+        <v>2018-02-13</v>
       </c>
       <c r="G10" s="4" t="str">
-        <v>NEnzok8vUpf</v>
+        <v>YzUpHZ2rmuf</v>
       </c>
     </row>
     <row r="11">
@@ -1259,19 +1897,19 @@
         <v>JUG5nRDqRFl</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>0 - 1%</v>
+        <v>10 - 20%</v>
       </c>
       <c r="D11" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E11" s="5">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F11" s="5" t="str">
-        <v>2018-02-13T09:39:51.704</v>
+        <v>2018-02-13</v>
       </c>
       <c r="G11" s="5" t="str">
-        <v>WgH8MVAZ9p8</v>
+        <v>BuOTVNarbyt</v>
       </c>
     </row>
     <row r="12">
@@ -1282,157 +1920,617 @@
         <v>JUG5nRDqRFl</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>0%</v>
+        <v>1 - 10%</v>
       </c>
       <c r="D12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F12" s="4" t="str">
-        <v>2018-02-13T09:39:51.705</v>
+        <v>2018-02-13</v>
       </c>
       <c r="G12" s="4" t="str">
-        <v>htsd14BFeVx</v>
+        <v>NEnzok8vUpf</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>Malaria suspected cases tested</v>
+        <v>Malaria confirmed incidence rate</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>kZFJ670FpB6</v>
+        <v>JUG5nRDqRFl</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>80 - 100%</v>
+        <v>0%</v>
       </c>
       <c r="D13" s="5">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E13" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F13" s="5" t="str">
-        <v>2018-02-13T09:42:27.522</v>
+        <v>2018-02-13</v>
       </c>
       <c r="G13" s="5" t="str">
-        <v>tnHZMQMUPRJ</v>
+        <v>htsd14BFeVx</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>Malaria suspected cases tested</v>
+        <v>Malaria confirmed incidence rate</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>kZFJ670FpB6</v>
+        <v>JUG5nRDqRFl</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>60 - 80%</v>
+        <v>0 - 1%</v>
       </c>
       <c r="D14" s="4">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E14" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="F14" s="4" t="str">
-        <v>2018-02-13T09:42:27.522</v>
+        <v>2018-02-13</v>
       </c>
       <c r="G14" s="4" t="str">
-        <v>JAvaXarUdH9</v>
+        <v>WgH8MVAZ9p8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>Malaria suspected cases tested</v>
+        <v>Completeness and timeliness of reporting</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>kZFJ670FpB6</v>
+        <v>kqfOfmaaMVl</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>40 - 60%</v>
+        <v>80 - 100</v>
       </c>
       <c r="D15" s="5">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E15" s="5">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F15" s="5" t="str">
-        <v>2018-02-13T09:42:27.521</v>
+        <v>2021-06-21</v>
       </c>
       <c r="G15" s="5" t="str">
-        <v>EYLo7kZXcDQ</v>
+        <v>FjujfNYokCd</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>Malaria suspected cases tested</v>
+        <v>Completeness and timeliness of reporting</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>kZFJ670FpB6</v>
+        <v>kqfOfmaaMVl</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>20 - 40%</v>
+        <v>60 - 80</v>
       </c>
       <c r="D16" s="4">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E16" s="4">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F16" s="4" t="str">
-        <v>2018-02-13T09:42:27.521</v>
+        <v>2021-06-21</v>
       </c>
       <c r="G16" s="4" t="str">
-        <v>Xa4x6wIQkJh</v>
+        <v>W0n5LCjmcSu</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>Malaria suspected cases tested</v>
+        <v>Completeness and timeliness of reporting</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>kZFJ670FpB6</v>
+        <v>kqfOfmaaMVl</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>10 - 20%</v>
+        <v>40 - 60</v>
       </c>
       <c r="D17" s="5">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E17" s="5">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F17" s="5" t="str">
-        <v>2018-02-13T09:42:27.521</v>
+        <v>2021-06-21</v>
       </c>
       <c r="G17" s="5" t="str">
-        <v>fyiYXUIOBlK</v>
+        <v>zAL9tOoVD88</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
+        <v>Completeness and timeliness of reporting</v>
+      </c>
+      <c r="B18" s="4" t="str">
+        <v>kqfOfmaaMVl</v>
+      </c>
+      <c r="C18" s="4" t="str">
+        <v>20 - 40</v>
+      </c>
+      <c r="D18" s="4">
+        <v>20</v>
+      </c>
+      <c r="E18" s="4">
+        <v>40</v>
+      </c>
+      <c r="F18" s="4" t="str">
+        <v>2021-06-21</v>
+      </c>
+      <c r="G18" s="4" t="str">
+        <v>kjjM7FWzhBS</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="str">
+        <v>Completeness and timeliness of reporting</v>
+      </c>
+      <c r="B19" s="5" t="str">
+        <v>kqfOfmaaMVl</v>
+      </c>
+      <c r="C19" s="5" t="str">
+        <v>0 - 20</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>20</v>
+      </c>
+      <c r="F19" s="5" t="str">
+        <v>2021-06-21</v>
+      </c>
+      <c r="G19" s="5" t="str">
+        <v>dF6vsiZO223</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="str">
         <v>Malaria suspected cases tested</v>
       </c>
-      <c r="B18" s="4" t="str">
+      <c r="B20" s="4" t="str">
         <v>kZFJ670FpB6</v>
       </c>
-      <c r="C18" s="4" t="str">
+      <c r="C20" s="4" t="str">
+        <v>80 - 100%</v>
+      </c>
+      <c r="D20" s="4">
+        <v>80</v>
+      </c>
+      <c r="E20" s="4">
+        <v>100</v>
+      </c>
+      <c r="F20" s="4" t="str">
+        <v>2018-02-13</v>
+      </c>
+      <c r="G20" s="4" t="str">
+        <v>tnHZMQMUPRJ</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="str">
+        <v>Malaria suspected cases tested</v>
+      </c>
+      <c r="B21" s="5" t="str">
+        <v>kZFJ670FpB6</v>
+      </c>
+      <c r="C21" s="5" t="str">
+        <v>60 - 80%</v>
+      </c>
+      <c r="D21" s="5">
+        <v>60</v>
+      </c>
+      <c r="E21" s="5">
+        <v>80</v>
+      </c>
+      <c r="F21" s="5" t="str">
+        <v>2018-02-13</v>
+      </c>
+      <c r="G21" s="5" t="str">
+        <v>JAvaXarUdH9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="str">
+        <v>Malaria suspected cases tested</v>
+      </c>
+      <c r="B22" s="4" t="str">
+        <v>kZFJ670FpB6</v>
+      </c>
+      <c r="C22" s="4" t="str">
+        <v>40 - 60%</v>
+      </c>
+      <c r="D22" s="4">
+        <v>40</v>
+      </c>
+      <c r="E22" s="4">
+        <v>60</v>
+      </c>
+      <c r="F22" s="4" t="str">
+        <v>2018-02-13</v>
+      </c>
+      <c r="G22" s="4" t="str">
+        <v>EYLo7kZXcDQ</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="str">
+        <v>Malaria suspected cases tested</v>
+      </c>
+      <c r="B23" s="5" t="str">
+        <v>kZFJ670FpB6</v>
+      </c>
+      <c r="C23" s="5" t="str">
+        <v>20 - 40%</v>
+      </c>
+      <c r="D23" s="5">
+        <v>20</v>
+      </c>
+      <c r="E23" s="5">
+        <v>40</v>
+      </c>
+      <c r="F23" s="5" t="str">
+        <v>2018-02-13</v>
+      </c>
+      <c r="G23" s="5" t="str">
+        <v>Xa4x6wIQkJh</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="str">
+        <v>Malaria suspected cases tested</v>
+      </c>
+      <c r="B24" s="4" t="str">
+        <v>kZFJ670FpB6</v>
+      </c>
+      <c r="C24" s="4" t="str">
+        <v>10 - 20%</v>
+      </c>
+      <c r="D24" s="4">
+        <v>10</v>
+      </c>
+      <c r="E24" s="4">
+        <v>20</v>
+      </c>
+      <c r="F24" s="4" t="str">
+        <v>2018-02-13</v>
+      </c>
+      <c r="G24" s="4" t="str">
+        <v>fyiYXUIOBlK</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="str">
+        <v>Malaria suspected cases tested</v>
+      </c>
+      <c r="B25" s="5" t="str">
+        <v>kZFJ670FpB6</v>
+      </c>
+      <c r="C25" s="5" t="str">
         <v>&lt; 10%</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D25" s="5">
         <v>0</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E25" s="5">
         <v>10</v>
       </c>
-      <c r="F18" s="4" t="str">
-        <v>2018-02-13T09:42:27.521</v>
-      </c>
-      <c r="G18" s="4" t="str">
+      <c r="F25" s="5" t="str">
+        <v>2018-02-13</v>
+      </c>
+      <c r="G25" s="5" t="str">
         <v>gRj6Lz4ongf</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="str">
+        <v>Average stockout days</v>
+      </c>
+      <c r="B26" s="4" t="str">
+        <v>lY1SvO1BnVg</v>
+      </c>
+      <c r="C26" s="4" t="str">
+        <v>High</v>
+      </c>
+      <c r="D26" s="4">
+        <v>7</v>
+      </c>
+      <c r="E26" s="4">
+        <v>30</v>
+      </c>
+      <c r="F26" s="4" t="str">
+        <v>2021-03-22</v>
+      </c>
+      <c r="G26" s="4" t="str">
+        <v>TsHFpCbmXxW</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="str">
+        <v>Average stockout days</v>
+      </c>
+      <c r="B27" s="5" t="str">
+        <v>lY1SvO1BnVg</v>
+      </c>
+      <c r="C27" s="5" t="str">
+        <v>Moderate</v>
+      </c>
+      <c r="D27" s="5">
+        <v>3</v>
+      </c>
+      <c r="E27" s="5">
+        <v>7</v>
+      </c>
+      <c r="F27" s="5" t="str">
+        <v>2021-03-22</v>
+      </c>
+      <c r="G27" s="5" t="str">
+        <v>gPQfY0QJBd3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="str">
+        <v>Average stockout days</v>
+      </c>
+      <c r="B28" s="4" t="str">
+        <v>lY1SvO1BnVg</v>
+      </c>
+      <c r="C28" s="4" t="str">
+        <v>Low</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>3</v>
+      </c>
+      <c r="F28" s="4" t="str">
+        <v>2021-03-22</v>
+      </c>
+      <c r="G28" s="4" t="str">
+        <v>MTDFqeggtlk</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="str">
+        <v>Malaria annual blood examination rate</v>
+      </c>
+      <c r="B29" s="5" t="str">
+        <v>phSksJ6YPO4</v>
+      </c>
+      <c r="C29" s="5" t="str">
+        <v>&gt; 20%</v>
+      </c>
+      <c r="D29" s="5">
+        <v>20</v>
+      </c>
+      <c r="E29" s="5">
+        <v>100000</v>
+      </c>
+      <c r="F29" s="5" t="str">
+        <v>2019-09-20</v>
+      </c>
+      <c r="G29" s="5" t="str">
+        <v>FBXi3pC4cxa</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="str">
+        <v>Malaria annual blood examination rate</v>
+      </c>
+      <c r="B30" s="4" t="str">
+        <v>phSksJ6YPO4</v>
+      </c>
+      <c r="C30" s="4" t="str">
+        <v>10 - 20%</v>
+      </c>
+      <c r="D30" s="4">
+        <v>10</v>
+      </c>
+      <c r="E30" s="4">
+        <v>20</v>
+      </c>
+      <c r="F30" s="4" t="str">
+        <v>2019-09-20</v>
+      </c>
+      <c r="G30" s="4" t="str">
+        <v>akwC7jln8y6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="str">
+        <v>Malaria annual blood examination rate</v>
+      </c>
+      <c r="B31" s="5" t="str">
+        <v>phSksJ6YPO4</v>
+      </c>
+      <c r="C31" s="5" t="str">
+        <v>&lt; 10%</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5">
+        <v>10</v>
+      </c>
+      <c r="F31" s="5" t="str">
+        <v>2019-09-20</v>
+      </c>
+      <c r="G31" s="5" t="str">
+        <v>oSfIJvHtVbQ</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="str">
+        <v>Stock discrepancy</v>
+      </c>
+      <c r="B32" s="4" t="str">
+        <v>pxeFezcPnQl</v>
+      </c>
+      <c r="C32" s="4" t="str">
+        <v>Positive</v>
+      </c>
+      <c r="D32" s="4">
+        <v>9</v>
+      </c>
+      <c r="E32" s="4">
+        <v>10000000</v>
+      </c>
+      <c r="F32" s="4" t="str">
+        <v>2021-05-11</v>
+      </c>
+      <c r="G32" s="4" t="str">
+        <v>IdLVcKSBYPP</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="str">
+        <v>Stock discrepancy</v>
+      </c>
+      <c r="B33" s="5" t="str">
+        <v>pxeFezcPnQl</v>
+      </c>
+      <c r="C33" s="5" t="str">
+        <v>Correct stock</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1</v>
+      </c>
+      <c r="E33" s="5">
+        <v>9</v>
+      </c>
+      <c r="F33" s="5" t="str">
+        <v>2021-05-11</v>
+      </c>
+      <c r="G33" s="5" t="str">
+        <v>bW5lmAtDMhX</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="str">
+        <v>Stock discrepancy</v>
+      </c>
+      <c r="B34" s="4" t="str">
+        <v>pxeFezcPnQl</v>
+      </c>
+      <c r="C34" s="4" t="str">
+        <v>Negative</v>
+      </c>
+      <c r="D34" s="4">
+        <v>-10000000</v>
+      </c>
+      <c r="E34" s="4">
+        <v>1</v>
+      </c>
+      <c r="F34" s="4" t="str">
+        <v>2021-05-11</v>
+      </c>
+      <c r="G34" s="4" t="str">
+        <v>EcNjRnWM0Yw</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="str">
+        <v>Consistency between variables (&gt;)</v>
+      </c>
+      <c r="B35" s="5" t="str">
+        <v>UKMxIj4iCfO</v>
+      </c>
+      <c r="C35" s="5" t="str">
+        <v>Positive</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0</v>
+      </c>
+      <c r="E35" s="5">
+        <v>999999999</v>
+      </c>
+      <c r="F35" s="5" t="str">
+        <v>2021-06-18</v>
+      </c>
+      <c r="G35" s="5" t="str">
+        <v>v6Ah8nBTKzV</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="str">
+        <v>Consistency between variables (&gt;)</v>
+      </c>
+      <c r="B36" s="4" t="str">
+        <v>UKMxIj4iCfO</v>
+      </c>
+      <c r="C36" s="4" t="str">
+        <v>Negative</v>
+      </c>
+      <c r="D36" s="4">
+        <v>-999999999</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4" t="str">
+        <v>2021-06-18</v>
+      </c>
+      <c r="G36" s="4" t="str">
+        <v>ZBXpxSNdjzG</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="str">
+        <v>Consistency between variables (&gt;=)</v>
+      </c>
+      <c r="B37" s="5" t="str">
+        <v>w5nOHQy2NP8</v>
+      </c>
+      <c r="C37" s="5" t="str">
+        <v>Positive</v>
+      </c>
+      <c r="D37" s="5">
+        <v>-1</v>
+      </c>
+      <c r="E37" s="5">
+        <v>999999999</v>
+      </c>
+      <c r="F37" s="5" t="str">
+        <v>2021-06-18</v>
+      </c>
+      <c r="G37" s="5" t="str">
+        <v>m8ThRKtM6gf</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="str">
+        <v>Consistency between variables (&gt;=)</v>
+      </c>
+      <c r="B38" s="4" t="str">
+        <v>w5nOHQy2NP8</v>
+      </c>
+      <c r="C38" s="4" t="str">
+        <v>Negative</v>
+      </c>
+      <c r="D38" s="4">
+        <v>-999999999</v>
+      </c>
+      <c r="E38" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F38" s="4" t="str">
+        <v>2021-06-18</v>
+      </c>
+      <c r="G38" s="4" t="str">
+        <v>PR55FXzZvWa</v>
       </c>
     </row>
   </sheetData>
@@ -1446,7 +2544,7 @@
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
   </cols>
@@ -1464,24 +2562,24 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>Malaria access</v>
+        <v>Malaria admin</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2020-04-24</v>
+        <v>2021-05-20</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>ZXEVDM9XRea</v>
+        <v>suMb19wGXPR</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>Malaria admin</v>
+        <v>Malaria access</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>2020-09-03</v>
+        <v>2021-05-20</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>suMb19wGXPR</v>
+        <v>ZXEVDM9XRea</v>
       </c>
     </row>
   </sheetData>
@@ -1593,44 +2691,44 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>[CONFIG] 0-4 years</v>
+        <v>[CONFIG] 15+ years</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>0-4 years</v>
+        <v>15+ years</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>2019-06-29</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>yuathFHLjNe</v>
+        <v>SqvDE9fTeGl</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>[CONFIG] 15+ years</v>
+        <v>[CONFIG] 5-14 years</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>15+ years</v>
+        <v>5-14 y</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2019-06-29</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>SqvDE9fTeGl</v>
+        <v>V9t81g7Wspa</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>[CONFIG] 5-14 years</v>
+        <v>[CONFIG] 0-4 years</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>5-14 y</v>
+        <v>0-4 y</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>2020-03-18</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>V9t81g7Wspa</v>
+        <v>yuathFHLjNe</v>
       </c>
     </row>
     <row r="5">
@@ -1641,7 +2739,7 @@
         <v>Unknown age</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>2020-09-01</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D5" s="5" t="str">
         <v>YXE2HxNf3YB</v>
@@ -1708,12 +2806,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
@@ -1735,16 +2833,16 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>Malaria</v>
+        <v>Malaria stock</v>
       </c>
       <c r="B2" s="4" t="str">
         <v/>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2020-04-24</v>
+        <v>2021-05-03</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>YKVsWm3b47n</v>
+        <v>IHFoEstZjfl</v>
       </c>
     </row>
     <row r="3">
@@ -1755,10 +2853,38 @@
         <v/>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2020-04-27</v>
+        <v>2021-06-23</v>
       </c>
       <c r="D3" s="5" t="str">
         <v>uDy8xg2ofrw</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="str">
+        <v>Malaria Data Quality</v>
+      </c>
+      <c r="B4" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C4" s="4" t="str">
+        <v>2021-06-21</v>
+      </c>
+      <c r="D4" s="4" t="str">
+        <v>XKfUbxFNWaY</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="str">
+        <v>Malaria</v>
+      </c>
+      <c r="B5" s="5" t="str">
+        <v/>
+      </c>
+      <c r="C5" s="5" t="str">
+        <v>2021-06-23</v>
+      </c>
+      <c r="D5" s="5" t="str">
+        <v>YKVsWm3b47n</v>
       </c>
     </row>
   </sheetData>
@@ -1767,21 +2893,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J135"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="69.7109375" customWidth="1"/>
-    <col min="3" max="3" width="46.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="83.7109375" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
     <col min="5" max="5" width="230.7109375" customWidth="1"/>
-    <col min="6" max="6" width="54.7109375" customWidth="1"/>
+    <col min="6" max="6" width="63.7109375" customWidth="1"/>
     <col min="7" max="7" width="116.7109375" customWidth="1"/>
     <col min="8" max="8" width="25.7109375" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1818,89 +2944,89 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>yxl57MQlamu</v>
+        <v>AAFrGj6qxF9</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>[CONFIG] MAL - % of all-admissions/all outpatients</v>
+        <v>[CONFIG] MAL - Malaria inpatient deaths (%)</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>% of all-admissions/all outpatients</v>
+        <v>Proportion of malaria inpatient deaths</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>MAL_PER_ALL_IPD_ALL_OPD</v>
+        <v>MAL_IPD_DTH</v>
       </c>
       <c r="E2" s="4" t="str">
-        <v>Admission rate: Number of all-cause inpatients (admissions) divided by all-cause outpatients multiplied by 100.</v>
+        <v xml:space="preserve">Number of Inpatient malaria deaths divided by number of all deaths at facility multiplied by 100 </v>
       </c>
       <c r="F2" s="4" t="str">
-        <v>All-cause inpatient</v>
+        <v>Malaria deaths</v>
       </c>
       <c r="G2" s="4" t="str">
-        <v>All-cause outpatient cases</v>
+        <v>death</v>
       </c>
       <c r="H2" s="4" t="str">
         <v>Percentage</v>
       </c>
       <c r="I2" s="4" t="str">
-        <v>2019-10-22</v>
+        <v>2021-06-23</v>
       </c>
       <c r="J2" s="4" t="str">
-        <v>YKVsWm3b47n</v>
+        <v>XKfUbxFNWaY</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>cDyuNvxtBQn</v>
+        <v>acDxsQjnEof</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>[CONFIG] MAL - % of all-deaths/all admissions</v>
+        <v>[CONFIG] MAL - Malaria test positivity rate (Micr+RDT) (%)</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>% of all-deaths/all admissions</v>
+        <v>% Malaria test positivity rate</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>MAL_PER_ALL_DEATHS_ALL_ADMIS</v>
+        <v>MAL_TPR</v>
       </c>
       <c r="E3" s="5" t="str">
-        <v>Fatality rate : Number of all-cause deaths divided by all-cause admissions multiplied by 100</v>
+        <v>Total number of positive cases (Micr + RDT) divided by total number of tested (Micr + RDT) multiplied by 100</v>
       </c>
       <c r="F3" s="5" t="str">
-        <v>All-cause death</v>
+        <v>Total positive cases (Micr + RDT)</v>
       </c>
       <c r="G3" s="5" t="str">
-        <v>All-cause admission</v>
+        <v>Total tested (Micr + RDT)</v>
       </c>
       <c r="H3" s="5" t="str">
         <v>Percentage</v>
       </c>
       <c r="I3" s="5" t="str">
-        <v>2019-10-22</v>
+        <v>2021-06-21</v>
       </c>
       <c r="J3" s="5" t="str">
-        <v>YKVsWm3b47n</v>
+        <v>XKfUbxFNWaY, YKVsWm3b47n</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>K1DkT2kokjD</v>
+        <v>AF99VXqV5Fe</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>[CONFIG] MAL - % of malaria tested cases by RDT</v>
+        <v>[CONFIG] MAL - Percentage of malaria IPD</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>% of malaria tested cases by RDT</v>
+        <v>% of inpatient malaria</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>MAL_PER_CASES_WITH_RDT</v>
+        <v>MAL_PER_IPD_MAL</v>
       </c>
       <c r="E4" s="4" t="str">
-        <v xml:space="preserve">Number of suspected cases tested with RDT divided by total number of suspected cases tested with either microscopy or RDT multiplied by 100 </v>
+        <v>(Number of malaria inpatient cases/all-cause inpatient admissions)x100</v>
       </c>
       <c r="F4" s="4" t="str">
-        <v>Cases tested with RDT</v>
+        <v>Malaria IPD cases</v>
       </c>
       <c r="G4" s="4" t="str">
-        <v>Cases tested with microscopy + Cases tested with RDT</v>
+        <v>All-cause IPD</v>
       </c>
       <c r="H4" s="4" t="str">
         <v>Percentage</v>
@@ -1914,182 +3040,182 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>VxAkjvBMvfp</v>
+        <v>ajmJXVocM7a</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>[CONFIG] MAL - % of suspected malaria cases tested</v>
+        <v>[CONFIG] MAL - Primaquine redistributed</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>% of suspected malaria cases tested</v>
+        <v>Primaquine redistributed</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>MAL_PER_SUSP_CASES_TEST</v>
+        <v>MAL_PRIMAQUINE_REDISTRIBUTED</v>
       </c>
       <c r="E5" s="5" t="str">
-        <v xml:space="preserve">Number of suspected cases tested with either microscopy or RDT divided by total number of suspected cases multiplied by 100 </v>
+        <v>Number of Primaquine redistributed</v>
       </c>
       <c r="F5" s="5" t="str">
-        <v>Cases tested with microscopy + Cases tested with RDT</v>
+        <v>MAL - Primaquine redistributed</v>
       </c>
       <c r="G5" s="5" t="str">
-        <v>Suspected malaria cases</v>
+        <v>1</v>
       </c>
       <c r="H5" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I5" s="5" t="str">
-        <v>2019-10-22</v>
+        <v>2021-02-18</v>
       </c>
       <c r="J5" s="5" t="str">
-        <v>YKVsWm3b47n</v>
+        <v>IHFoEstZjfl</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>SqFthnK8FJY</v>
+        <v>APlaSyVyMqx</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>[CONFIG] MAL - Annual blood examination rate (ABER)</v>
+        <v>[CONFIG] MAL - All cause outpatients&gt;Total malaria cases</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>ABER</v>
+        <v>All cause outpatients&gt;Total malaria cases</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>MAL_ABER</v>
+        <v>ALL_CAUSE OPD_GT_TOTAL_MAL</v>
       </c>
       <c r="E6" s="4" t="str">
-        <v>The number of parasitological test conducted for malaria per 100 population per year</v>
+        <v>All cause outpatients minus total malaria cases</v>
       </c>
       <c r="F6" s="4" t="str">
-        <v>Cases tested with microscopy + Cases tested with RDT</v>
+        <v>all cause outpatients - total malaria cases</v>
       </c>
       <c r="G6" s="4" t="str">
-        <v>Population at risk</v>
+        <v>1</v>
       </c>
       <c r="H6" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I6" s="4" t="str">
-        <v>2019-10-22</v>
+        <v>2021-06-21</v>
       </c>
       <c r="J6" s="4" t="str">
-        <v>YKVsWm3b47n</v>
+        <v>XKfUbxFNWaY, YKVsWm3b47n</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>YbO5j3XYABU</v>
+        <v>avidQanPyxp</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>[CONFIG] MAL - Annual malaria parasite incidence (API)</v>
+        <v>[CONFIG] MAL - All cause inpatients&gt;Malaria inpatients</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>API</v>
+        <v>All cause inpatients&gt;Malaria inpatients</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>MAL_API</v>
+        <v>ALL_CAUSE_IPD_GT_MAL_IPD</v>
       </c>
       <c r="E7" s="5" t="str">
-        <v>(Confirmed cases during 1 year/population at risk) x 1000</v>
+        <v>All cause inpatients minus malaria inpatients</v>
       </c>
       <c r="F7" s="5" t="str">
-        <v>Total malaria confirmed cases</v>
+        <v>All cause inpatients - Malaria inpatients</v>
       </c>
       <c r="G7" s="5" t="str">
-        <v>Population at risk*Foci classified as endemic or active (with confirmed local cases for at least the past 2 years)</v>
+        <v>1</v>
       </c>
       <c r="H7" s="5" t="str">
-        <v>Per 1000</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I7" s="5" t="str">
-        <v>2019-10-22</v>
+        <v>2021-06-21</v>
       </c>
       <c r="J7" s="5" t="str">
-        <v>YKVsWm3b47n</v>
+        <v>XKfUbxFNWaY, YKVsWm3b47n</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>V3ddhQv64m9</v>
+        <v>B0HiDb6gBa1</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>[CONFIG] MAL - Case fatality rate (malaria admissions)</v>
+        <v>[CONFIG] MAL - RDT tested&gt;/=RDT positive</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>CFR (of malaria admissions)</v>
+        <v>RDT tested&gt;/=RDT positive</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>MAL_CASE_FATAL_RATE_MAL_IPD</v>
+        <v>MAL_RDT_TEST_GREATER_POS</v>
       </c>
       <c r="E8" s="4" t="str">
-        <v>Malaria case fatality rate (inpatient): number of malaria deaths divided by malaria admissions multiplied by 100</v>
+        <v>Cases tested for malaria with RDT minus RDT positive</v>
       </c>
       <c r="F8" s="4" t="str">
-        <v>Malaria deaths</v>
+        <v>RDT tested - RDT positive</v>
       </c>
       <c r="G8" s="4" t="str">
-        <v>Malaria inpatients</v>
+        <v>1</v>
       </c>
       <c r="H8" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I8" s="4" t="str">
-        <v>2019-10-22</v>
+        <v>2021-06-21</v>
       </c>
       <c r="J8" s="4" t="str">
-        <v>YKVsWm3b47n</v>
+        <v>XKfUbxFNWaY, YKVsWm3b47n</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>KYMYmQUL7zN</v>
+        <v>b3yNPcHGMNN</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>[CONFIG] MAL - Case fatality rate (malaria outpatients)</v>
+        <v>[CONFIG] MAL - Sulfadoxine-pyrimethamine redistributed</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>CFR (of malaria outpatients)</v>
+        <v>Sulfadoxine-pyrimethamine redistributed</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>MAL_CASE_FATAL_RATE_MAL_OPD</v>
+        <v>MAL_SP_REDISTRIBUTED</v>
       </c>
       <c r="E9" s="5" t="str">
-        <v>Malaria case fatality rate (outpatient): number of malaria admissions divided by total number of outpatient malaria cases multiplied by 100</v>
+        <v>Number of Sulfadoxine-pyrimethamine redistributed</v>
       </c>
       <c r="F9" s="5" t="str">
-        <v>Malaria deaths</v>
+        <v>MAL - Sulfadoxine-pyrimethamine redistributed</v>
       </c>
       <c r="G9" s="5" t="str">
-        <v>Outpatient malaria cases (confirmed + presumed)</v>
+        <v>1</v>
       </c>
       <c r="H9" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I9" s="5" t="str">
-        <v>2019-10-22</v>
+        <v>2021-02-18</v>
       </c>
       <c r="J9" s="5" t="str">
-        <v>YKVsWm3b47n</v>
+        <v>IHFoEstZjfl</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>rPYLomUceL4</v>
+        <v>bA6kgEyRkg0</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v xml:space="preserve">[CONFIG] MAL - Malaria cases confirmed </v>
+        <v>[CONFIG] MAL - Malaria confirmed MEDIAN (threshold)</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v xml:space="preserve">Malaria confirmed </v>
+        <v>Malaria confirmed threshold</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>MAL_TOT_MAL_CONF_CASES</v>
+        <v>MAL_CONF_THRES</v>
       </c>
       <c r="E10" s="4" t="str">
-        <v>Number of malaria cases confirmed as positive with microscopy and/or RDT</v>
+        <v/>
       </c>
       <c r="F10" s="4" t="str">
-        <v>Total malaria confirmed cases</v>
+        <v>Malaria confirmed MEDIAN (threshold)</v>
       </c>
       <c r="G10" s="4" t="str">
         <v>1</v>
@@ -2106,54 +3232,54 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>w44M511O2yp</v>
+        <v>bBtpTPIvpNz</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>[CONFIG] MAL - Malaria cases positive microscopy</v>
+        <v>[CONFIG] MAL - All-cause outpatient cases actual reported (%)</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>Positive (micr)</v>
+        <v>% All-cause outpatient actual reported</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>MAL_CASES_POS_MICR</v>
+        <v>ALL _CAUSE_OPD_REPORTED_%</v>
       </c>
       <c r="E11" s="5" t="str">
-        <v>Cases confirmed as positive with microscopy</v>
+        <v>Count of reported all-cause outpatient cases divided by actual number of reports received multiplied by 100</v>
       </c>
       <c r="F11" s="5" t="str">
-        <v>Malaria cases positive with microscopy</v>
+        <v>All-cause outpatient cases</v>
       </c>
       <c r="G11" s="5" t="str">
-        <v>1</v>
+        <v>Actual report for malaria burden reduction</v>
       </c>
       <c r="H11" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I11" s="5" t="str">
-        <v>2019-10-22</v>
+        <v>2021-06-21</v>
       </c>
       <c r="J11" s="5" t="str">
-        <v>YKVsWm3b47n</v>
+        <v>XKfUbxFNWaY, YKVsWm3b47n</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>KnoBf1YCOe2</v>
+        <v>BhoZ0XenErj</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v xml:space="preserve">[CONFIG] MAL - Malaria cases tested with microscopy </v>
+        <v>[CONFIG] MAL - Malaria inpatient admissions</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v xml:space="preserve">Tested (micr) </v>
+        <v>Malaria admissions</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>MAL_CASES_TEST_MICR</v>
+        <v>MAL_INPAT_MAL_CASES</v>
       </c>
       <c r="E12" s="4" t="str">
-        <v>Suspected cases tested with malaria microscopy</v>
+        <v>Admissions or hospitalization in health facility confirmed as malaria excluding admissions of pregnant women for delivery</v>
       </c>
       <c r="F12" s="4" t="str">
-        <v>Malaria cases tested with microscopy</v>
+        <v>Inpatient malaria cases</v>
       </c>
       <c r="G12" s="4" t="str">
         <v>1</v>
@@ -2162,7 +3288,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I12" s="4" t="str">
-        <v>2019-10-22</v>
+        <v>2019-06-29</v>
       </c>
       <c r="J12" s="4" t="str">
         <v>YKVsWm3b47n</v>
@@ -2170,22 +3296,22 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>l0TE4LdzE8j</v>
+        <v>BI6l7Poo65o</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v xml:space="preserve">[CONFIG] MAL - Malaria cases tested with RDT </v>
+        <v>[CONFIG] MAL - ACT opening balance</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v xml:space="preserve">Tested (RDT) </v>
+        <v>ACT opening balance</v>
       </c>
       <c r="D13" s="5" t="str">
-        <v>MAL_CASES_TEST_RDT</v>
+        <v>MAL_ACT_OPENING_BALANCE</v>
       </c>
       <c r="E13" s="5" t="str">
-        <v>Suspected cases tested with malaria rapid diagnostic test (RDT)</v>
+        <v>Number of ACT opening balance</v>
       </c>
       <c r="F13" s="5" t="str">
-        <v>Malaria cases tested with RDT</v>
+        <v>MAL - ACT opening balance</v>
       </c>
       <c r="G13" s="5" t="str">
         <v>1</v>
@@ -2194,39 +3320,39 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I13" s="5" t="str">
-        <v>2019-10-22</v>
+        <v>2021-02-18</v>
       </c>
       <c r="J13" s="5" t="str">
-        <v>YKVsWm3b47n</v>
+        <v>IHFoEstZjfl</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>tIWGvDkU6lb</v>
+        <v>blS3OjRXn0c</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>[CONFIG] MAL - Malaria confirmed MEAN+2 STD (threshold)</v>
+        <v>[CONFIG] MAL - Percentage of pregnant women attending ANC1</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>Malaria confirmed threshold 2</v>
+        <v>Percentage of preganant women attending ANC1</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>MAL_CONF_THRES2</v>
+        <v>MAL_PER_PW_ATTEND_ANC1</v>
       </c>
       <c r="E14" s="4" t="str">
-        <v/>
+        <v>Percentage of pregnant women attending ANC 1st visit</v>
       </c>
       <c r="F14" s="4" t="str">
-        <v>Malaria confirmed MEDIAN+2 STD (threshold)</v>
+        <v>MAL - ANC 1st visit (malaria)</v>
       </c>
       <c r="G14" s="4" t="str">
-        <v>1</v>
+        <v>GEN - Population expected pregnant women</v>
       </c>
       <c r="H14" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I14" s="4" t="str">
-        <v>2019-10-22</v>
+        <v>2019-09-29</v>
       </c>
       <c r="J14" s="4" t="str">
         <v>YKVsWm3b47n</v>
@@ -2234,22 +3360,22 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>bA6kgEyRkg0</v>
+        <v>bmjvOFB90Se</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>[CONFIG] MAL - Malaria confirmed MEDIAN (threshold)</v>
+        <v>[CONFIG] MAL - Sulfadoxine-pyrimethamine stock on hand</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>Malaria confirmed threshold</v>
+        <v>Sulfadoxine-pyrimethamine stock on hand</v>
       </c>
       <c r="D15" s="5" t="str">
-        <v>MAL_CONF_THRES</v>
+        <v>MAL_SP_STOCK_ON_HAND</v>
       </c>
       <c r="E15" s="5" t="str">
-        <v/>
+        <v>Number of Sulfadoxine-pyrimethamine stock on hand</v>
       </c>
       <c r="F15" s="5" t="str">
-        <v>Malaria confirmed MEDIAN (threshold)</v>
+        <v>MAL - Sulfadoxine-pyrimethamine stock on hand</v>
       </c>
       <c r="G15" s="5" t="str">
         <v>1</v>
@@ -2258,30 +3384,30 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I15" s="5" t="str">
-        <v>2019-10-22</v>
+        <v>2021-03-21</v>
       </c>
       <c r="J15" s="5" t="str">
-        <v>YKVsWm3b47n</v>
+        <v>IHFoEstZjfl</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>FdfpxYmcsC3</v>
+        <v>BU9sYJVOslw</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>[CONFIG] MAL - Malaria deaths inpatient</v>
+        <v>[CONFIG] MAL - Sulfadoxine-pyrimethamine opening balance</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>Malaria deaths</v>
+        <v>Sulfadoxine-pyrimethamine opening balance</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>MAL_DEATH</v>
+        <v>MAL_SP_OPENING_BALANCE</v>
       </c>
       <c r="E16" s="4" t="str">
-        <v>Deaths in health facility due to malaria</v>
+        <v>Number of Sulfadoxine-pyrimethamine opening balance</v>
       </c>
       <c r="F16" s="4" t="str">
-        <v>Malaria deaths</v>
+        <v>MAL - Sulfadoxine-pyrimethamine opening balance</v>
       </c>
       <c r="G16" s="4" t="str">
         <v>1</v>
@@ -2290,30 +3416,30 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I16" s="4" t="str">
-        <v>2019-10-22</v>
+        <v>2021-02-18</v>
       </c>
       <c r="J16" s="4" t="str">
-        <v>YKVsWm3b47n</v>
+        <v>IHFoEstZjfl</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>BhoZ0XenErj</v>
+        <v>C4MxCbqDJFy</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>[CONFIG] MAL - Malaria inpatient admissions</v>
+        <v>[CONFIG] MAL - Microscopy tested&gt;/=Microscopy positive</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>Malaria admissions</v>
+        <v>Microscopy tested&gt;/=Microscopy positive</v>
       </c>
       <c r="D17" s="5" t="str">
-        <v>MAL_INPAT_MAL_CASES</v>
+        <v>MAL_MICR_TEST_GT_POS</v>
       </c>
       <c r="E17" s="5" t="str">
-        <v>Admissions or hospitalization in health facility confirmed as malaria excluding admissions of pregnant women for delivery</v>
+        <v>Cases tested for malaria with Microscopy minus microscopy positive</v>
       </c>
       <c r="F17" s="5" t="str">
-        <v>Inpatient malaria cases</v>
+        <v>Microscopy tested - Microscopy positive</v>
       </c>
       <c r="G17" s="5" t="str">
         <v>1</v>
@@ -2322,71 +3448,71 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I17" s="5" t="str">
-        <v>2019-06-29</v>
+        <v>2021-06-21</v>
       </c>
       <c r="J17" s="5" t="str">
-        <v>YKVsWm3b47n</v>
+        <v>XKfUbxFNWaY, YKVsWm3b47n</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>acDxsQjnEof</v>
+        <v>CbvSCPmaz5d</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>[CONFIG] MAL - Malaria test positivity rate (Micr/RDT) (%)</v>
+        <v>[CONFIG] MAL - Artesunate stock out days</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>TPR</v>
+        <v>Artesunate stock out days</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>MAL_TPR</v>
+        <v>MAL_ARTESUNATE_STOCKOUT_DAYS</v>
       </c>
       <c r="E18" s="4" t="str">
-        <v/>
+        <v>Number of days when the facility was stocked out of Artesunate (at any point during the day) during the reporting period.</v>
       </c>
       <c r="F18" s="4" t="str">
-        <v>Total positive cases (Micr + RDT)</v>
+        <v>Artesunate stock out days</v>
       </c>
       <c r="G18" s="4" t="str">
-        <v>Total tested (Micr + RDT)</v>
+        <v>1</v>
       </c>
       <c r="H18" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I18" s="4" t="str">
-        <v>2019-10-22</v>
+        <v>2021-03-22</v>
       </c>
       <c r="J18" s="4" t="str">
-        <v>YKVsWm3b47n</v>
+        <v>IHFoEstZjfl</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>FHm610XVh02</v>
+        <v>cDyuNvxtBQn</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>[CONFIG] MAL - Non-malaria deaths inpatient</v>
+        <v>[CONFIG] MAL - All-deaths/all admissions (%)</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>Non-malaria inpatient deaths</v>
+        <v>% of all-deaths/all admissions</v>
       </c>
       <c r="D19" s="5" t="str">
-        <v>MAL_NON_MAL_IPD_DTH</v>
+        <v>MAL_PER_ALL_DEATHS_ALL_ADMIS</v>
       </c>
       <c r="E19" s="5" t="str">
-        <v>Computed as (all-cause inpatient deaths- malaria inpatient deaths)</v>
+        <v>Fatality rate : Number of all-cause deaths divided by all-cause admissions multiplied by 100</v>
       </c>
       <c r="F19" s="5" t="str">
-        <v>All-cause deaths - malaria deaths</v>
+        <v>All-cause death</v>
       </c>
       <c r="G19" s="5" t="str">
-        <v>1</v>
+        <v>All-cause admission</v>
       </c>
       <c r="H19" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I19" s="5" t="str">
-        <v>2019-10-22</v>
+        <v>2021-06-15</v>
       </c>
       <c r="J19" s="5" t="str">
         <v>YKVsWm3b47n</v>
@@ -2394,54 +3520,54 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>lL9BxL5FSNv</v>
+        <v>CgIjjRIEx9y</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>[CONFIG] MAL - Non-malaria inpatient cases</v>
+        <v>[CONFIG] MAL - Microscopy tested actual reported (%)</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>Non-malaria IPD</v>
+        <v>% microscopy tested actual reported</v>
       </c>
       <c r="D20" s="4" t="str">
-        <v>MAL_NON_MAL_IPD_CASES</v>
+        <v>ALL_MICR_TESTED_REPORTED_%</v>
       </c>
       <c r="E20" s="4" t="str">
-        <v>Computed as (all-cause inpatient cases - malaria inpatient cases)</v>
+        <v>Count of reported microscopy tested divided by actual number of reports received multiplied by 100</v>
       </c>
       <c r="F20" s="4" t="str">
-        <v>All-cause admission - Malaria Inpatients</v>
+        <v>Microscopy tested</v>
       </c>
       <c r="G20" s="4" t="str">
-        <v>1</v>
+        <v>Actual report for malaria burden reduction</v>
       </c>
       <c r="H20" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I20" s="4" t="str">
-        <v>2019-10-22</v>
+        <v>2021-06-21</v>
       </c>
       <c r="J20" s="4" t="str">
-        <v>YKVsWm3b47n</v>
+        <v>XKfUbxFNWaY, YKVsWm3b47n</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>J06o672aumY</v>
+        <v>CHUBTqdiCeO</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>[CONFIG] MAL - Non-malaria outpatient cases</v>
+        <v xml:space="preserve">[CONFIG] MAL - All cause deaths&gt;Malaria inpatient deaths </v>
       </c>
       <c r="C21" s="5" t="str">
-        <v>Non-malaria OPD</v>
+        <v xml:space="preserve">All cause deaths&gt;Malaria inpatient deaths </v>
       </c>
       <c r="D21" s="5" t="str">
-        <v>MAL_NON_MAL_OPD_CASES</v>
+        <v>ALL_CAUSE_DTH_GT_MAL_IPD_DTH</v>
       </c>
       <c r="E21" s="5" t="str">
-        <v>Computed as (all-cause outpatient cases - malaria outpatient cases)</v>
+        <v>All cause deaths minus malaria inpatient deaths</v>
       </c>
       <c r="F21" s="5" t="str">
-        <v>All-cause cases OPD - OPD Mal cases</v>
+        <v xml:space="preserve">All cause deaths - Malaria inpatient deaths </v>
       </c>
       <c r="G21" s="5" t="str">
         <v>1</v>
@@ -2450,353 +3576,353 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I21" s="5" t="str">
-        <v>2019-10-22</v>
+        <v>2021-06-21</v>
       </c>
       <c r="J21" s="5" t="str">
-        <v>YKVsWm3b47n</v>
+        <v>XKfUbxFNWaY, YKVsWm3b47n</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>vK4qNvAtZsG</v>
+        <v>ClIQBqasYpm</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>[CONFIG] MAL - Percentage of infants received an ITN</v>
+        <v>[CONFIG] MAL - RDT stock out days</v>
       </c>
       <c r="C22" s="4" t="str">
-        <v>Percentage of infants received an ITN</v>
+        <v>RDT stock out days</v>
       </c>
       <c r="D22" s="4" t="str">
-        <v>MAL_PER_INFANTS_REC_ITN</v>
+        <v>MAL_RDT_STOCKOUT_DAYS</v>
       </c>
       <c r="E22" s="4" t="str">
-        <v>Percentage of infants received an ITN</v>
+        <v>Number of days when the facility was stocked out of RDTs (at any point during the day) during the reporting period.</v>
       </c>
       <c r="F22" s="4" t="str">
-        <v>LLINs distributed to infants</v>
+        <v>RDT stock out days</v>
       </c>
       <c r="G22" s="4" t="str">
-        <v>GEN - Population expected pregnant women</v>
+        <v>1</v>
       </c>
       <c r="H22" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I22" s="4" t="str">
-        <v>2019-10-22</v>
+        <v>2021-03-22</v>
       </c>
       <c r="J22" s="4" t="str">
-        <v>YKVsWm3b47n</v>
+        <v>IHFoEstZjfl</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>JzWUCTqpITC</v>
+        <v>ClIrLxTeQgG</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>[CONFIG] MAL - Percentage of malaria deaths</v>
+        <v>[CONFIG] MAL - RDTs redistributed</v>
       </c>
       <c r="C23" s="5" t="str">
-        <v>% of malaria deaths</v>
+        <v>RDTs redistributed</v>
       </c>
       <c r="D23" s="5" t="str">
-        <v>MAL_PER_MAL_DTH</v>
+        <v>MAL_RDT_REDISTRIBUTED</v>
       </c>
       <c r="E23" s="5" t="str">
-        <v>(Number of malaria inpatientdeaths/all-cause inpatient deaths)x100</v>
+        <v>Number of RDTs redistributed</v>
       </c>
       <c r="F23" s="5" t="str">
-        <v>Malaria deaths</v>
+        <v>MAL - RDTs redistributed</v>
       </c>
       <c r="G23" s="5" t="str">
-        <v>All-cause deaths</v>
+        <v>1</v>
       </c>
       <c r="H23" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I23" s="5" t="str">
-        <v>2019-10-22</v>
+        <v>2021-02-18</v>
       </c>
       <c r="J23" s="5" t="str">
-        <v>YKVsWm3b47n</v>
+        <v>IHFoEstZjfl</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>AF99VXqV5Fe</v>
+        <v>DEURBGqN6fO</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>[CONFIG] MAL - Percentage of malaria IPD</v>
+        <v xml:space="preserve">[CONFIG] MAL - LLIN received </v>
       </c>
       <c r="C24" s="4" t="str">
-        <v>% of inpatient malaria</v>
+        <v xml:space="preserve">LLIN received </v>
       </c>
       <c r="D24" s="4" t="str">
-        <v>MAL_PER_IPD_MAL</v>
+        <v>MAL_LLIN_RECV</v>
       </c>
       <c r="E24" s="4" t="str">
-        <v>(Number of malaria inpatient cases/all-cause inpatient admissions)x100</v>
+        <v>Number of LLIN received in the stock of the health facility</v>
       </c>
       <c r="F24" s="4" t="str">
-        <v>Malaria IPD cases</v>
+        <v>MAL - LLIN received</v>
       </c>
       <c r="G24" s="4" t="str">
-        <v>All-cause IPD</v>
+        <v>1</v>
       </c>
       <c r="H24" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I24" s="4" t="str">
-        <v>2019-10-22</v>
+        <v>2021-03-04</v>
       </c>
       <c r="J24" s="4" t="str">
-        <v>YKVsWm3b47n</v>
+        <v>IHFoEstZjfl</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>EiWBxnS9wmk</v>
+        <v>DGfysK6msvW</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>[CONFIG] MAL - Percentage of malaria OPD cases</v>
+        <v>[CONFIG] MAL - All-cause inpatient actual reported (%)</v>
       </c>
       <c r="C25" s="5" t="str">
-        <v>% of outpatient malaria cases</v>
+        <v>% All-cause admissions actual reported</v>
       </c>
       <c r="D25" s="5" t="str">
-        <v>MAL_PER_OPD_MAL_CASES</v>
+        <v>ALL_CAUSE_IPT_REPORTED_%</v>
       </c>
       <c r="E25" s="5" t="str">
-        <v>(Number of malaria cases/all-cause outpatient consultations)x100</v>
+        <v>Count of reported all-cause inpatient divided by actual number of reports received multiplied by 100</v>
       </c>
       <c r="F25" s="5" t="str">
-        <v>Malaria OPD cases</v>
+        <v>All-cause inpatient</v>
       </c>
       <c r="G25" s="5" t="str">
-        <v>All-cause OPD</v>
+        <v>Actual report for malaria burden reduction</v>
       </c>
       <c r="H25" s="5" t="str">
         <v>Percentage</v>
       </c>
       <c r="I25" s="5" t="str">
-        <v>2019-10-22</v>
+        <v>2021-06-21</v>
       </c>
       <c r="J25" s="5" t="str">
-        <v>YKVsWm3b47n</v>
+        <v>XKfUbxFNWaY, YKVsWm3b47n</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>blS3OjRXn0c</v>
+        <v>Dh4kab2L39R</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>[CONFIG] MAL - Percentage of pregnant women attending ANC1</v>
+        <v xml:space="preserve">[CONFIG] MAL - Primaquine received </v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>Percentage of preganant women attending ANC1</v>
+        <v xml:space="preserve">Primaquine received </v>
       </c>
       <c r="D26" s="4" t="str">
-        <v>MAL_PER_PW_ATTEND_ANC1</v>
+        <v>MAL_PRIMAQUINE_RECV</v>
       </c>
       <c r="E26" s="4" t="str">
-        <v>Percentage of pregnant women attending ANC 1st visit</v>
+        <v>Number of Primaquine received in the stock of the health facility</v>
       </c>
       <c r="F26" s="4" t="str">
-        <v>MAL - ANC 1st visit (malaria)</v>
+        <v>MAL - Primaquine received</v>
       </c>
       <c r="G26" s="4" t="str">
-        <v>GEN - Population expected pregnant women</v>
+        <v>1</v>
       </c>
       <c r="H26" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I26" s="4" t="str">
-        <v>2019-09-29</v>
+        <v>2021-03-04</v>
       </c>
       <c r="J26" s="4" t="str">
-        <v>YKVsWm3b47n</v>
+        <v>IHFoEstZjfl</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
-        <v>VoN285Q7FQG</v>
+        <v>DpbZBWj6bLQ</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>[CONFIG] MAL - Percentage of pregnant women received an ITN</v>
+        <v>[CONFIG] MAL - LLIN wastage rate (%)</v>
       </c>
       <c r="C27" s="5" t="str">
-        <v>Percentage of pregnant women received an ITN</v>
+        <v>LLIN wastage rate</v>
       </c>
       <c r="D27" s="5" t="str">
-        <v>MAL_PER_PW_REC_ITN</v>
+        <v>LLIN_WASTAGE_RATE</v>
       </c>
       <c r="E27" s="5" t="str">
-        <v>Percentage of pregnant women received an ITN</v>
+        <v>Stock wasted=([Closing balance]-[Stock at hand]) + discarded)</v>
       </c>
       <c r="F27" s="5" t="str">
-        <v>LLINs distributed to pregnant women</v>
+        <v>Stock wasted=([Closing balance]-[Stock at hand]) + discarded)</v>
       </c>
       <c r="G27" s="5" t="str">
-        <v>GEN - Population expected pregnant women</v>
+        <v>Stock used=([Closing balance]-[Stock at hand]) + discarded + dispensed to patient)</v>
       </c>
       <c r="H27" s="5" t="str">
         <v>Percentage</v>
       </c>
       <c r="I27" s="5" t="str">
-        <v>2019-09-20</v>
+        <v>2021-03-21</v>
       </c>
       <c r="J27" s="5" t="str">
-        <v>YKVsWm3b47n</v>
+        <v>IHFoEstZjfl</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>PHKTIO5iFgA</v>
+        <v>DZTSUh1DFyX</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>[CONFIG] MAL - Percentage of pregnant women received IPT1</v>
+        <v>[CONFIG] MAL - Primaquine stock out days</v>
       </c>
       <c r="C28" s="4" t="str">
-        <v>Percentage of pregnant women received IPT1</v>
+        <v>Primaquine stock out days</v>
       </c>
       <c r="D28" s="4" t="str">
-        <v>MAL_PER_PW_REC_IPT1</v>
+        <v>MAL_PRIMAQUINE_STOCKOUT_DAYS</v>
       </c>
       <c r="E28" s="4" t="str">
-        <v>Percentage of pregnant women received IPT1</v>
+        <v>Number of days when the facility was stocked out of Primaquine (at any point during the day) during the reporting period.</v>
       </c>
       <c r="F28" s="4" t="str">
-        <v>SP course received for IPTp (1st dose)</v>
+        <v>Primaquine stock out days</v>
       </c>
       <c r="G28" s="4" t="str">
-        <v>GEN - Population expected pregnant women</v>
+        <v>1</v>
       </c>
       <c r="H28" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I28" s="4" t="str">
-        <v>2019-10-09</v>
+        <v>2021-03-22</v>
       </c>
       <c r="J28" s="4" t="str">
-        <v>YKVsWm3b47n</v>
+        <v>IHFoEstZjfl</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="str">
-        <v>lRBSFNlbk3D</v>
+        <v>e4QSHL8T5Fm</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>[CONFIG] MAL - Percentage of pregnant women received IPT3</v>
+        <v>[CONFIG] MAL - Sulfadoxine-pyrimethamine stock out days</v>
       </c>
       <c r="C29" s="5" t="str">
-        <v>Percentage of pregnant women received IPT3</v>
+        <v>Sulfadoxine-pyrimethamine stock out days</v>
       </c>
       <c r="D29" s="5" t="str">
-        <v>MAL_PER_PW_REC_IPT3</v>
+        <v>MAL_SP_STOCKOUT_DAYS</v>
       </c>
       <c r="E29" s="5" t="str">
-        <v>Percentage of pregnant women received IPT3</v>
+        <v>Number of days when the facility was stocked out of Sulfadoxine-pyrimethamin (at any point during the day) during the reporting period.</v>
       </c>
       <c r="F29" s="5" t="str">
-        <v>SP course received for IPTp (3rd dose)</v>
+        <v>Sulfadoxine-pyrimethamine stock out days</v>
       </c>
       <c r="G29" s="5" t="str">
-        <v>GEN - Population expected pregnant women</v>
+        <v>1</v>
       </c>
       <c r="H29" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I29" s="5" t="str">
-        <v>2019-09-20</v>
+        <v>2021-03-22</v>
       </c>
       <c r="J29" s="5" t="str">
-        <v>YKVsWm3b47n</v>
+        <v>IHFoEstZjfl</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v>qsOjtTbXJgJ</v>
+        <v>Ec4z30wDGVH</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>[CONFIG] MAL - Ratio of admissions</v>
+        <v xml:space="preserve">[CONFIG] RMNCAH - ANC 1st visit </v>
       </c>
       <c r="C30" s="4" t="str">
-        <v>Admissions to population ratio</v>
+        <v xml:space="preserve">ANC 1st visit </v>
       </c>
       <c r="D30" s="4" t="str">
-        <v>MAL_RATIO_OF_POP_IPD</v>
+        <v>RMNCAH_ANC1</v>
       </c>
       <c r="E30" s="4" t="str">
-        <v>Number of all-cause admissions (inpatients) per person per year. Number of all-cause consultations in a year divided by mid-year population</v>
+        <v>First visit by a pregnant woman to a health facility to primarily receive antenatal care. The first antenatal visit may be referred to as a ‘booking or scheduled visit’ when various processes are done as per the national policy.</v>
       </c>
       <c r="F30" s="4" t="str">
-        <v>All-cause admission</v>
+        <v>ANC 1st visit</v>
       </c>
       <c r="G30" s="4" t="str">
-        <v>Population</v>
+        <v>1</v>
       </c>
       <c r="H30" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I30" s="4" t="str">
-        <v>2019-10-22</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J30" s="4" t="str">
-        <v>YKVsWm3b47n</v>
+        <v>uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="str">
-        <v>rJT9jsfSplB</v>
+        <v>eiom58iY0UA</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v>[CONFIG] MAL - Ratio of consultations</v>
+        <v>[CONFIG] MAL - RDT stock coverage time</v>
       </c>
       <c r="C31" s="5" t="str">
-        <v>Consultantations to population ratio</v>
+        <v>Malaria RDT stock coverage time</v>
       </c>
       <c r="D31" s="5" t="str">
-        <v>MAL_RATIO_OF_POP_OPD</v>
+        <v>MAL_RDT_COVERAGE_TIME</v>
       </c>
       <c r="E31" s="5" t="str">
-        <v>Number of consultations per person per year. Number of all-cause consultations in a year divided by mid-year population</v>
+        <v/>
       </c>
       <c r="F31" s="5" t="str">
-        <v>All-cause outpatient</v>
+        <v>usable stock</v>
       </c>
       <c r="G31" s="5" t="str">
-        <v>Population</v>
+        <v>consumed stock</v>
       </c>
       <c r="H31" s="5" t="str">
-        <v>Percentage</v>
+        <v>Rate (factor=1)</v>
       </c>
       <c r="I31" s="5" t="str">
-        <v>2019-10-22</v>
+        <v>2021-05-03</v>
       </c>
       <c r="J31" s="5" t="str">
-        <v>YKVsWm3b47n</v>
+        <v>IHFoEstZjfl</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
-        <v>x2piMpdUU68</v>
+        <v>EiWBxnS9wmk</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>[CONFIG] MAL - Reporting completeness - DTH (%)</v>
+        <v>[CONFIG] MAL - Percentage of malaria OPD cases</v>
       </c>
       <c r="C32" s="4" t="str">
-        <v>Mortality reporting completeness (%)</v>
+        <v>% of outpatient malaria cases</v>
       </c>
       <c r="D32" s="4" t="str">
-        <v>MAL_DTH_REP_COMP_(%)</v>
+        <v>MAL_PER_OPD_MAL_CASES</v>
       </c>
       <c r="E32" s="4" t="str">
-        <v xml:space="preserve">Number of malaria deaths reported by health facilities (public, private and NGO) divided by total number of health facilities expected to report </v>
+        <v>(Number of malaria cases/all-cause outpatient consultations)x100</v>
       </c>
       <c r="F32" s="4" t="str">
-        <v>Number of Health Facility reports received Deaths</v>
+        <v>Malaria OPD cases</v>
       </c>
       <c r="G32" s="4" t="str">
-        <v>Number of Health Facility reports expected to report Deaths</v>
+        <v>All-cause OPD</v>
       </c>
       <c r="H32" s="4" t="str">
         <v>Percentage</v>
@@ -2810,150 +3936,150 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="str">
-        <v>xZPfJVUrSsm</v>
+        <v>ePye02livLt</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v>[CONFIG] MAL - Reporting completeness - IPD (%)</v>
+        <v>[CONFIG] MAL - Health facilities with Primaquine stock-out days (%)</v>
       </c>
       <c r="C33" s="5" t="str">
-        <v>Inpatient reporting completeness (%)</v>
+        <v>HF with Primaquine stockout days (%)</v>
       </c>
       <c r="D33" s="5" t="str">
-        <v>MAL_IPD_REP_COMP_(%)</v>
+        <v>HF_WITH_PRIMAQUINE_STOCKOUT_DAYS_%</v>
       </c>
       <c r="E33" s="5" t="str">
-        <v xml:space="preserve">Number of inpatient  malaria cases reported by health facilities (public, private and NGO) divided by total number of health facilities expected to report </v>
+        <v>Proportion of health facilities with Primaquine stockout days</v>
       </c>
       <c r="F33" s="5" t="str">
-        <v>Number of Health Facility reports received Inpatient</v>
+        <v>HF with Primaquine stockout days reported</v>
       </c>
       <c r="G33" s="5" t="str">
-        <v>Number of Health Facility reports expected to report Inpatient</v>
+        <v>HF reporting stockout days</v>
       </c>
       <c r="H33" s="5" t="str">
         <v>Percentage</v>
       </c>
       <c r="I33" s="5" t="str">
-        <v>2019-10-22</v>
+        <v>2021-06-10</v>
       </c>
       <c r="J33" s="5" t="str">
-        <v>YKVsWm3b47n</v>
+        <v>IHFoEstZjfl</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="str">
-        <v>yobFlvQGbSO</v>
+        <v>Eqy5Nnb0Rpz</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>[CONFIG] MAL - Reporting completeness - OPD (%)</v>
+        <v>[CONFIG] MAL - Primaquine stock discrepancy (%)</v>
       </c>
       <c r="C34" s="4" t="str">
-        <v>OPD reporting completeness (%)</v>
+        <v>Primaquine stock discrepancy (%)</v>
       </c>
       <c r="D34" s="4" t="str">
-        <v>MAL_OPD_REP_COMP_(%)</v>
+        <v>MAL_PRIMAQUINE_DISCREPANCY</v>
       </c>
       <c r="E34" s="4" t="str">
-        <v xml:space="preserve">Number of outpatient  malaria cases reported by health facilities (public, private, NGO and community) divided by total number of health facilities expected to report </v>
+        <v>Percentage of the item's stock discrepancy [Stock on hand - Closing balance] / Stock on hand</v>
       </c>
       <c r="F34" s="4" t="str">
-        <v>Number of Health Facility reports received Outpatient</v>
+        <v>Primaquine stock discrepancy</v>
       </c>
       <c r="G34" s="4" t="str">
-        <v>Number of Health Facility reports expected to report Outpatient</v>
+        <v>stock on hand</v>
       </c>
       <c r="H34" s="4" t="str">
         <v>Percentage</v>
       </c>
       <c r="I34" s="4" t="str">
-        <v>2019-10-28</v>
+        <v>2021-05-11</v>
       </c>
       <c r="J34" s="4" t="str">
-        <v>YKVsWm3b47n</v>
+        <v>IHFoEstZjfl</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="str">
-        <v>oAJpTsMsRxv</v>
+        <v>f1XLmFIwlrK</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>[CONFIG] MAL - Slide positivity rate (microscopy)</v>
+        <v>[CONFIG] MAL - Artesunate stock discrepancy (%)</v>
       </c>
       <c r="C35" s="5" t="str">
-        <v>SPR (Mic)</v>
+        <v>Artesunate stock discrepancy (%)</v>
       </c>
       <c r="D35" s="5" t="str">
-        <v>MAL_SPR_MICR</v>
+        <v>MAL_ARTESUNATE_DISCREPANCY</v>
       </c>
       <c r="E35" s="5" t="str">
-        <v>Number of malaria microscopy positive cases divided by total microcopy tests multiplied by 100</v>
+        <v>Percentage of the item's stock discrepancy [Stock on hand - Closing balance] / Stock on hand</v>
       </c>
       <c r="F35" s="5" t="str">
-        <v>Cases positive with microscopy</v>
+        <v>Artesunate stock discrepancy</v>
       </c>
       <c r="G35" s="5" t="str">
-        <v>Cases tested with microscopy</v>
+        <v>stock on hand</v>
       </c>
       <c r="H35" s="5" t="str">
         <v>Percentage</v>
       </c>
       <c r="I35" s="5" t="str">
-        <v>2019-10-22</v>
+        <v>2021-05-11</v>
       </c>
       <c r="J35" s="5" t="str">
-        <v>YKVsWm3b47n</v>
+        <v>IHFoEstZjfl</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="str">
-        <v>rd71eVlLezw</v>
+        <v>f2dqukJgSxy</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>[CONFIG] MAL - SP course received for IPTp (1st dose)</v>
+        <v>[CONFIG] MAL - All malaria cases actual reported (%)</v>
       </c>
       <c r="C36" s="4" t="str">
-        <v>SP course received for IPTp (1st dose)</v>
+        <v>% OPD malaria cases (conf+pres) actual reported</v>
       </c>
       <c r="D36" s="4" t="str">
-        <v>MAL_SP_COURS_RECV_IPTP1</v>
+        <v>OPD_MAL_CONF_PRES_REPORTED_%</v>
       </c>
       <c r="E36" s="4" t="str">
-        <v xml:space="preserve">Number of 1st dose full treatment course of sulphadoxine-pyrimethamine received for intermittent preventive treatment in pregnancy (IPTp) </v>
+        <v>Count of reported total malaria cases (confirmed + presumed) divided by actual number of reports received multiplied by 100</v>
       </c>
       <c r="F36" s="4" t="str">
-        <v>MAL - SP course received for IPTp (1st dose)</v>
+        <v>Total malaria cases (confirmed + presumed)</v>
       </c>
       <c r="G36" s="4" t="str">
-        <v>1</v>
+        <v>Actual report for malaria burden reduction</v>
       </c>
       <c r="H36" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I36" s="4" t="str">
-        <v>2019-09-24</v>
+        <v>2021-06-21</v>
       </c>
       <c r="J36" s="4" t="str">
-        <v>YKVsWm3b47n</v>
+        <v>XKfUbxFNWaY, YKVsWm3b47n</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="5" t="str">
-        <v>Ffi38WOC65w</v>
+        <v>f2zrEcfETgL</v>
       </c>
       <c r="B37" s="5" t="str">
-        <v>[CONFIG] MAL - SP course received for IPTp (3rd dose)</v>
+        <v>[CONFIG] MAL - Primaquine discarded</v>
       </c>
       <c r="C37" s="5" t="str">
-        <v>SP course received for IPTp (3rd dose)</v>
+        <v>Primaquine discarded</v>
       </c>
       <c r="D37" s="5" t="str">
-        <v>MAL_SP_COURS_RECV_IPTP3</v>
+        <v>MAL_PRIMAQUINE_DISCARDED</v>
       </c>
       <c r="E37" s="5" t="str">
-        <v xml:space="preserve">Number of 3rd dose full treatment course of sulphadoxine-pyrimethamine received for intermittent preventive treatment in pregnancy (IPTp) </v>
+        <v>Number of Primaquine discarded during the reporting period (expired, damaged, etc.)</v>
       </c>
       <c r="F37" s="5" t="str">
-        <v>MAL - SP course received for IPTp (3rd dose)</v>
+        <v>Primaquine discarded</v>
       </c>
       <c r="G37" s="5" t="str">
         <v>1</v>
@@ -2962,36 +4088,36 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I37" s="5" t="str">
-        <v>2019-09-24</v>
+        <v>2020-12-17</v>
       </c>
       <c r="J37" s="5" t="str">
-        <v>YKVsWm3b47n</v>
+        <v>IHFoEstZjfl</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="str">
-        <v>QHcjn7FHI2w</v>
+        <v>FdfpxYmcsC3</v>
       </c>
       <c r="B38" s="4" t="str">
-        <v>[CONFIG] MAL - Test positivity rate (RDT)</v>
+        <v>[CONFIG] MAL - Malaria deaths inpatient</v>
       </c>
       <c r="C38" s="4" t="str">
-        <v>TPR (RDT)</v>
+        <v>Malaria deaths</v>
       </c>
       <c r="D38" s="4" t="str">
-        <v>MAL_TRP_RDT</v>
+        <v>MAL_DEATH</v>
       </c>
       <c r="E38" s="4" t="str">
-        <v>Number of malaria RDT positive cases divided by total RDT tests multiplied by 100</v>
+        <v>Deaths in health facility due to malaria</v>
       </c>
       <c r="F38" s="4" t="str">
-        <v>Cases positive with RDT</v>
+        <v>Malaria deaths</v>
       </c>
       <c r="G38" s="4" t="str">
-        <v>Tested (RDT)</v>
+        <v>1</v>
       </c>
       <c r="H38" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I38" s="4" t="str">
         <v>2019-10-22</v>
@@ -3002,22 +4128,22 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="str">
-        <v>rOt4BctnRqS</v>
+        <v>Ffi38WOC65w</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v xml:space="preserve">[CONFIG] MAL - Total reported malaria cases (confirmed + presumed) </v>
+        <v>[CONFIG] MAL - SP course received for IPTp (3rd dose)</v>
       </c>
       <c r="C39" s="5" t="str">
-        <v xml:space="preserve">Total malaria cases </v>
+        <v>SP course received for IPTp (3rd dose)</v>
       </c>
       <c r="D39" s="5" t="str">
-        <v>MAL_TOT_MAL_CASES_CONF</v>
+        <v>MAL_SP_COURS_RECV_IPTP3</v>
       </c>
       <c r="E39" s="5" t="str">
-        <v>Total number of cases reported as malaria (confirmed with either microscopy or RDT, and presumed clinically as malaria in absence of diagnosis)</v>
+        <v xml:space="preserve">Number of 3rd dose full treatment course of sulphadoxine-pyrimethamine received for intermittent preventive treatment in pregnancy (IPTp) </v>
       </c>
       <c r="F39" s="5" t="str">
-        <v>Total malaria cases (confirmed+presumed)</v>
+        <v>MAL - SP course received for IPTp (3rd dose)</v>
       </c>
       <c r="G39" s="5" t="str">
         <v>1</v>
@@ -3026,7 +4152,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I39" s="5" t="str">
-        <v>2019-10-22</v>
+        <v>2019-09-24</v>
       </c>
       <c r="J39" s="5" t="str">
         <v>YKVsWm3b47n</v>
@@ -3034,22 +4160,22 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>Ec4z30wDGVH</v>
+        <v>FHm610XVh02</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v xml:space="preserve">[CONFIG] RMNCAH - ANC 1st visit </v>
+        <v>[CONFIG] MAL - Non-malaria deaths inpatient</v>
       </c>
       <c r="C40" s="4" t="str">
-        <v xml:space="preserve">ANC 1st visit </v>
+        <v>Non-malaria inpatient deaths</v>
       </c>
       <c r="D40" s="4" t="str">
-        <v>RMNCAH_ANC1</v>
+        <v>MAL_NON_MAL_IPD_DTH</v>
       </c>
       <c r="E40" s="4" t="str">
-        <v>First visit by a pregnant woman to a health facility to primarily receive antenatal care. The first antenatal visit may be referred to as a ‘booking or scheduled visit’ when various processes are done as per the national policy.</v>
+        <v>Computed as (all-cause inpatient deaths- malaria inpatient deaths)</v>
       </c>
       <c r="F40" s="4" t="str">
-        <v>ANC 1st visit</v>
+        <v>All-cause deaths - malaria deaths</v>
       </c>
       <c r="G40" s="4" t="str">
         <v>1</v>
@@ -3058,10 +4184,3050 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I40" s="4" t="str">
-        <v>2019-05-24</v>
+        <v>2019-10-22</v>
       </c>
       <c r="J40" s="4" t="str">
-        <v>uDy8xg2ofrw</v>
+        <v>YKVsWm3b47n</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="str">
+        <v>fkSnzZMYE4F</v>
+      </c>
+      <c r="B41" s="5" t="str">
+        <v>[CONFIG] MAL - Sulfadoxine-pyrimethamine issued</v>
+      </c>
+      <c r="C41" s="5" t="str">
+        <v xml:space="preserve">SP issued </v>
+      </c>
+      <c r="D41" s="5" t="str">
+        <v>MAL_SP_ISSUED</v>
+      </c>
+      <c r="E41" s="5" t="str">
+        <v>Number of Sulfadoxine-pyrimethamine issued from the facility's stock</v>
+      </c>
+      <c r="F41" s="5" t="str">
+        <v>MAL - Sulfadoxine-pyrimethamine issued</v>
+      </c>
+      <c r="G41" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H41" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I41" s="5" t="str">
+        <v>2021-06-11</v>
+      </c>
+      <c r="J41" s="5" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="str">
+        <v>foz7nuOFMNR</v>
+      </c>
+      <c r="B42" s="4" t="str">
+        <v>[CONFIG] MAL - RDT opening balance</v>
+      </c>
+      <c r="C42" s="4" t="str">
+        <v>RDT opening balance</v>
+      </c>
+      <c r="D42" s="4" t="str">
+        <v>MAL_RDT_OPENING_BALANCE</v>
+      </c>
+      <c r="E42" s="4" t="str">
+        <v>Number of RDT opening balance</v>
+      </c>
+      <c r="F42" s="4" t="str">
+        <v>MAL - RDT opening balance</v>
+      </c>
+      <c r="G42" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H42" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I42" s="4" t="str">
+        <v>2021-02-18</v>
+      </c>
+      <c r="J42" s="4" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="str">
+        <v>fqkymAhfnbg</v>
+      </c>
+      <c r="B43" s="5" t="str">
+        <v xml:space="preserve">[CONFIG] MAL - RDT kits received </v>
+      </c>
+      <c r="C43" s="5" t="str">
+        <v xml:space="preserve">RDTs received </v>
+      </c>
+      <c r="D43" s="5" t="str">
+        <v>MAL_RDTS_RECV</v>
+      </c>
+      <c r="E43" s="5" t="str">
+        <v>Number of RDTs received in the facility's stock</v>
+      </c>
+      <c r="F43" s="5" t="str">
+        <v>MAL - RDT kits received</v>
+      </c>
+      <c r="G43" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H43" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I43" s="5" t="str">
+        <v>2021-03-04</v>
+      </c>
+      <c r="J43" s="5" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="str">
+        <v>fr1H0xM09uP</v>
+      </c>
+      <c r="B44" s="4" t="str">
+        <v>[CONFIG] MAL - All-cause death actual reported (%)</v>
+      </c>
+      <c r="C44" s="4" t="str">
+        <v>% All-cause deaths actual reported</v>
+      </c>
+      <c r="D44" s="4" t="str">
+        <v>ALL_CAUSE_DTH_REPORTED_%</v>
+      </c>
+      <c r="E44" s="4" t="str">
+        <v>Count of reported all-cause death divided by actual number of reports received multiplied by 100</v>
+      </c>
+      <c r="F44" s="4" t="str">
+        <v>All-cause death</v>
+      </c>
+      <c r="G44" s="4" t="str">
+        <v>Actual report for malaria burden reduction</v>
+      </c>
+      <c r="H44" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I44" s="4" t="str">
+        <v>2021-06-21</v>
+      </c>
+      <c r="J44" s="4" t="str">
+        <v>XKfUbxFNWaY, YKVsWm3b47n</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="str">
+        <v>GNvUj6KNaDM</v>
+      </c>
+      <c r="B45" s="5" t="str">
+        <v>[CONFIG] MAL - LLIN redistributed</v>
+      </c>
+      <c r="C45" s="5" t="str">
+        <v>LLIN redistributed</v>
+      </c>
+      <c r="D45" s="5" t="str">
+        <v>MAL_LLIN_REDISTRIBUTED</v>
+      </c>
+      <c r="E45" s="5" t="str">
+        <v>Number of LLIN redistributed</v>
+      </c>
+      <c r="F45" s="5" t="str">
+        <v>MAL - LLIN redistributed</v>
+      </c>
+      <c r="G45" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H45" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I45" s="5" t="str">
+        <v>2021-02-18</v>
+      </c>
+      <c r="J45" s="5" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="str">
+        <v>h0iRcZhDsLe</v>
+      </c>
+      <c r="B46" s="4" t="str">
+        <v>[CONFIG] MAL - Artesunate stock on hand</v>
+      </c>
+      <c r="C46" s="4" t="str">
+        <v>Artesunate stock on hand</v>
+      </c>
+      <c r="D46" s="4" t="str">
+        <v>MAL_ARTESUNATE_STOCK_ON_HAND</v>
+      </c>
+      <c r="E46" s="4" t="str">
+        <v>Number of Artesunate stock on hand</v>
+      </c>
+      <c r="F46" s="4" t="str">
+        <v>MAL - Artesunate stock on hand</v>
+      </c>
+      <c r="G46" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H46" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I46" s="4" t="str">
+        <v>2021-03-21</v>
+      </c>
+      <c r="J46" s="4" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="str">
+        <v>hCj9BqpyMvT</v>
+      </c>
+      <c r="B47" s="5" t="str">
+        <v>[CONFIG] MAL - Health facilities with LLIN stock-out days (%)</v>
+      </c>
+      <c r="C47" s="5" t="str">
+        <v>HF with LLIN stockout days (%)</v>
+      </c>
+      <c r="D47" s="5" t="str">
+        <v>HF_WITH_LLIN_STOCKOUT_DAYS_%</v>
+      </c>
+      <c r="E47" s="5" t="str">
+        <v>Proportion of health facilities with LLIN stockout days</v>
+      </c>
+      <c r="F47" s="5" t="str">
+        <v>HF with LLIN stockout days reported</v>
+      </c>
+      <c r="G47" s="5" t="str">
+        <v>HF reporting stockout days</v>
+      </c>
+      <c r="H47" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I47" s="5" t="str">
+        <v>2021-06-10</v>
+      </c>
+      <c r="J47" s="5" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="str">
+        <v>HESD7pkLakc</v>
+      </c>
+      <c r="B48" s="4" t="str">
+        <v>[CONFIG] MAL - ACTs redistributed</v>
+      </c>
+      <c r="C48" s="4" t="str">
+        <v>ACTs redistributed</v>
+      </c>
+      <c r="D48" s="4" t="str">
+        <v>MAL_ACT_REDISTRIBUTED</v>
+      </c>
+      <c r="E48" s="4" t="str">
+        <v>Number of ACTs redistributed</v>
+      </c>
+      <c r="F48" s="4" t="str">
+        <v>MAL - ACTs redistributed</v>
+      </c>
+      <c r="G48" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H48" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I48" s="4" t="str">
+        <v>2021-02-18</v>
+      </c>
+      <c r="J48" s="4" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="str">
+        <v>hGNzrW1xbQN</v>
+      </c>
+      <c r="B49" s="5" t="str">
+        <v>[CONFIG] MAL - RDTs discarded</v>
+      </c>
+      <c r="C49" s="5" t="str">
+        <v>RDTs discarded</v>
+      </c>
+      <c r="D49" s="5" t="str">
+        <v>MAL_RDT_DISCARDED</v>
+      </c>
+      <c r="E49" s="5" t="str">
+        <v>Number of RDTs discarded during the reporting period (expired, damaged, etc.)</v>
+      </c>
+      <c r="F49" s="5" t="str">
+        <v>RDTs discarded</v>
+      </c>
+      <c r="G49" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H49" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I49" s="5" t="str">
+        <v>2020-12-17</v>
+      </c>
+      <c r="J49" s="5" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="str">
+        <v>hjdbr1rTKff</v>
+      </c>
+      <c r="B50" s="4" t="str">
+        <v>[CONFIG] MAL - SX-PYR stock coverage time</v>
+      </c>
+      <c r="C50" s="4" t="str">
+        <v>Malaria SX-PYR stock coverage time</v>
+      </c>
+      <c r="D50" s="4" t="str">
+        <v>MAL_SXPYR_COVERAGE_TIME</v>
+      </c>
+      <c r="E50" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F50" s="4" t="str">
+        <v>usable stock</v>
+      </c>
+      <c r="G50" s="4" t="str">
+        <v>consumed stock</v>
+      </c>
+      <c r="H50" s="4" t="str">
+        <v>Rate (factor=1)</v>
+      </c>
+      <c r="I50" s="4" t="str">
+        <v>2021-05-03</v>
+      </c>
+      <c r="J50" s="4" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="str">
+        <v>I5XKoyarjKG</v>
+      </c>
+      <c r="B51" s="5" t="str">
+        <v xml:space="preserve">[CONFIG] MAL - ACT issued </v>
+      </c>
+      <c r="C51" s="5" t="str">
+        <v xml:space="preserve">ACTs issued </v>
+      </c>
+      <c r="D51" s="5" t="str">
+        <v>MAL_ACT_ISSUED</v>
+      </c>
+      <c r="E51" s="5" t="str">
+        <v>Number of ACTs issued from the facility's stock</v>
+      </c>
+      <c r="F51" s="5" t="str">
+        <v>MAL - ACT issued</v>
+      </c>
+      <c r="G51" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H51" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I51" s="5" t="str">
+        <v>2021-06-11</v>
+      </c>
+      <c r="J51" s="5" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="str">
+        <v>IeUbxBdwDTf</v>
+      </c>
+      <c r="B52" s="4" t="str">
+        <v xml:space="preserve">[CONFIG] MAL - RDT issued </v>
+      </c>
+      <c r="C52" s="4" t="str">
+        <v xml:space="preserve">RDTs drugs issued </v>
+      </c>
+      <c r="D52" s="4" t="str">
+        <v>MAL_RDT_ISSUED</v>
+      </c>
+      <c r="E52" s="4" t="str">
+        <v>Number of RDTs drugs issued from the facility's stock</v>
+      </c>
+      <c r="F52" s="4" t="str">
+        <v>MAL - RDT issued</v>
+      </c>
+      <c r="G52" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H52" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I52" s="4" t="str">
+        <v>2021-06-11</v>
+      </c>
+      <c r="J52" s="4" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="str">
+        <v>iEUye81vR8U</v>
+      </c>
+      <c r="B53" s="5" t="str">
+        <v>[CONFIG] MAL - Artesunate opening balance</v>
+      </c>
+      <c r="C53" s="5" t="str">
+        <v>Artesunate opening balance</v>
+      </c>
+      <c r="D53" s="5" t="str">
+        <v>MAL_ARTESUNATE_OPENING_BALANCE</v>
+      </c>
+      <c r="E53" s="5" t="str">
+        <v>Number of Artesunate opening balance</v>
+      </c>
+      <c r="F53" s="5" t="str">
+        <v>MAL - Artesunate opening balance</v>
+      </c>
+      <c r="G53" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H53" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I53" s="5" t="str">
+        <v>2021-02-18</v>
+      </c>
+      <c r="J53" s="5" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="str">
+        <v>J06o672aumY</v>
+      </c>
+      <c r="B54" s="4" t="str">
+        <v>[CONFIG] MAL - Non-malaria outpatient cases</v>
+      </c>
+      <c r="C54" s="4" t="str">
+        <v>Non-malaria OPD</v>
+      </c>
+      <c r="D54" s="4" t="str">
+        <v>MAL_NON_MAL_OPD_CASES</v>
+      </c>
+      <c r="E54" s="4" t="str">
+        <v>Computed as (all-cause outpatient cases - malaria outpatient cases)</v>
+      </c>
+      <c r="F54" s="4" t="str">
+        <v>All-cause cases OPD - OPD Mal cases</v>
+      </c>
+      <c r="G54" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H54" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I54" s="4" t="str">
+        <v>2019-10-22</v>
+      </c>
+      <c r="J54" s="4" t="str">
+        <v>YKVsWm3b47n</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="str">
+        <v>J3UT51fnJjS</v>
+      </c>
+      <c r="B55" s="5" t="str">
+        <v>[CONFIG] MAL - LLIN stock out days</v>
+      </c>
+      <c r="C55" s="5" t="str">
+        <v>LLIN stock out days</v>
+      </c>
+      <c r="D55" s="5" t="str">
+        <v>MAL_LLIN_STOCKOUT_DAYS</v>
+      </c>
+      <c r="E55" s="5" t="str">
+        <v>Number of days when the facility was stocked out of LLIN (at any point during the day) during the reporting period.</v>
+      </c>
+      <c r="F55" s="5" t="str">
+        <v>LLIN stock out days</v>
+      </c>
+      <c r="G55" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H55" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I55" s="5" t="str">
+        <v>2021-03-22</v>
+      </c>
+      <c r="J55" s="5" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="str">
+        <v>JzWUCTqpITC</v>
+      </c>
+      <c r="B56" s="4" t="str">
+        <v>[CONFIG] MAL - Percentage of malaria deaths</v>
+      </c>
+      <c r="C56" s="4" t="str">
+        <v>% of malaria deaths</v>
+      </c>
+      <c r="D56" s="4" t="str">
+        <v>MAL_PER_MAL_DTH</v>
+      </c>
+      <c r="E56" s="4" t="str">
+        <v>(Number of malaria inpatientdeaths/all-cause inpatient deaths)x100</v>
+      </c>
+      <c r="F56" s="4" t="str">
+        <v>Malaria deaths</v>
+      </c>
+      <c r="G56" s="4" t="str">
+        <v>All-cause deaths</v>
+      </c>
+      <c r="H56" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I56" s="4" t="str">
+        <v>2019-10-22</v>
+      </c>
+      <c r="J56" s="4" t="str">
+        <v>YKVsWm3b47n</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="str">
+        <v>K1DkT2kokjD</v>
+      </c>
+      <c r="B57" s="5" t="str">
+        <v>[CONFIG] MAL - Malaria tested cases by RDT (%)</v>
+      </c>
+      <c r="C57" s="5" t="str">
+        <v>% of malaria tested cases by RDT</v>
+      </c>
+      <c r="D57" s="5" t="str">
+        <v>MAL_PER_CASES_WITH_RDT</v>
+      </c>
+      <c r="E57" s="5" t="str">
+        <v xml:space="preserve">Number of suspected cases tested with RDT divided by total number of suspected cases tested with either microscopy or RDT multiplied by 100 </v>
+      </c>
+      <c r="F57" s="5" t="str">
+        <v>Cases tested with RDT</v>
+      </c>
+      <c r="G57" s="5" t="str">
+        <v>Cases tested with microscopy + Cases tested with RDT</v>
+      </c>
+      <c r="H57" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I57" s="5" t="str">
+        <v>2021-06-15</v>
+      </c>
+      <c r="J57" s="5" t="str">
+        <v>YKVsWm3b47n</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="str">
+        <v>ket0CCCIHKs</v>
+      </c>
+      <c r="B58" s="4" t="str">
+        <v>[CONFIG] MAL - LLIN closing balance</v>
+      </c>
+      <c r="C58" s="4" t="str">
+        <v>LLIN closing balance</v>
+      </c>
+      <c r="D58" s="4" t="str">
+        <v>MAL_LLIN_CLOSING_BAL</v>
+      </c>
+      <c r="E58" s="4" t="str">
+        <v>Number of LLIN as closing balance [Opening balance + Received - Issued - Redistributed - Discarded] at the end of the reporting period</v>
+      </c>
+      <c r="F58" s="4" t="str">
+        <v>LLIN closing bal</v>
+      </c>
+      <c r="G58" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H58" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I58" s="4" t="str">
+        <v>2020-12-17</v>
+      </c>
+      <c r="J58" s="4" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="str">
+        <v>KnoBf1YCOe2</v>
+      </c>
+      <c r="B59" s="5" t="str">
+        <v xml:space="preserve">[CONFIG] MAL - Malaria cases tested with microscopy </v>
+      </c>
+      <c r="C59" s="5" t="str">
+        <v xml:space="preserve">Tested (micr) </v>
+      </c>
+      <c r="D59" s="5" t="str">
+        <v>MAL_CASES_TEST_MICR</v>
+      </c>
+      <c r="E59" s="5" t="str">
+        <v>Suspected cases tested with malaria microscopy</v>
+      </c>
+      <c r="F59" s="5" t="str">
+        <v>Malaria cases tested with microscopy</v>
+      </c>
+      <c r="G59" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H59" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I59" s="5" t="str">
+        <v>2019-10-22</v>
+      </c>
+      <c r="J59" s="5" t="str">
+        <v>YKVsWm3b47n</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="str">
+        <v>kRM758TS6p7</v>
+      </c>
+      <c r="B60" s="4" t="str">
+        <v>[CONFIG] MAL - Reporting Completeness (%)</v>
+      </c>
+      <c r="C60" s="4" t="str">
+        <v>Malaria reporting completeness (%)</v>
+      </c>
+      <c r="D60" s="4" t="str">
+        <v>MAL_RPT_COMPLETENESS</v>
+      </c>
+      <c r="E60" s="4" t="str">
+        <v>Number of actual reports received divided by total number of health facilities expected to report</v>
+      </c>
+      <c r="F60" s="4" t="str">
+        <v>Number of health facilities reported</v>
+      </c>
+      <c r="G60" s="4" t="str">
+        <v>Number of health facilities expected to report</v>
+      </c>
+      <c r="H60" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I60" s="4" t="str">
+        <v>2021-06-23</v>
+      </c>
+      <c r="J60" s="4" t="str">
+        <v>XKfUbxFNWaY, YKVsWm3b47n</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="str">
+        <v>KThZ4t55Q0A</v>
+      </c>
+      <c r="B61" s="5" t="str">
+        <v>[CONFIG] MAL - Malaria confirmed cases actual reported (%)</v>
+      </c>
+      <c r="C61" s="5" t="str">
+        <v>% Malaria cases actual reported</v>
+      </c>
+      <c r="D61" s="5" t="str">
+        <v>CONFIRMED_CASES_REPORTED_%</v>
+      </c>
+      <c r="E61" s="5" t="str">
+        <v>Count of reported malaria confirmed cases  (Mic+RDT positive) divided by actual number of reports received multiplied by 100</v>
+      </c>
+      <c r="F61" s="5" t="str">
+        <v>Malaria confirmed cases (Mic+RDT)</v>
+      </c>
+      <c r="G61" s="5" t="str">
+        <v>Actual report for malaria burden reduction</v>
+      </c>
+      <c r="H61" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I61" s="5" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="J61" s="5" t="str">
+        <v>XKfUbxFNWaY, YKVsWm3b47n</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="str">
+        <v>KYMYmQUL7zN</v>
+      </c>
+      <c r="B62" s="4" t="str">
+        <v>[CONFIG] MAL - Case fatality rate (malaria outpatients)</v>
+      </c>
+      <c r="C62" s="4" t="str">
+        <v>CFR (of malaria outpatients)</v>
+      </c>
+      <c r="D62" s="4" t="str">
+        <v>MAL_CASE_FATAL_RATE_MAL_OPD</v>
+      </c>
+      <c r="E62" s="4" t="str">
+        <v>Malaria case fatality rate (outpatient): number of malaria admissions divided by total number of outpatient malaria cases multiplied by 100</v>
+      </c>
+      <c r="F62" s="4" t="str">
+        <v>Malaria deaths</v>
+      </c>
+      <c r="G62" s="4" t="str">
+        <v>Outpatient malaria cases (confirmed + presumed)</v>
+      </c>
+      <c r="H62" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I62" s="4" t="str">
+        <v>2019-10-22</v>
+      </c>
+      <c r="J62" s="4" t="str">
+        <v>YKVsWm3b47n</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5" t="str">
+        <v>l0TE4LdzE8j</v>
+      </c>
+      <c r="B63" s="5" t="str">
+        <v xml:space="preserve">[CONFIG] MAL - Malaria cases tested with RDT </v>
+      </c>
+      <c r="C63" s="5" t="str">
+        <v xml:space="preserve">Tested (RDT) </v>
+      </c>
+      <c r="D63" s="5" t="str">
+        <v>MAL_CASES_TEST_RDT</v>
+      </c>
+      <c r="E63" s="5" t="str">
+        <v>Suspected cases tested with malaria rapid diagnostic test (RDT)</v>
+      </c>
+      <c r="F63" s="5" t="str">
+        <v>Malaria cases tested with RDT</v>
+      </c>
+      <c r="G63" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H63" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I63" s="5" t="str">
+        <v>2019-10-22</v>
+      </c>
+      <c r="J63" s="5" t="str">
+        <v>YKVsWm3b47n</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="4" t="str">
+        <v>LboUZfKr9EP</v>
+      </c>
+      <c r="B64" s="4" t="str">
+        <v>[CONFIG] MAL - Sulfadoxine-pyrimethamine received</v>
+      </c>
+      <c r="C64" s="4" t="str">
+        <v>SP received stock</v>
+      </c>
+      <c r="D64" s="4" t="str">
+        <v>MAL_SP_RECV_STOCK</v>
+      </c>
+      <c r="E64" s="4" t="str">
+        <v>Number of Sulfadoxine-pyrimethamine received in the facility's stock</v>
+      </c>
+      <c r="F64" s="4" t="str">
+        <v>MAL - Sulfadoxine-pyrimethamine received</v>
+      </c>
+      <c r="G64" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H64" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I64" s="4" t="str">
+        <v>2021-03-04</v>
+      </c>
+      <c r="J64" s="4" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5" t="str">
+        <v>LCSjdxqMz7U</v>
+      </c>
+      <c r="B65" s="5" t="str">
+        <v>[CONFIG] MAL - Reporting timeliness (%)</v>
+      </c>
+      <c r="C65" s="5" t="str">
+        <v>Malaria reporting timeliness (%)</v>
+      </c>
+      <c r="D65" s="5" t="str">
+        <v>MAL_RPT_TIMELINESS</v>
+      </c>
+      <c r="E65" s="5" t="str">
+        <v>Number of actual reports received on time divided by total number of health facilities expected to report</v>
+      </c>
+      <c r="F65" s="5" t="str">
+        <v>Number of health facilities reported on time</v>
+      </c>
+      <c r="G65" s="5" t="str">
+        <v>Number of health facilities expected to report</v>
+      </c>
+      <c r="H65" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I65" s="5" t="str">
+        <v>2021-06-23</v>
+      </c>
+      <c r="J65" s="5" t="str">
+        <v>XKfUbxFNWaY, YKVsWm3b47n</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="4" t="str">
+        <v>lCUNJpZTDQJ</v>
+      </c>
+      <c r="B66" s="4" t="str">
+        <v>[CONFIG] MAL - LLIN stock discrepancy (%)</v>
+      </c>
+      <c r="C66" s="4" t="str">
+        <v>LLIN stock discrepancy (%)</v>
+      </c>
+      <c r="D66" s="4" t="str">
+        <v>MAL_LLIN_DISCREPANCY</v>
+      </c>
+      <c r="E66" s="4" t="str">
+        <v>Percentage of the item's stock discrepancy [Stock on hand - Closing balance] / Stock on hand</v>
+      </c>
+      <c r="F66" s="4" t="str">
+        <v>LLIN stock discrepancy</v>
+      </c>
+      <c r="G66" s="4" t="str">
+        <v>stock on hand</v>
+      </c>
+      <c r="H66" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I66" s="4" t="str">
+        <v>2021-05-11</v>
+      </c>
+      <c r="J66" s="4" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5" t="str">
+        <v>lL9BxL5FSNv</v>
+      </c>
+      <c r="B67" s="5" t="str">
+        <v>[CONFIG] MAL - Non-malaria inpatient cases</v>
+      </c>
+      <c r="C67" s="5" t="str">
+        <v>Non-malaria IPD</v>
+      </c>
+      <c r="D67" s="5" t="str">
+        <v>MAL_NON_MAL_IPD_CASES</v>
+      </c>
+      <c r="E67" s="5" t="str">
+        <v>Computed as (all-cause inpatient cases - malaria inpatient cases)</v>
+      </c>
+      <c r="F67" s="5" t="str">
+        <v>All-cause admission - Malaria Inpatients</v>
+      </c>
+      <c r="G67" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H67" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I67" s="5" t="str">
+        <v>2019-10-22</v>
+      </c>
+      <c r="J67" s="5" t="str">
+        <v>YKVsWm3b47n</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="4" t="str">
+        <v>LlI38w39pwW</v>
+      </c>
+      <c r="B68" s="4" t="str">
+        <v>[CONFIG] MAL - PMQ stock coverage time</v>
+      </c>
+      <c r="C68" s="4" t="str">
+        <v>Malaria PMQ stock coverage time</v>
+      </c>
+      <c r="D68" s="4" t="str">
+        <v>MAL_PMQ_COVERAGE_TIME</v>
+      </c>
+      <c r="E68" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F68" s="4" t="str">
+        <v>usable stock</v>
+      </c>
+      <c r="G68" s="4" t="str">
+        <v>consumed stock</v>
+      </c>
+      <c r="H68" s="4" t="str">
+        <v>Rate (factor=1)</v>
+      </c>
+      <c r="I68" s="4" t="str">
+        <v>2021-05-03</v>
+      </c>
+      <c r="J68" s="4" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="5" t="str">
+        <v>lRBSFNlbk3D</v>
+      </c>
+      <c r="B69" s="5" t="str">
+        <v>[CONFIG] MAL - Percentage of pregnant women received IPT3</v>
+      </c>
+      <c r="C69" s="5" t="str">
+        <v>Percentage of pregnant women received IPT3</v>
+      </c>
+      <c r="D69" s="5" t="str">
+        <v>MAL_PER_PW_REC_IPT3</v>
+      </c>
+      <c r="E69" s="5" t="str">
+        <v>Percentage of pregnant women received IPT3</v>
+      </c>
+      <c r="F69" s="5" t="str">
+        <v>SP course received for IPTp (3rd dose)</v>
+      </c>
+      <c r="G69" s="5" t="str">
+        <v>GEN - Population expected pregnant women</v>
+      </c>
+      <c r="H69" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I69" s="5" t="str">
+        <v>2019-09-20</v>
+      </c>
+      <c r="J69" s="5" t="str">
+        <v>YKVsWm3b47n</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="4" t="str">
+        <v>mm9hChdAyl3</v>
+      </c>
+      <c r="B70" s="4" t="str">
+        <v>[CONFIG] MAL - LLIN discarded</v>
+      </c>
+      <c r="C70" s="4" t="str">
+        <v>LLIN discarded</v>
+      </c>
+      <c r="D70" s="4" t="str">
+        <v>MAL_LLIN_DISCARDED</v>
+      </c>
+      <c r="E70" s="4" t="str">
+        <v>Number of LLIN discarded during the reporting period (expired, damaged, etc.)</v>
+      </c>
+      <c r="F70" s="4" t="str">
+        <v>LLIN discarded</v>
+      </c>
+      <c r="G70" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H70" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I70" s="4" t="str">
+        <v>2020-12-17</v>
+      </c>
+      <c r="J70" s="4" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="5" t="str">
+        <v>MwpGLM7V7vn</v>
+      </c>
+      <c r="B71" s="5" t="str">
+        <v>[CONFIG] MAL - RDT positive actual reported (%)</v>
+      </c>
+      <c r="C71" s="5" t="str">
+        <v>% RDT positive actual reported</v>
+      </c>
+      <c r="D71" s="5" t="str">
+        <v>ALL_RDT_POS_REPORTED_%</v>
+      </c>
+      <c r="E71" s="5" t="str">
+        <v>Count of reported RDT positive divided by actual number of reports received multiplied by 100</v>
+      </c>
+      <c r="F71" s="5" t="str">
+        <v>RDT positive</v>
+      </c>
+      <c r="G71" s="5" t="str">
+        <v>Actual report for malaria burden reduction</v>
+      </c>
+      <c r="H71" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I71" s="5" t="str">
+        <v>2021-06-21</v>
+      </c>
+      <c r="J71" s="5" t="str">
+        <v>XKfUbxFNWaY, YKVsWm3b47n</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="4" t="str">
+        <v>o3FTGfWDUpz</v>
+      </c>
+      <c r="B72" s="4" t="str">
+        <v>[CONFIG] MAL - RDTs stock on hand</v>
+      </c>
+      <c r="C72" s="4" t="str">
+        <v>RDTs stock on hand</v>
+      </c>
+      <c r="D72" s="4" t="str">
+        <v>MAL_RDT_STOCK_ON_HAND</v>
+      </c>
+      <c r="E72" s="4" t="str">
+        <v>Number of RDTs stock on hand</v>
+      </c>
+      <c r="F72" s="4" t="str">
+        <v>MAL - RDTs stock on hand</v>
+      </c>
+      <c r="G72" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H72" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I72" s="4" t="str">
+        <v>2021-03-21</v>
+      </c>
+      <c r="J72" s="4" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="5" t="str">
+        <v>oAJpTsMsRxv</v>
+      </c>
+      <c r="B73" s="5" t="str">
+        <v>[CONFIG] MAL - Slide (microscopy) positivity rate (%)</v>
+      </c>
+      <c r="C73" s="5" t="str">
+        <v>Slide (microscopy) positivity rate (%)</v>
+      </c>
+      <c r="D73" s="5" t="str">
+        <v>MAL_SPR_MICR</v>
+      </c>
+      <c r="E73" s="5" t="str">
+        <v>Number of malaria microscopy positive cases divided by total microcopy tests multiplied by 100</v>
+      </c>
+      <c r="F73" s="5" t="str">
+        <v>Cases positive with microscopy</v>
+      </c>
+      <c r="G73" s="5" t="str">
+        <v>Cases tested with microscopy</v>
+      </c>
+      <c r="H73" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I73" s="5" t="str">
+        <v>2021-06-23</v>
+      </c>
+      <c r="J73" s="5" t="str">
+        <v>XKfUbxFNWaY, YKVsWm3b47n</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="4" t="str">
+        <v>OCRFvqr1UkZ</v>
+      </c>
+      <c r="B74" s="4" t="str">
+        <v>[CONFIG] MAL - Microscopy positive actual reported (%)</v>
+      </c>
+      <c r="C74" s="4" t="str">
+        <v>% microscopy positive actual reported</v>
+      </c>
+      <c r="D74" s="4" t="str">
+        <v>ALL_MICR_POS_REPORTED_%</v>
+      </c>
+      <c r="E74" s="4" t="str">
+        <v>Count of reported microscopy positive divided by actual number of reports received multiplied by 100</v>
+      </c>
+      <c r="F74" s="4" t="str">
+        <v>Microscopy positive</v>
+      </c>
+      <c r="G74" s="4" t="str">
+        <v>Actual report for malaria burden reduction</v>
+      </c>
+      <c r="H74" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I74" s="4" t="str">
+        <v>2021-06-21</v>
+      </c>
+      <c r="J74" s="4" t="str">
+        <v>XKfUbxFNWaY, YKVsWm3b47n</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="5" t="str">
+        <v>OS3CLHlk3HS</v>
+      </c>
+      <c r="B75" s="5" t="str">
+        <v>[CONFIG] MAL -  Confirmed malaria cases&gt;/= Treated with 1st line courses</v>
+      </c>
+      <c r="C75" s="5" t="str">
+        <v xml:space="preserve"> Confirmed malaria cases&gt;/= 1st line TX</v>
+      </c>
+      <c r="D75" s="5" t="str">
+        <v xml:space="preserve"> MAL_CONF_CASES_GT_ 1ST_ LINE_TX</v>
+      </c>
+      <c r="E75" s="5" t="str">
+        <v>Confirmed malaria cases minus confirmed malaria cases treated with 1st line treatment courses (incl ACT)</v>
+      </c>
+      <c r="F75" s="5" t="str">
+        <v>Confirmed malaria cases - cases treated with 1st line tx</v>
+      </c>
+      <c r="G75" s="5" t="str">
+        <v>Confirmed malaria cases - cases treated with 1st line tx</v>
+      </c>
+      <c r="H75" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I75" s="5" t="str">
+        <v>2021-06-21</v>
+      </c>
+      <c r="J75" s="5" t="str">
+        <v>XKfUbxFNWaY, YKVsWm3b47n</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="4" t="str">
+        <v>oXCc5MR3LLi</v>
+      </c>
+      <c r="B76" s="4" t="str">
+        <v>[CONFIG] MAL - Health facilities with RDTs stock-out days (%)</v>
+      </c>
+      <c r="C76" s="4" t="str">
+        <v>HF with RDTs stockout days (%)</v>
+      </c>
+      <c r="D76" s="4" t="str">
+        <v>HF_WITH_RDTS_STOCKOUT_DAYS_%</v>
+      </c>
+      <c r="E76" s="4" t="str">
+        <v>Proportion of health facilities with RDTs stockout days</v>
+      </c>
+      <c r="F76" s="4" t="str">
+        <v>HF with RDTs stockout days reported</v>
+      </c>
+      <c r="G76" s="4" t="str">
+        <v>HF reporting stockout days</v>
+      </c>
+      <c r="H76" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I76" s="4" t="str">
+        <v>2021-06-10</v>
+      </c>
+      <c r="J76" s="4" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5" t="str">
+        <v>OzpsrdzqZXp</v>
+      </c>
+      <c r="B77" s="5" t="str">
+        <v>[CONFIG] MAL - Health facilities with Sulfadoxine-pyrimethamine stockout days (%)</v>
+      </c>
+      <c r="C77" s="5" t="str">
+        <v>HF with SP stockout days (%)</v>
+      </c>
+      <c r="D77" s="5" t="str">
+        <v>HF_WITH_SP_STOCKOUT_DAYS_%</v>
+      </c>
+      <c r="E77" s="5" t="str">
+        <v>Proportion of health facilities with SP stockout days</v>
+      </c>
+      <c r="F77" s="5" t="str">
+        <v>HF with SP stockout days reported</v>
+      </c>
+      <c r="G77" s="5" t="str">
+        <v>HF reporting stockout days</v>
+      </c>
+      <c r="H77" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I77" s="5" t="str">
+        <v>2021-06-10</v>
+      </c>
+      <c r="J77" s="5" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="4" t="str">
+        <v>p2s6iZcpke1</v>
+      </c>
+      <c r="B78" s="4" t="str">
+        <v>[CONFIG] MAL - Artesunate wastage rate (%)</v>
+      </c>
+      <c r="C78" s="4" t="str">
+        <v>Artesunate wastage rate</v>
+      </c>
+      <c r="D78" s="4" t="str">
+        <v>ARTESUNATE_WASTAGE_RATE</v>
+      </c>
+      <c r="E78" s="4" t="str">
+        <v>Stock wasted=([Closing balance]-[Stock at hand]) + discarded)</v>
+      </c>
+      <c r="F78" s="4" t="str">
+        <v>Stock wasted=([Closing balance]-[Stock at hand]) + discarded)</v>
+      </c>
+      <c r="G78" s="4" t="str">
+        <v>Stock used=([Closing balance]-[Stock at hand]) + discarded + dispensed to patient)</v>
+      </c>
+      <c r="H78" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I78" s="4" t="str">
+        <v>2021-03-21</v>
+      </c>
+      <c r="J78" s="4" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5" t="str">
+        <v>pDC6NBURuaz</v>
+      </c>
+      <c r="B79" s="5" t="str">
+        <v>[CONFIG] MAL - RDTs wastage rate (%)</v>
+      </c>
+      <c r="C79" s="5" t="str">
+        <v>RDTs wastage rate</v>
+      </c>
+      <c r="D79" s="5" t="str">
+        <v>RDTS_WASTAGE_RATE</v>
+      </c>
+      <c r="E79" s="5" t="str">
+        <v>Stock wasted=([Closing balance]-[Stock at hand]) + discarded)</v>
+      </c>
+      <c r="F79" s="5" t="str">
+        <v>Stock wasted=([Closing balance]-[Stock at hand]) + discarded)</v>
+      </c>
+      <c r="G79" s="5" t="str">
+        <v>Stock used=([Closing balance]-[Stock at hand]) + discarded + dispensed to patient)</v>
+      </c>
+      <c r="H79" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I79" s="5" t="str">
+        <v>2021-03-21</v>
+      </c>
+      <c r="J79" s="5" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="4" t="str">
+        <v>PHKTIO5iFgA</v>
+      </c>
+      <c r="B80" s="4" t="str">
+        <v>[CONFIG] MAL - Percentage of pregnant women received IPT1</v>
+      </c>
+      <c r="C80" s="4" t="str">
+        <v>Percentage of pregnant women received IPT1</v>
+      </c>
+      <c r="D80" s="4" t="str">
+        <v>MAL_PER_PW_REC_IPT1</v>
+      </c>
+      <c r="E80" s="4" t="str">
+        <v>Percentage of pregnant women received IPT1</v>
+      </c>
+      <c r="F80" s="4" t="str">
+        <v>SP course received for IPTp (1st dose)</v>
+      </c>
+      <c r="G80" s="4" t="str">
+        <v>GEN - Population expected pregnant women</v>
+      </c>
+      <c r="H80" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I80" s="4" t="str">
+        <v>2019-10-09</v>
+      </c>
+      <c r="J80" s="4" t="str">
+        <v>YKVsWm3b47n</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="5" t="str">
+        <v>psJy41rJsiE</v>
+      </c>
+      <c r="B81" s="5" t="str">
+        <v>[CONFIG] MAL - Primaquine opening balance</v>
+      </c>
+      <c r="C81" s="5" t="str">
+        <v>Primaquine opening balance</v>
+      </c>
+      <c r="D81" s="5" t="str">
+        <v>MAL_PRIMAQUINE_OPENING_BALANCE</v>
+      </c>
+      <c r="E81" s="5" t="str">
+        <v>Number of Primaquine opening balance</v>
+      </c>
+      <c r="F81" s="5" t="str">
+        <v>MAL - Primaquine opening balance</v>
+      </c>
+      <c r="G81" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H81" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I81" s="5" t="str">
+        <v>2021-02-18</v>
+      </c>
+      <c r="J81" s="5" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="4" t="str">
+        <v>Pt9zvTAmuC2</v>
+      </c>
+      <c r="B82" s="4" t="str">
+        <v>[CONFIG] MAL - ART stock coverage time</v>
+      </c>
+      <c r="C82" s="4" t="str">
+        <v>Malaria ART stock coverage time</v>
+      </c>
+      <c r="D82" s="4" t="str">
+        <v>MAL_ART_COVERAGE_TIME</v>
+      </c>
+      <c r="E82" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F82" s="4" t="str">
+        <v>usable stock</v>
+      </c>
+      <c r="G82" s="4" t="str">
+        <v>consumed stock</v>
+      </c>
+      <c r="H82" s="4" t="str">
+        <v>Rate (factor=1)</v>
+      </c>
+      <c r="I82" s="4" t="str">
+        <v>2021-05-03</v>
+      </c>
+      <c r="J82" s="4" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="5" t="str">
+        <v>QHcjn7FHI2w</v>
+      </c>
+      <c r="B83" s="5" t="str">
+        <v>[CONFIG] MAL - RDT positivity rate (%)</v>
+      </c>
+      <c r="C83" s="5" t="str">
+        <v>% RDT positivity rate</v>
+      </c>
+      <c r="D83" s="5" t="str">
+        <v>MAL_TRP_RDT</v>
+      </c>
+      <c r="E83" s="5" t="str">
+        <v>Number of malaria RDT positive cases divided by total RDT tests multiplied by 100</v>
+      </c>
+      <c r="F83" s="5" t="str">
+        <v>Cases positive with RDT</v>
+      </c>
+      <c r="G83" s="5" t="str">
+        <v>Tested (RDT)</v>
+      </c>
+      <c r="H83" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I83" s="5" t="str">
+        <v>2021-06-21</v>
+      </c>
+      <c r="J83" s="5" t="str">
+        <v>XKfUbxFNWaY, YKVsWm3b47n</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="4" t="str">
+        <v>QJv5i3fzFBJ</v>
+      </c>
+      <c r="B84" s="4" t="str">
+        <v>[CONFIG] MAL - LLIN stock coverage time</v>
+      </c>
+      <c r="C84" s="4" t="str">
+        <v>Malaria LLIN stock coverage time</v>
+      </c>
+      <c r="D84" s="4" t="str">
+        <v>MAL_LLIN_COVERAGE_TIME</v>
+      </c>
+      <c r="E84" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F84" s="4" t="str">
+        <v>usable stock</v>
+      </c>
+      <c r="G84" s="4" t="str">
+        <v>consumed stock</v>
+      </c>
+      <c r="H84" s="4" t="str">
+        <v>Rate (factor=1)</v>
+      </c>
+      <c r="I84" s="4" t="str">
+        <v>2021-05-03</v>
+      </c>
+      <c r="J84" s="4" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="5" t="str">
+        <v>qsOjtTbXJgJ</v>
+      </c>
+      <c r="B85" s="5" t="str">
+        <v>[CONFIG] MAL - Ratio of admissions</v>
+      </c>
+      <c r="C85" s="5" t="str">
+        <v>Admissions to population ratio</v>
+      </c>
+      <c r="D85" s="5" t="str">
+        <v>MAL_RATIO_OF_POP_IPD</v>
+      </c>
+      <c r="E85" s="5" t="str">
+        <v>Number of all-cause admissions (inpatients) per person per year. Number of all-cause consultations in a year divided by mid-year population</v>
+      </c>
+      <c r="F85" s="5" t="str">
+        <v>All-cause admission</v>
+      </c>
+      <c r="G85" s="5" t="str">
+        <v>Population</v>
+      </c>
+      <c r="H85" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I85" s="5" t="str">
+        <v>2019-10-22</v>
+      </c>
+      <c r="J85" s="5" t="str">
+        <v>YKVsWm3b47n</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="4" t="str">
+        <v>RBnVKphd48z</v>
+      </c>
+      <c r="B86" s="4" t="str">
+        <v>[CONFIG] MAL - ACT wastage rate (%)</v>
+      </c>
+      <c r="C86" s="4" t="str">
+        <v>ACT wastage rate</v>
+      </c>
+      <c r="D86" s="4" t="str">
+        <v>ACT_WASTAGE_RATE</v>
+      </c>
+      <c r="E86" s="4" t="str">
+        <v>Stock wasted=([Closing balance]-[Stock at hand]) + discarded)</v>
+      </c>
+      <c r="F86" s="4" t="str">
+        <v>Stock wasted=([Closing balance]-[Stock at hand]) + discarded)</v>
+      </c>
+      <c r="G86" s="4" t="str">
+        <v>Stock used=([Closing balance]-[Stock at hand]) + discarded + dispensed to patient)</v>
+      </c>
+      <c r="H86" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I86" s="4" t="str">
+        <v>2021-03-21</v>
+      </c>
+      <c r="J86" s="4" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="5" t="str">
+        <v>rd71eVlLezw</v>
+      </c>
+      <c r="B87" s="5" t="str">
+        <v>[CONFIG] MAL - SP course received for IPTp (1st dose)</v>
+      </c>
+      <c r="C87" s="5" t="str">
+        <v>SP course received for IPTp (1st dose)</v>
+      </c>
+      <c r="D87" s="5" t="str">
+        <v>MAL_SP_COURS_RECV_IPTP1</v>
+      </c>
+      <c r="E87" s="5" t="str">
+        <v xml:space="preserve">Number of 1st dose full treatment course of sulphadoxine-pyrimethamine received for intermittent preventive treatment in pregnancy (IPTp) </v>
+      </c>
+      <c r="F87" s="5" t="str">
+        <v>MAL - SP course received for IPTp (1st dose)</v>
+      </c>
+      <c r="G87" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H87" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I87" s="5" t="str">
+        <v>2019-09-24</v>
+      </c>
+      <c r="J87" s="5" t="str">
+        <v>YKVsWm3b47n</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="4" t="str">
+        <v>Rf6DhpY8DeK</v>
+      </c>
+      <c r="B88" s="4" t="str">
+        <v>[CONFIG] MAL - Sulfadoxine-pyrimethamine wastage rate (%)</v>
+      </c>
+      <c r="C88" s="4" t="str">
+        <v>Sulfadoxine-pyrimethamine wastage rate</v>
+      </c>
+      <c r="D88" s="4" t="str">
+        <v>SULFADOXINE-PYRIMETHAMINE_WASTAGE_RATE</v>
+      </c>
+      <c r="E88" s="4" t="str">
+        <v>Stock wasted=([Closing balance]-[Stock at hand]) + discarded)</v>
+      </c>
+      <c r="F88" s="4" t="str">
+        <v>Stock wasted=([Closing balance]-[Stock at hand]) + discarded)</v>
+      </c>
+      <c r="G88" s="4" t="str">
+        <v>Stock used=([Closing balance]-[Stock at hand]) + discarded + dispensed to patient)</v>
+      </c>
+      <c r="H88" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I88" s="4" t="str">
+        <v>2021-03-21</v>
+      </c>
+      <c r="J88" s="4" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="5" t="str">
+        <v>RgRkvZiQaSt</v>
+      </c>
+      <c r="B89" s="5" t="str">
+        <v>[CONFIG] MAL - Inpatient malaria cases actual reported (%)</v>
+      </c>
+      <c r="C89" s="5" t="str">
+        <v>% Malaria admissions actual reported</v>
+      </c>
+      <c r="D89" s="5" t="str">
+        <v>MAL_IPT_REPORTED_%</v>
+      </c>
+      <c r="E89" s="5" t="str">
+        <v xml:space="preserve">Number of malaria inpatients divided by number of all inpatients deaths multiplied by 100 </v>
+      </c>
+      <c r="F89" s="5" t="str">
+        <v>Inpatient malaria cases</v>
+      </c>
+      <c r="G89" s="5" t="str">
+        <v>Actual report for malaria burden reduction</v>
+      </c>
+      <c r="H89" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I89" s="5" t="str">
+        <v>2021-06-21</v>
+      </c>
+      <c r="J89" s="5" t="str">
+        <v>XKfUbxFNWaY, YKVsWm3b47n</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="4" t="str">
+        <v>rJT9jsfSplB</v>
+      </c>
+      <c r="B90" s="4" t="str">
+        <v>[CONFIG] MAL - Ratio of consultations</v>
+      </c>
+      <c r="C90" s="4" t="str">
+        <v>Consultantations to population ratio</v>
+      </c>
+      <c r="D90" s="4" t="str">
+        <v>MAL_RATIO_OF_POP_OPD</v>
+      </c>
+      <c r="E90" s="4" t="str">
+        <v>Number of consultations per person per year. Number of all-cause consultations in a year divided by mid-year population</v>
+      </c>
+      <c r="F90" s="4" t="str">
+        <v>All-cause outpatient</v>
+      </c>
+      <c r="G90" s="4" t="str">
+        <v>Population</v>
+      </c>
+      <c r="H90" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I90" s="4" t="str">
+        <v>2019-10-22</v>
+      </c>
+      <c r="J90" s="4" t="str">
+        <v>YKVsWm3b47n</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="5" t="str">
+        <v>rL482g0s5JL</v>
+      </c>
+      <c r="B91" s="5" t="str">
+        <v>[CONFIG] MAL - Primaquine closing balance</v>
+      </c>
+      <c r="C91" s="5" t="str">
+        <v>Primaquine closing balance</v>
+      </c>
+      <c r="D91" s="5" t="str">
+        <v>MAL_PRIMAQUINE_CLOSING_BAL</v>
+      </c>
+      <c r="E91" s="5" t="str">
+        <v>Number of Primaquine as closing balance [Opening balance + Received - Issued - Redistributed - Discarded] at the end of the reporting period</v>
+      </c>
+      <c r="F91" s="5" t="str">
+        <v>Primaquine closing bal</v>
+      </c>
+      <c r="G91" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H91" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I91" s="5" t="str">
+        <v>2020-12-17</v>
+      </c>
+      <c r="J91" s="5" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="4" t="str">
+        <v>RoeRc4k513l</v>
+      </c>
+      <c r="B92" s="4" t="str">
+        <v>[CONFIG] MAL - Artesunate redistributed</v>
+      </c>
+      <c r="C92" s="4" t="str">
+        <v>Artesunate redistributed</v>
+      </c>
+      <c r="D92" s="4" t="str">
+        <v>MAL_ARTESUNATE_REDISTRIBUTED</v>
+      </c>
+      <c r="E92" s="4" t="str">
+        <v>Number of Artesunate redistributed</v>
+      </c>
+      <c r="F92" s="4" t="str">
+        <v>MAL - Artesunate redistributed</v>
+      </c>
+      <c r="G92" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H92" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I92" s="4" t="str">
+        <v>2021-02-18</v>
+      </c>
+      <c r="J92" s="4" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="5" t="str">
+        <v>rOt4BctnRqS</v>
+      </c>
+      <c r="B93" s="5" t="str">
+        <v xml:space="preserve">[CONFIG] MAL - Total reported malaria cases (confirmed + presumed) </v>
+      </c>
+      <c r="C93" s="5" t="str">
+        <v xml:space="preserve">Total malaria cases </v>
+      </c>
+      <c r="D93" s="5" t="str">
+        <v>MAL_TOT_MAL_CASES_CONF</v>
+      </c>
+      <c r="E93" s="5" t="str">
+        <v>Total number of cases reported as malaria (confirmed with either microscopy or RDT, and presumed clinically as malaria in absence of diagnosis)</v>
+      </c>
+      <c r="F93" s="5" t="str">
+        <v>Total malaria cases (confirmed+presumed)</v>
+      </c>
+      <c r="G93" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H93" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I93" s="5" t="str">
+        <v>2019-10-22</v>
+      </c>
+      <c r="J93" s="5" t="str">
+        <v>YKVsWm3b47n</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="4" t="str">
+        <v>rPYLomUceL4</v>
+      </c>
+      <c r="B94" s="4" t="str">
+        <v xml:space="preserve">[CONFIG] MAL - Malaria cases confirmed </v>
+      </c>
+      <c r="C94" s="4" t="str">
+        <v xml:space="preserve">Malaria confirmed </v>
+      </c>
+      <c r="D94" s="4" t="str">
+        <v>MAL_TOT_MAL_CONF_CASES</v>
+      </c>
+      <c r="E94" s="4" t="str">
+        <v>Number of malaria cases confirmed as positive with microscopy and/or RDT</v>
+      </c>
+      <c r="F94" s="4" t="str">
+        <v>Total malaria confirmed cases</v>
+      </c>
+      <c r="G94" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H94" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I94" s="4" t="str">
+        <v>2019-10-22</v>
+      </c>
+      <c r="J94" s="4" t="str">
+        <v>YKVsWm3b47n</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="5" t="str">
+        <v>s4n3zSyciLw</v>
+      </c>
+      <c r="B95" s="5" t="str">
+        <v>[CONFIG] MAL - LLIN opening balance</v>
+      </c>
+      <c r="C95" s="5" t="str">
+        <v>LLIN opening balance</v>
+      </c>
+      <c r="D95" s="5" t="str">
+        <v>MAL_LLIN_OPENING_BALANCE</v>
+      </c>
+      <c r="E95" s="5" t="str">
+        <v>Number of LLIN opening balance</v>
+      </c>
+      <c r="F95" s="5" t="str">
+        <v>MAL - LLIN opening balance</v>
+      </c>
+      <c r="G95" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H95" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I95" s="5" t="str">
+        <v>2021-02-18</v>
+      </c>
+      <c r="J95" s="5" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="4" t="str">
+        <v>SgRaBPYdJfg</v>
+      </c>
+      <c r="B96" s="4" t="str">
+        <v>[CONFIG] MAL - Sulfadoxine-pyrimethamine discarded</v>
+      </c>
+      <c r="C96" s="4" t="str">
+        <v>Sulfadoxine-pyrimethamine discarded</v>
+      </c>
+      <c r="D96" s="4" t="str">
+        <v>MAL_SP_DISCARDED</v>
+      </c>
+      <c r="E96" s="4" t="str">
+        <v>Number of Sulfadoxine-pyrimethamin discarded during the reporting period (expired, damaged, etc.)</v>
+      </c>
+      <c r="F96" s="4" t="str">
+        <v>Sulfadoxine-pyrimethamine discarded</v>
+      </c>
+      <c r="G96" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H96" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I96" s="4" t="str">
+        <v>2020-12-17</v>
+      </c>
+      <c r="J96" s="4" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="5" t="str">
+        <v>sj3URzajB3C</v>
+      </c>
+      <c r="B97" s="5" t="str">
+        <v>[CONFIG] MAL - Sulfadoxine-pyrimethamine stock discrepancy (%)</v>
+      </c>
+      <c r="C97" s="5" t="str">
+        <v>Sulfadoxine-pyrimethamine stock discrepancy (%)</v>
+      </c>
+      <c r="D97" s="5" t="str">
+        <v>MAL_SP_DISCREPANCY</v>
+      </c>
+      <c r="E97" s="5" t="str">
+        <v>Percentage of the item's stock discrepancy [Stock on hand - Closing balance] / Stock on hand</v>
+      </c>
+      <c r="F97" s="5" t="str">
+        <v>Sulfadoxine-pyrimethamine stock discrepancy</v>
+      </c>
+      <c r="G97" s="5" t="str">
+        <v>stock on hand</v>
+      </c>
+      <c r="H97" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I97" s="5" t="str">
+        <v>2021-05-11</v>
+      </c>
+      <c r="J97" s="5" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="4" t="str">
+        <v>SjXESP7zKb2</v>
+      </c>
+      <c r="B98" s="4" t="str">
+        <v>[CONFIG] MAL - ACTs stock on hand</v>
+      </c>
+      <c r="C98" s="4" t="str">
+        <v>ACTs stock on hand</v>
+      </c>
+      <c r="D98" s="4" t="str">
+        <v>MAL_ACT_STOCK_ON_HAND</v>
+      </c>
+      <c r="E98" s="4" t="str">
+        <v>Number of ACTs stock on hand</v>
+      </c>
+      <c r="F98" s="4" t="str">
+        <v>MAL - ACTs stock on hand</v>
+      </c>
+      <c r="G98" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H98" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I98" s="4" t="str">
+        <v>2021-03-21</v>
+      </c>
+      <c r="J98" s="4" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="5" t="str">
+        <v>SLOVMJHssO0</v>
+      </c>
+      <c r="B99" s="5" t="str">
+        <v>[CONFIG] MAL- Malaria cases treated with ACT</v>
+      </c>
+      <c r="C99" s="5" t="str">
+        <v>Malaria cases treated with ACT</v>
+      </c>
+      <c r="D99" s="5" t="str">
+        <v>MAL_CASES_TREATED_ACT</v>
+      </c>
+      <c r="E99" s="5" t="str">
+        <v>Total number of malaria cases (confirmed and presumed) treated with ACT</v>
+      </c>
+      <c r="F99" s="5" t="str">
+        <v>Malaria cases treated with ACT</v>
+      </c>
+      <c r="G99" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H99" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I99" s="5" t="str">
+        <v>2021-03-04</v>
+      </c>
+      <c r="J99" s="5" t="str">
+        <v>YKVsWm3b47n</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="4" t="str">
+        <v>SqFthnK8FJY</v>
+      </c>
+      <c r="B100" s="4" t="str">
+        <v>[CONFIG] MAL - Annual blood examination rate (ABER)</v>
+      </c>
+      <c r="C100" s="4" t="str">
+        <v>ABER</v>
+      </c>
+      <c r="D100" s="4" t="str">
+        <v>MAL_ABER</v>
+      </c>
+      <c r="E100" s="4" t="str">
+        <v>The number of parasitological test conducted for malaria per 100 population per year</v>
+      </c>
+      <c r="F100" s="4" t="str">
+        <v>Cases tested with microscopy + Cases tested with RDT</v>
+      </c>
+      <c r="G100" s="4" t="str">
+        <v>Population at risk</v>
+      </c>
+      <c r="H100" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I100" s="4" t="str">
+        <v>2019-10-22</v>
+      </c>
+      <c r="J100" s="4" t="str">
+        <v>YKVsWm3b47n</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="5" t="str">
+        <v>sUuIRRJgHDl</v>
+      </c>
+      <c r="B101" s="5" t="str">
+        <v xml:space="preserve">[CONFIG] MAL - Artesunate received </v>
+      </c>
+      <c r="C101" s="5" t="str">
+        <v xml:space="preserve">Artesunate received </v>
+      </c>
+      <c r="D101" s="5" t="str">
+        <v>MAL_ARTESUNATE_RECV</v>
+      </c>
+      <c r="E101" s="5" t="str">
+        <v>Number of Artesunate received in the facility's stock</v>
+      </c>
+      <c r="F101" s="5" t="str">
+        <v>MAL - Artesunate received</v>
+      </c>
+      <c r="G101" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H101" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I101" s="5" t="str">
+        <v>2021-03-04</v>
+      </c>
+      <c r="J101" s="5" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="4" t="str">
+        <v>tCFll2clsVs</v>
+      </c>
+      <c r="B102" s="4" t="str">
+        <v xml:space="preserve">[CONFIG] MAL - Artesunate issued </v>
+      </c>
+      <c r="C102" s="4" t="str">
+        <v xml:space="preserve">Artesunate issued </v>
+      </c>
+      <c r="D102" s="4" t="str">
+        <v>MAL_ARTESUNATE_ISSUED</v>
+      </c>
+      <c r="E102" s="4" t="str">
+        <v>Number of Artesunate issued from the facility's stock</v>
+      </c>
+      <c r="F102" s="4" t="str">
+        <v>MAL - Artesunate issued</v>
+      </c>
+      <c r="G102" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H102" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I102" s="4" t="str">
+        <v>2021-06-11</v>
+      </c>
+      <c r="J102" s="4" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="5" t="str">
+        <v>tIWGvDkU6lb</v>
+      </c>
+      <c r="B103" s="5" t="str">
+        <v>[CONFIG] MAL - Malaria confirmed MEAN+2 STD (threshold)</v>
+      </c>
+      <c r="C103" s="5" t="str">
+        <v>Malaria confirmed threshold 2</v>
+      </c>
+      <c r="D103" s="5" t="str">
+        <v>MAL_CONF_THRES2</v>
+      </c>
+      <c r="E103" s="5" t="str">
+        <v/>
+      </c>
+      <c r="F103" s="5" t="str">
+        <v>Malaria confirmed MEDIAN+2 STD (threshold)</v>
+      </c>
+      <c r="G103" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H103" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I103" s="5" t="str">
+        <v>2019-10-22</v>
+      </c>
+      <c r="J103" s="5" t="str">
+        <v>YKVsWm3b47n</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="4" t="str">
+        <v>TkwXRuRQSYi</v>
+      </c>
+      <c r="B104" s="4" t="str">
+        <v>[CONFIG] MAL - ACT stock coverage time</v>
+      </c>
+      <c r="C104" s="4" t="str">
+        <v>Malaria ACT stock coverage time</v>
+      </c>
+      <c r="D104" s="4" t="str">
+        <v>MAL_ACT_COVERAGE_TIME</v>
+      </c>
+      <c r="E104" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F104" s="4" t="str">
+        <v>usable stock</v>
+      </c>
+      <c r="G104" s="4" t="str">
+        <v>consumed stock</v>
+      </c>
+      <c r="H104" s="4" t="str">
+        <v>Rate (factor=1)</v>
+      </c>
+      <c r="I104" s="4" t="str">
+        <v>2021-05-03</v>
+      </c>
+      <c r="J104" s="4" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="5" t="str">
+        <v>tS54JH4t0KS</v>
+      </c>
+      <c r="B105" s="5" t="str">
+        <v>[CONFIG] MAL - Health facilities with ACT stock-out days (%)</v>
+      </c>
+      <c r="C105" s="5" t="str">
+        <v>HF without ACT stockout days (%)</v>
+      </c>
+      <c r="D105" s="5" t="str">
+        <v>HF_WITH_ACT_STOCKOUT_DAYS_%</v>
+      </c>
+      <c r="E105" s="5" t="str">
+        <v>Proportion of health facilities with ACT stockout days</v>
+      </c>
+      <c r="F105" s="5" t="str">
+        <v>HF with ACT stockout days reported</v>
+      </c>
+      <c r="G105" s="5" t="str">
+        <v>HF reporting stockout days</v>
+      </c>
+      <c r="H105" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I105" s="5" t="str">
+        <v>2021-06-10</v>
+      </c>
+      <c r="J105" s="5" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="4" t="str">
+        <v>u6rtNvz2C98</v>
+      </c>
+      <c r="B106" s="4" t="str">
+        <v>[CONFIG] MAL - Sulfadoxine-pyrimethamine closing balance</v>
+      </c>
+      <c r="C106" s="4" t="str">
+        <v>Sulfadoxine-pyrimethamine closing balance</v>
+      </c>
+      <c r="D106" s="4" t="str">
+        <v>MAL_SP_CLOSING_BAL</v>
+      </c>
+      <c r="E106" s="4" t="str">
+        <v>Number of Sulfadoxine-pyrimethamin as closing balance [Opening balance + Received - Issued - Redistributed - Discarded] at the end of the reporting period</v>
+      </c>
+      <c r="F106" s="4" t="str">
+        <v>Sulfadoxine-pyrimethamine closing bal</v>
+      </c>
+      <c r="G106" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H106" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I106" s="4" t="str">
+        <v>2020-12-17</v>
+      </c>
+      <c r="J106" s="4" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="5" t="str">
+        <v>UdyTo2oqzZO</v>
+      </c>
+      <c r="B107" s="5" t="str">
+        <v>[CONFIG] MAL - LLIN stock on hand</v>
+      </c>
+      <c r="C107" s="5" t="str">
+        <v>LLIN stock on hand</v>
+      </c>
+      <c r="D107" s="5" t="str">
+        <v>MAL_LLIN_STOCK_ON_HAND</v>
+      </c>
+      <c r="E107" s="5" t="str">
+        <v>Number of LLIN stock on hand</v>
+      </c>
+      <c r="F107" s="5" t="str">
+        <v>MAL - LLIN stock on hand</v>
+      </c>
+      <c r="G107" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H107" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I107" s="5" t="str">
+        <v>2021-03-21</v>
+      </c>
+      <c r="J107" s="5" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="4" t="str">
+        <v>uihjx61H8ai</v>
+      </c>
+      <c r="B108" s="4" t="str">
+        <v xml:space="preserve">[CONFIG] MAL - LLIN issued </v>
+      </c>
+      <c r="C108" s="4" t="str">
+        <v xml:space="preserve">LLIN issued </v>
+      </c>
+      <c r="D108" s="4" t="str">
+        <v>MAL_LLIN_ISSUED</v>
+      </c>
+      <c r="E108" s="4" t="str">
+        <v>Number of LLIN issued from the facility's stock</v>
+      </c>
+      <c r="F108" s="4" t="str">
+        <v>MAL - LLIN issued</v>
+      </c>
+      <c r="G108" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H108" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I108" s="4" t="str">
+        <v>2021-06-11</v>
+      </c>
+      <c r="J108" s="4" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="5" t="str">
+        <v>uPuVP7vVv75</v>
+      </c>
+      <c r="B109" s="5" t="str">
+        <v>[CONFIG] MAL - Malaria deaths actual reported (%)</v>
+      </c>
+      <c r="C109" s="5" t="str">
+        <v>% Malaria deaths actual reported</v>
+      </c>
+      <c r="D109" s="5" t="str">
+        <v>MAL_DTH_REPORTED_%</v>
+      </c>
+      <c r="E109" s="5" t="str">
+        <v>Count of reported malaria deaths divided by actual number of reports received multiplied by 100</v>
+      </c>
+      <c r="F109" s="5" t="str">
+        <v>Malaria deaths</v>
+      </c>
+      <c r="G109" s="5" t="str">
+        <v>Actual report for malaria burden reduction</v>
+      </c>
+      <c r="H109" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I109" s="5" t="str">
+        <v>2021-06-21</v>
+      </c>
+      <c r="J109" s="5" t="str">
+        <v>XKfUbxFNWaY, YKVsWm3b47n</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="4" t="str">
+        <v>V3ddhQv64m9</v>
+      </c>
+      <c r="B110" s="4" t="str">
+        <v>[CONFIG] MAL - Case fatality rate (malaria admissions)</v>
+      </c>
+      <c r="C110" s="4" t="str">
+        <v>CFR (of malaria admissions)</v>
+      </c>
+      <c r="D110" s="4" t="str">
+        <v>MAL_CASE_FATAL_RATE_MAL_IPD</v>
+      </c>
+      <c r="E110" s="4" t="str">
+        <v>Malaria case fatality rate (inpatient): number of malaria deaths divided by malaria admissions multiplied by 100</v>
+      </c>
+      <c r="F110" s="4" t="str">
+        <v>Malaria deaths</v>
+      </c>
+      <c r="G110" s="4" t="str">
+        <v>Malaria inpatients</v>
+      </c>
+      <c r="H110" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I110" s="4" t="str">
+        <v>2019-10-22</v>
+      </c>
+      <c r="J110" s="4" t="str">
+        <v>YKVsWm3b47n</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="5" t="str">
+        <v>vBNyVNLGZ5D</v>
+      </c>
+      <c r="B111" s="5" t="str">
+        <v>[CONFIG] MAL - RDT stock discrepancy (%)</v>
+      </c>
+      <c r="C111" s="5" t="str">
+        <v>RDT stock discrepancy (%)</v>
+      </c>
+      <c r="D111" s="5" t="str">
+        <v>MAL_RDT_DISCREPANCY</v>
+      </c>
+      <c r="E111" s="5" t="str">
+        <v>Percentage of the item's stock discrepancy [Stock on hand - Closing balance] / Stock on hand</v>
+      </c>
+      <c r="F111" s="5" t="str">
+        <v>RDTs stock discrepancy</v>
+      </c>
+      <c r="G111" s="5" t="str">
+        <v>stock on hand</v>
+      </c>
+      <c r="H111" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I111" s="5" t="str">
+        <v>2021-05-11</v>
+      </c>
+      <c r="J111" s="5" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="4" t="str">
+        <v>vK4qNvAtZsG</v>
+      </c>
+      <c r="B112" s="4" t="str">
+        <v>[CONFIG] MAL - Percentage of infants received an ITN</v>
+      </c>
+      <c r="C112" s="4" t="str">
+        <v>Percentage of infants received an ITN</v>
+      </c>
+      <c r="D112" s="4" t="str">
+        <v>MAL_PER_INFANTS_REC_ITN</v>
+      </c>
+      <c r="E112" s="4" t="str">
+        <v>Percentage of infants received an ITN</v>
+      </c>
+      <c r="F112" s="4" t="str">
+        <v>LLINs distributed to infants</v>
+      </c>
+      <c r="G112" s="4" t="str">
+        <v>GEN - Population expected pregnant women</v>
+      </c>
+      <c r="H112" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I112" s="4" t="str">
+        <v>2019-10-22</v>
+      </c>
+      <c r="J112" s="4" t="str">
+        <v>YKVsWm3b47n</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="5" t="str">
+        <v>VoN285Q7FQG</v>
+      </c>
+      <c r="B113" s="5" t="str">
+        <v>[CONFIG] MAL - Percentage of pregnant women received an ITN</v>
+      </c>
+      <c r="C113" s="5" t="str">
+        <v>Percentage of pregnant women received an ITN</v>
+      </c>
+      <c r="D113" s="5" t="str">
+        <v>MAL_PER_PW_REC_ITN</v>
+      </c>
+      <c r="E113" s="5" t="str">
+        <v>Percentage of pregnant women received an ITN</v>
+      </c>
+      <c r="F113" s="5" t="str">
+        <v>LLINs distributed to pregnant women</v>
+      </c>
+      <c r="G113" s="5" t="str">
+        <v>GEN - Population expected pregnant women</v>
+      </c>
+      <c r="H113" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I113" s="5" t="str">
+        <v>2019-09-20</v>
+      </c>
+      <c r="J113" s="5" t="str">
+        <v>YKVsWm3b47n</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="4" t="str">
+        <v>vqO9cXAmYcE</v>
+      </c>
+      <c r="B114" s="4" t="str">
+        <v>[CONFIG] MAL - Primaquine stock on hand</v>
+      </c>
+      <c r="C114" s="4" t="str">
+        <v>Primaquine stock on hand</v>
+      </c>
+      <c r="D114" s="4" t="str">
+        <v>MAL_PRIMAQUINE_STOCK_ON_HAND</v>
+      </c>
+      <c r="E114" s="4" t="str">
+        <v>Number of Primaquine stock on hand</v>
+      </c>
+      <c r="F114" s="4" t="str">
+        <v>MAL - Primaquine stock on hand</v>
+      </c>
+      <c r="G114" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H114" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I114" s="4" t="str">
+        <v>2021-03-21</v>
+      </c>
+      <c r="J114" s="4" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="5" t="str">
+        <v>vRfTmlOxzFa</v>
+      </c>
+      <c r="B115" s="5" t="str">
+        <v>[CONFIG] MAL - Artesunate closing balance</v>
+      </c>
+      <c r="C115" s="5" t="str">
+        <v>Artesunate closing balance</v>
+      </c>
+      <c r="D115" s="5" t="str">
+        <v>MAL_ARTESUNATE_CLOSING_BAL</v>
+      </c>
+      <c r="E115" s="5" t="str">
+        <v>Number of Artesunate as closing balance [Opening balance + Received - Issued - Redistributed - Discarded] at the end of the reporting period</v>
+      </c>
+      <c r="F115" s="5" t="str">
+        <v>Artesunate closing bal</v>
+      </c>
+      <c r="G115" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H115" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I115" s="5" t="str">
+        <v>2020-12-17</v>
+      </c>
+      <c r="J115" s="5" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="4" t="str">
+        <v>VxAkjvBMvfp</v>
+      </c>
+      <c r="B116" s="4" t="str">
+        <v>[CONFIG] MAL - Suspected malaria cases tested (%)</v>
+      </c>
+      <c r="C116" s="4" t="str">
+        <v>% of suspected malaria cases tested</v>
+      </c>
+      <c r="D116" s="4" t="str">
+        <v>MAL_PER_SUSP_CASES_TEST</v>
+      </c>
+      <c r="E116" s="4" t="str">
+        <v xml:space="preserve">Number of suspected cases tested with either microscopy or RDT divided by total number of suspected cases multiplied by 100 </v>
+      </c>
+      <c r="F116" s="4" t="str">
+        <v>Cases tested with microscopy + Cases tested with RDT</v>
+      </c>
+      <c r="G116" s="4" t="str">
+        <v>Suspected malaria cases</v>
+      </c>
+      <c r="H116" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I116" s="4" t="str">
+        <v>2021-06-15</v>
+      </c>
+      <c r="J116" s="4" t="str">
+        <v>XKfUbxFNWaY, YKVsWm3b47n</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="5" t="str">
+        <v>W34cMM4atBf</v>
+      </c>
+      <c r="B117" s="5" t="str">
+        <v>[CONFIG] MAL - Primaquine wastage rate (%)</v>
+      </c>
+      <c r="C117" s="5" t="str">
+        <v>Primaquine wastage rate</v>
+      </c>
+      <c r="D117" s="5" t="str">
+        <v>PRIMAQUINE_WASTAGE_RATE</v>
+      </c>
+      <c r="E117" s="5" t="str">
+        <v>Stock wasted=([Closing balance]-[Stock at hand]) + discarded)</v>
+      </c>
+      <c r="F117" s="5" t="str">
+        <v>Stock wasted=([Closing balance]-[Stock at hand]) + discarded)</v>
+      </c>
+      <c r="G117" s="5" t="str">
+        <v>Stock used=([Closing balance]-[Stock at hand]) + discarded + dispensed to patient)</v>
+      </c>
+      <c r="H117" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I117" s="5" t="str">
+        <v>2021-03-21</v>
+      </c>
+      <c r="J117" s="5" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="4" t="str">
+        <v>w44M511O2yp</v>
+      </c>
+      <c r="B118" s="4" t="str">
+        <v>[CONFIG] MAL - Malaria cases positive microscopy</v>
+      </c>
+      <c r="C118" s="4" t="str">
+        <v>Positive (micr)</v>
+      </c>
+      <c r="D118" s="4" t="str">
+        <v>MAL_CASES_POS_MICR</v>
+      </c>
+      <c r="E118" s="4" t="str">
+        <v>Cases confirmed as positive with microscopy</v>
+      </c>
+      <c r="F118" s="4" t="str">
+        <v>Malaria cases positive with microscopy</v>
+      </c>
+      <c r="G118" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H118" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I118" s="4" t="str">
+        <v>2019-10-22</v>
+      </c>
+      <c r="J118" s="4" t="str">
+        <v>YKVsWm3b47n</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="5" t="str">
+        <v>wswCPFCyUG8</v>
+      </c>
+      <c r="B119" s="5" t="str">
+        <v>[CONFIG] MAL - ACT discarded</v>
+      </c>
+      <c r="C119" s="5" t="str">
+        <v>ACT discarded</v>
+      </c>
+      <c r="D119" s="5" t="str">
+        <v>MAL_ACT_DISCARDED</v>
+      </c>
+      <c r="E119" s="5" t="str">
+        <v>Number of ACT discarded during the reporting period (expired, damaged, etc.)</v>
+      </c>
+      <c r="F119" s="5" t="str">
+        <v>ACT discarded</v>
+      </c>
+      <c r="G119" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H119" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I119" s="5" t="str">
+        <v>2020-12-17</v>
+      </c>
+      <c r="J119" s="5" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="4" t="str">
+        <v>WxXtpE1zdeJ</v>
+      </c>
+      <c r="B120" s="4" t="str">
+        <v>[CONFIG] MAL - Health facilities with Artesunate stock-out days (%)</v>
+      </c>
+      <c r="C120" s="4" t="str">
+        <v>HF with Artesunate stockout days (%)</v>
+      </c>
+      <c r="D120" s="4" t="str">
+        <v>HF_WITH_ARTESUNATE_STOCKOUT_DAYS_%</v>
+      </c>
+      <c r="E120" s="4" t="str">
+        <v>Proportion of health facilities with Artesunate stockout days</v>
+      </c>
+      <c r="F120" s="4" t="str">
+        <v>HF with Artesunate stockout days reported</v>
+      </c>
+      <c r="G120" s="4" t="str">
+        <v>HF reporting stockout days</v>
+      </c>
+      <c r="H120" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I120" s="4" t="str">
+        <v>2021-06-10</v>
+      </c>
+      <c r="J120" s="4" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="5" t="str">
+        <v>x2piMpdUU68</v>
+      </c>
+      <c r="B121" s="5" t="str">
+        <v>[CONFIG] MAL - Reporting completeness - DTH (%)</v>
+      </c>
+      <c r="C121" s="5" t="str">
+        <v>Mortality reporting completeness (%)</v>
+      </c>
+      <c r="D121" s="5" t="str">
+        <v>MAL_DTH_REP_COMP_(%)</v>
+      </c>
+      <c r="E121" s="5" t="str">
+        <v xml:space="preserve">Number of malaria deaths reported by health facilities (public, private and NGO) divided by total number of health facilities expected to report </v>
+      </c>
+      <c r="F121" s="5" t="str">
+        <v>Number of Health Facility reports received Deaths</v>
+      </c>
+      <c r="G121" s="5" t="str">
+        <v>Number of Health Facility reports expected to report Deaths</v>
+      </c>
+      <c r="H121" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I121" s="5" t="str">
+        <v>2019-10-22</v>
+      </c>
+      <c r="J121" s="5" t="str">
+        <v>YKVsWm3b47n</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="4" t="str">
+        <v>x4CIsntvniz</v>
+      </c>
+      <c r="B122" s="4" t="str">
+        <v>[CONFIG] MAL - ACT stock out days</v>
+      </c>
+      <c r="C122" s="4" t="str">
+        <v>ACT stock out days</v>
+      </c>
+      <c r="D122" s="4" t="str">
+        <v>MAL_ACT_STOCKOUT_DAYS</v>
+      </c>
+      <c r="E122" s="4" t="str">
+        <v>Number of days when the facility was stocked out of ACT blister packs (at any point during the day) during the reporting period.</v>
+      </c>
+      <c r="F122" s="4" t="str">
+        <v>ACT stock out days</v>
+      </c>
+      <c r="G122" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H122" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I122" s="4" t="str">
+        <v>2021-03-22</v>
+      </c>
+      <c r="J122" s="4" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="5" t="str">
+        <v>xi2S1d7LJBc</v>
+      </c>
+      <c r="B123" s="5" t="str">
+        <v>[CONFIG] MAL - RDTs closing balance</v>
+      </c>
+      <c r="C123" s="5" t="str">
+        <v>RDTs closing balance</v>
+      </c>
+      <c r="D123" s="5" t="str">
+        <v>MAL_RDT_CLOSING_BAL</v>
+      </c>
+      <c r="E123" s="5" t="str">
+        <v>Number of RDTs as closing balance [Opening balance + Received - Issued - Redistributed - Discarded] at the end of the reporting period</v>
+      </c>
+      <c r="F123" s="5" t="str">
+        <v>RDTs closing bal</v>
+      </c>
+      <c r="G123" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H123" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I123" s="5" t="str">
+        <v>2020-12-17</v>
+      </c>
+      <c r="J123" s="5" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="4" t="str">
+        <v>xiI6aQRNUVX</v>
+      </c>
+      <c r="B124" s="4" t="str">
+        <v>[CONFIG] MAL - Artesunate discarded</v>
+      </c>
+      <c r="C124" s="4" t="str">
+        <v>Artesunate discarded</v>
+      </c>
+      <c r="D124" s="4" t="str">
+        <v>MAL_ARTESUNATE_DISCARDED</v>
+      </c>
+      <c r="E124" s="4" t="str">
+        <v>Number of Artesunate discarded during the reporting period (expired, damaged, etc.)</v>
+      </c>
+      <c r="F124" s="4" t="str">
+        <v>Artesunate discarded</v>
+      </c>
+      <c r="G124" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H124" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I124" s="4" t="str">
+        <v>2020-12-17</v>
+      </c>
+      <c r="J124" s="4" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="5" t="str">
+        <v>xIZVZJ7yiAP</v>
+      </c>
+      <c r="B125" s="5" t="str">
+        <v>[CONFIG] MAL - ACTs received</v>
+      </c>
+      <c r="C125" s="5" t="str">
+        <v>ACTs received</v>
+      </c>
+      <c r="D125" s="5" t="str">
+        <v>MAL_ACTS_RECV</v>
+      </c>
+      <c r="E125" s="5" t="str">
+        <v>Number of ACTs received in stock</v>
+      </c>
+      <c r="F125" s="5" t="str">
+        <v>MAL - ACT courses received</v>
+      </c>
+      <c r="G125" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H125" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I125" s="5" t="str">
+        <v>2021-03-03</v>
+      </c>
+      <c r="J125" s="5" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="4" t="str">
+        <v>xZPfJVUrSsm</v>
+      </c>
+      <c r="B126" s="4" t="str">
+        <v>[CONFIG] MAL - Reporting completeness - IPD (%)</v>
+      </c>
+      <c r="C126" s="4" t="str">
+        <v>Inpatient reporting completeness (%)</v>
+      </c>
+      <c r="D126" s="4" t="str">
+        <v>MAL_IPD_REP_COMP_(%)</v>
+      </c>
+      <c r="E126" s="4" t="str">
+        <v xml:space="preserve">Number of inpatient  malaria cases reported by health facilities (public, private and NGO) divided by total number of health facilities expected to report </v>
+      </c>
+      <c r="F126" s="4" t="str">
+        <v>Number of Health Facility reports received Inpatient</v>
+      </c>
+      <c r="G126" s="4" t="str">
+        <v>Number of Health Facility reports expected to report Inpatient</v>
+      </c>
+      <c r="H126" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I126" s="4" t="str">
+        <v>2019-10-22</v>
+      </c>
+      <c r="J126" s="4" t="str">
+        <v>YKVsWm3b47n</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="5" t="str">
+        <v>YbO5j3XYABU</v>
+      </c>
+      <c r="B127" s="5" t="str">
+        <v>[CONFIG] MAL - Annual malaria parasite incidence (API)</v>
+      </c>
+      <c r="C127" s="5" t="str">
+        <v>API</v>
+      </c>
+      <c r="D127" s="5" t="str">
+        <v>MAL_API</v>
+      </c>
+      <c r="E127" s="5" t="str">
+        <v>(Confirmed cases during 1 year/population at risk) x 1000</v>
+      </c>
+      <c r="F127" s="5" t="str">
+        <v>Total malaria confirmed cases</v>
+      </c>
+      <c r="G127" s="5" t="str">
+        <v>Population at risk*Foci classified as endemic or active (with confirmed local cases for at least the past 2 years)</v>
+      </c>
+      <c r="H127" s="5" t="str">
+        <v>Per 1000</v>
+      </c>
+      <c r="I127" s="5" t="str">
+        <v>2019-10-22</v>
+      </c>
+      <c r="J127" s="5" t="str">
+        <v>YKVsWm3b47n</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="4" t="str">
+        <v>yeQBWgHr3Wf</v>
+      </c>
+      <c r="B128" s="4" t="str">
+        <v>[CONFIG] MAL - Outpatient malaria cases (%)</v>
+      </c>
+      <c r="C128" s="4" t="str">
+        <v>% of outpatient malaria cases</v>
+      </c>
+      <c r="D128" s="4" t="str">
+        <v>MAL_OPD_CASES</v>
+      </c>
+      <c r="E128" s="4" t="str">
+        <v>Number of malaria outpatient divided by number of all outpatients multiplied by 100</v>
+      </c>
+      <c r="F128" s="4" t="str">
+        <v>Outpatient malaria cases</v>
+      </c>
+      <c r="G128" s="4" t="str">
+        <v>All-cause outpatients</v>
+      </c>
+      <c r="H128" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I128" s="4" t="str">
+        <v>2021-06-23</v>
+      </c>
+      <c r="J128" s="4" t="str">
+        <v>XKfUbxFNWaY</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="5" t="str">
+        <v>yobFlvQGbSO</v>
+      </c>
+      <c r="B129" s="5" t="str">
+        <v>[CONFIG] MAL - Reporting completeness - OPD (%)</v>
+      </c>
+      <c r="C129" s="5" t="str">
+        <v>OPD reporting completeness (%)</v>
+      </c>
+      <c r="D129" s="5" t="str">
+        <v>MAL_OPD_REP_COMP_(%)</v>
+      </c>
+      <c r="E129" s="5" t="str">
+        <v xml:space="preserve">Number of outpatient  malaria cases reported by health facilities (public, private, NGO and community) divided by total number of health facilities expected to report </v>
+      </c>
+      <c r="F129" s="5" t="str">
+        <v>Number of Health Facility reports received Outpatient</v>
+      </c>
+      <c r="G129" s="5" t="str">
+        <v>Number of Health Facility reports expected to report Outpatient</v>
+      </c>
+      <c r="H129" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I129" s="5" t="str">
+        <v>2019-10-28</v>
+      </c>
+      <c r="J129" s="5" t="str">
+        <v>YKVsWm3b47n</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="4" t="str">
+        <v>YX7dJbo7uTA</v>
+      </c>
+      <c r="B130" s="4" t="str">
+        <v xml:space="preserve">[CONFIG] MAL - Primaquine issued </v>
+      </c>
+      <c r="C130" s="4" t="str">
+        <v xml:space="preserve">Primaquine issued </v>
+      </c>
+      <c r="D130" s="4" t="str">
+        <v>MAL_PRIMAQUINE_ISSUED</v>
+      </c>
+      <c r="E130" s="4" t="str">
+        <v>Number of Primaquine issued from the facility's stock</v>
+      </c>
+      <c r="F130" s="4" t="str">
+        <v>MAL - Primaquine issued</v>
+      </c>
+      <c r="G130" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H130" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I130" s="4" t="str">
+        <v>2021-06-11</v>
+      </c>
+      <c r="J130" s="4" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="5" t="str">
+        <v>yxl57MQlamu</v>
+      </c>
+      <c r="B131" s="5" t="str">
+        <v>[CONFIG] MAL - All-admissions/all outpatients (%)</v>
+      </c>
+      <c r="C131" s="5" t="str">
+        <v>% of all-admissions/all outpatients</v>
+      </c>
+      <c r="D131" s="5" t="str">
+        <v>MAL_PER_ALL_IPD_ALL_OPD</v>
+      </c>
+      <c r="E131" s="5" t="str">
+        <v>Admission rate: Number of all-cause inpatients (admissions) divided by all-cause outpatients multiplied by 100.</v>
+      </c>
+      <c r="F131" s="5" t="str">
+        <v>All-cause inpatient</v>
+      </c>
+      <c r="G131" s="5" t="str">
+        <v>All-cause outpatient cases</v>
+      </c>
+      <c r="H131" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I131" s="5" t="str">
+        <v>2021-06-15</v>
+      </c>
+      <c r="J131" s="5" t="str">
+        <v>YKVsWm3b47n</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="4" t="str">
+        <v>zCXWGi6fEsw</v>
+      </c>
+      <c r="B132" s="4" t="str">
+        <v>[CONFIG] MAL - ACT stock discrepancy (%)</v>
+      </c>
+      <c r="C132" s="4" t="str">
+        <v>ACT stock discrepancy (%)</v>
+      </c>
+      <c r="D132" s="4" t="str">
+        <v>MAL_ACT_DISCREPANCY</v>
+      </c>
+      <c r="E132" s="4" t="str">
+        <v>Percentage of the item's stock discrepancy [Stock on hand - Closing balance] / Stock on hand</v>
+      </c>
+      <c r="F132" s="4" t="str">
+        <v>ACT stock discrepancy</v>
+      </c>
+      <c r="G132" s="4" t="str">
+        <v>stock on hand</v>
+      </c>
+      <c r="H132" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I132" s="4" t="str">
+        <v>2021-05-11</v>
+      </c>
+      <c r="J132" s="4" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="5" t="str">
+        <v>zItDfNaCDcR</v>
+      </c>
+      <c r="B133" s="5" t="str">
+        <v>[CONFIG] MAL - Inpatient malaria cases (%)</v>
+      </c>
+      <c r="C133" s="5" t="str">
+        <v>% of inpatient malaria cases</v>
+      </c>
+      <c r="D133" s="5" t="str">
+        <v>MAL_IPD_CASES</v>
+      </c>
+      <c r="E133" s="5" t="str">
+        <v>N: Number of malaria inpatients D: All cause inpatients</v>
+      </c>
+      <c r="F133" s="5" t="str">
+        <v>Inpatient malaria cases</v>
+      </c>
+      <c r="G133" s="5" t="str">
+        <v>All cause inpatients</v>
+      </c>
+      <c r="H133" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I133" s="5" t="str">
+        <v>2021-06-23</v>
+      </c>
+      <c r="J133" s="5" t="str">
+        <v>XKfUbxFNWaY, YKVsWm3b47n</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="4" t="str">
+        <v>zKXBN1jGXIu</v>
+      </c>
+      <c r="B134" s="4" t="str">
+        <v>[CONFIG] MAL - ACT closing balance</v>
+      </c>
+      <c r="C134" s="4" t="str">
+        <v>ACT closing balance</v>
+      </c>
+      <c r="D134" s="4" t="str">
+        <v>MAL_ACT_CLOSING_BAL</v>
+      </c>
+      <c r="E134" s="4" t="str">
+        <v>Number of ACT as closing balance [Opening balance + Received - Issued - Redistributed - Discarded] at the end of the reporting period</v>
+      </c>
+      <c r="F134" s="4" t="str">
+        <v>ACT closing bal</v>
+      </c>
+      <c r="G134" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H134" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I134" s="4" t="str">
+        <v>2021-03-03</v>
+      </c>
+      <c r="J134" s="4" t="str">
+        <v>IHFoEstZjfl</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="5" t="str">
+        <v>ZlpqQCFLo2i</v>
+      </c>
+      <c r="B135" s="5" t="str">
+        <v>[CONFIG] MAL - RDT tested actual reported (%)</v>
+      </c>
+      <c r="C135" s="5" t="str">
+        <v>% RDT tested actual reported</v>
+      </c>
+      <c r="D135" s="5" t="str">
+        <v>ALL_RDT_TESTED_REPORTED_%</v>
+      </c>
+      <c r="E135" s="5" t="str">
+        <v>Count of reported RDT tested divided by actual number of reports received multiplied by 100</v>
+      </c>
+      <c r="F135" s="5" t="str">
+        <v>RDT tested</v>
+      </c>
+      <c r="G135" s="5" t="str">
+        <v>Actual report for malaria burden reduction</v>
+      </c>
+      <c r="H135" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I135" s="5" t="str">
+        <v>2021-06-21</v>
+      </c>
+      <c r="J135" s="5" t="str">
+        <v>XKfUbxFNWaY, YKVsWm3b47n</v>
       </c>
     </row>
   </sheetData>
@@ -3070,7 +7236,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -3097,44 +7263,58 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="B2" s="4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2020-09-09</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>kHy61PbChXr</v>
+        <v>hmSnCXmLYwt</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>Per 1000</v>
+        <v>Rate (factor=1)</v>
       </c>
       <c r="B3" s="5">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2017-05-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>zpa0vUC7IWd</v>
+        <v>k4RGC3sMTzO</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="B4" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>2018-01-16</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>hmSnCXmLYwt</v>
+        <v>kHy61PbChXr</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="str">
+        <v>Per 1000</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <v>2017-05-28</v>
+      </c>
+      <c r="D5" s="5" t="str">
+        <v>zpa0vUC7IWd</v>
       </c>
     </row>
   </sheetData>
@@ -3143,7 +7323,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -3166,46 +7346,68 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>Malaria Burden Reduction</v>
+        <v>Malaria Quality Control</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2019-10-22</v>
+        <v>2021-05-22</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>sLldHZZgnFx</v>
+        <v>GEq9y3pVbrb</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>Malaria Maps</v>
+        <v>Malaria Trends and Coverage</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>2020-02-18</v>
+        <v>2019-10-22</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>VUUrmGS7x42</v>
+        <v>Ly3jbrmhRpB</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>Malaria Quality Control</v>
+        <v>Malaria stock</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>2019-10-22</v>
+        <v>2021-06-22</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>GEq9y3pVbrb</v>
+        <v>rGl6NA03QF9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>Malaria Trends and Coverage</v>
+        <v>Malaria Burden Reduction</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>2019-10-22</v>
+        <v>2020-11-02</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>Ly3jbrmhRpB</v>
+        <v>sLldHZZgnFx</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="str">
+        <v>Malaria Maps</v>
+      </c>
+      <c r="B6" s="4" t="str">
+        <v>2020-02-18</v>
+      </c>
+      <c r="C6" s="4" t="str">
+        <v>VUUrmGS7x42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="str">
+        <v>Malaria Data Quality</v>
+      </c>
+      <c r="B7" s="5" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="C7" s="5" t="str">
+        <v>xRjeIawqMbW</v>
       </c>
     </row>
   </sheetData>
@@ -3214,7 +7416,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -3249,642 +7451,1662 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>bIwPfcT9JVN</v>
+        <v>Mbgcb9pdFR1</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>visualizations</v>
+        <v>AREA</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>MAL - Surveillance (cases and threshold) - last 12 months</v>
+        <v>MAL - Testing (QL)</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>bndKqtV1ZGl</v>
+        <v>ekPnvSKp0Y2</v>
       </c>
       <c r="E2" s="4" t="str">
-        <v>2019-10-20</v>
+        <v>2021-05-22</v>
       </c>
       <c r="F2" s="4" t="str">
-        <v>sLldHZZgnFx</v>
+        <v>GEq9y3pVbrb</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>QqZNdTABzsZ</v>
+        <v>uX3m5YW9cuM</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>visualizations</v>
+        <v>LINE</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>MAL - Testing</v>
+        <v>MAL - Case Confirmation (QL)</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>imp9cY9m5EA</v>
+        <v>CdC9ijmEL83</v>
       </c>
       <c r="E3" s="5" t="str">
-        <v>2019-10-20</v>
+        <v>2021-05-22</v>
       </c>
       <c r="F3" s="5" t="str">
-        <v>sLldHZZgnFx</v>
+        <v>GEq9y3pVbrb</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>tq6l6xuECZo</v>
+        <v>zbZhaW2GXQV</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>visualizations</v>
+        <v>LINE</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>MAL - Deaths</v>
+        <v>MAL - Percent Tested (QL)</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>COP5m9xs6iY</v>
+        <v>iap2hP85T9J</v>
       </c>
       <c r="E4" s="4" t="str">
-        <v>2019-10-20</v>
+        <v>2021-05-22</v>
       </c>
       <c r="F4" s="4" t="str">
-        <v>sLldHZZgnFx</v>
+        <v>GEq9y3pVbrb</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>Q0H2GvXlpYB</v>
+        <v>zt23Bi5f3F3</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>visualizations</v>
+        <v>LINE</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>MAL - Deaths</v>
+        <v>MAL - % of All Deaths and Admissions (QL)</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>x2O1LS4MZx7</v>
+        <v>kbiZhonjStw</v>
       </c>
       <c r="E5" s="5" t="str">
-        <v>2019-10-20</v>
+        <v>2021-05-22</v>
       </c>
       <c r="F5" s="5" t="str">
-        <v>sLldHZZgnFx</v>
+        <v>GEq9y3pVbrb</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>mmdI4h7KdLL</v>
+        <v>v5tVurZ9vUf</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>visualizations</v>
+        <v>LINE</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>MAL - IPD</v>
+        <v>MAL - Ratio Consultancy and Admissions (QL)</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>GBuwmMa1iGE</v>
+        <v>xHlTUgbgtkD</v>
       </c>
       <c r="E6" s="4" t="str">
-        <v>2019-10-20</v>
+        <v>2021-05-22</v>
       </c>
       <c r="F6" s="4" t="str">
-        <v>sLldHZZgnFx</v>
+        <v>GEq9y3pVbrb</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>pnEMZYfUAZt</v>
+        <v>tU3rJIp9STm</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>visualizations</v>
+        <v>LINE</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>MAL - Proportion</v>
+        <v>MAL - Case Fatality - OPD and Admissions (QL)</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>Jx1yxCt3wvY</v>
+        <v>v4xhUMI9Kf2</v>
       </c>
       <c r="E7" s="5" t="str">
-        <v>2019-10-20</v>
+        <v>2021-05-22</v>
       </c>
       <c r="F7" s="5" t="str">
-        <v>sLldHZZgnFx</v>
+        <v>GEq9y3pVbrb</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>SKJkOTlS8vN</v>
+        <v>yieNDIkKEu2</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>visualizations</v>
+        <v>PIVOT_TABLE</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>MAL - Positivity</v>
+        <v>MAL - QL Surveillance - 01</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>zmF1CHyKwiL</v>
+        <v>ow9Vb2YzuM6</v>
       </c>
       <c r="E8" s="4" t="str">
-        <v>2019-10-20</v>
+        <v>2021-05-22</v>
       </c>
       <c r="F8" s="4" t="str">
-        <v>sLldHZZgnFx</v>
+        <v>GEq9y3pVbrb</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>XG7LBCz7nQn</v>
+        <v>yJNAGE2iN7e</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>visualizations</v>
+        <v>LINE</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>MAL - Conf cases &amp; ABER</v>
+        <v>MAL - Trend in coverages: ANC1, ITNs to pregnant women and infants</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>NGkPe7Z2xco</v>
+        <v>FE6Gs0kiknP</v>
       </c>
       <c r="E9" s="5" t="str">
-        <v>2019-10-20</v>
+        <v>2019-09-21</v>
       </c>
       <c r="F9" s="5" t="str">
-        <v>sLldHZZgnFx</v>
+        <v>Ly3jbrmhRpB</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>eqbjzgCFSFs</v>
+        <v>odF8xIAXyzh</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>visualizations</v>
+        <v>LINE</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>MAL - Reporting Comp</v>
+        <v>MAL - Trend in coverages: ANC1, IPTp1 and IPTp3</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>eEluY5AA8eb</v>
+        <v>iG90O2UgrG0</v>
       </c>
       <c r="E10" s="4" t="str">
-        <v>2019-10-20</v>
+        <v>2019-09-21</v>
       </c>
       <c r="F10" s="4" t="str">
-        <v>sLldHZZgnFx</v>
+        <v>Ly3jbrmhRpB</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>wSudey0Yc2R</v>
+        <v>iSZUMq4XZyd</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>visualizations</v>
+        <v>LINE</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>MAL - OPD</v>
+        <v>MAL - Trend in MAL - Percentage of estimated pregnancies benefiting from ANC visit and receipt of an ITN</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>iFoBSxTa8n3</v>
+        <v>CpeqQWlVPlI</v>
       </c>
       <c r="E11" s="5" t="str">
-        <v>2019-10-20</v>
+        <v>2019-09-21</v>
       </c>
       <c r="F11" s="5" t="str">
-        <v>sLldHZZgnFx</v>
+        <v>Ly3jbrmhRpB</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>qo7xD7OTGcF</v>
+        <v>Xx6WI5IfnoQ</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>visualizations</v>
+        <v>LINE</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>MAL - Microscopy</v>
+        <v>MAL - Trend in MAL - Percentage of estimated pregnancies benefiting from ANC visit and receipt of 1,2 and 3 doses of IPTp</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>VMJj8auur7X</v>
+        <v>xnIYGQ09XTW</v>
       </c>
       <c r="E12" s="4" t="str">
-        <v>2019-10-20</v>
+        <v>2019-09-21</v>
       </c>
       <c r="F12" s="4" t="str">
-        <v>sLldHZZgnFx</v>
+        <v>Ly3jbrmhRpB</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>Cyy6FR0wEGe</v>
+        <v/>
       </c>
       <c r="B13" s="5" t="str">
-        <v>visualizations</v>
+        <v>TEXT</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>MAL - Deaths</v>
+        <v/>
       </c>
       <c r="D13" s="5" t="str">
-        <v>pVa6oAu2DFk</v>
+        <v>kGpjb3QJC47</v>
       </c>
       <c r="E13" s="5" t="str">
-        <v>2019-10-20</v>
+        <v>2021-06-22</v>
       </c>
       <c r="F13" s="5" t="str">
-        <v>sLldHZZgnFx</v>
+        <v>rGl6NA03QF9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>GmqjzU8Crmi</v>
+        <v/>
       </c>
       <c r="B14" s="4" t="str">
-        <v>visualizations</v>
+        <v>TEXT</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>MAL - IPD</v>
+        <v/>
       </c>
       <c r="D14" s="4" t="str">
-        <v>ukizcelacKo</v>
+        <v>pyIjHs9i63n</v>
       </c>
       <c r="E14" s="4" t="str">
-        <v>2019-10-20</v>
+        <v>2021-06-22</v>
       </c>
       <c r="F14" s="4" t="str">
-        <v>sLldHZZgnFx</v>
+        <v>rGl6NA03QF9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>uZ03Z5GgJJ0</v>
+        <v>q4lZvYKBohV</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>visualizations</v>
+        <v>PIVOT_TABLE</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>MAL - Proportion</v>
+        <v>MAL - RDT stock status</v>
       </c>
       <c r="D15" s="5" t="str">
-        <v>g3Iv72l0jO5</v>
+        <v>k2VLrBTOikW</v>
       </c>
       <c r="E15" s="5" t="str">
-        <v>2019-10-20</v>
+        <v>2021-06-22</v>
       </c>
       <c r="F15" s="5" t="str">
-        <v>sLldHZZgnFx</v>
+        <v>rGl6NA03QF9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>wleqcZVkF9U</v>
+        <v>PNoYjlfeAfD</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>visualizations</v>
+        <v>PIVOT_TABLE</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>MAL - Positivity</v>
+        <v>MAL - RDT stock discrepancy</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>CnpABmw7iMA</v>
+        <v>Muv3LenY6qJ</v>
       </c>
       <c r="E16" s="4" t="str">
-        <v>2019-10-20</v>
+        <v>2021-06-22</v>
       </c>
       <c r="F16" s="4" t="str">
-        <v>sLldHZZgnFx</v>
+        <v>rGl6NA03QF9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>T4eg1e5rjXE</v>
+        <v/>
       </c>
       <c r="B17" s="5" t="str">
-        <v>visualizations</v>
+        <v>MAP</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>MAL - Conf cases &amp; ABER</v>
+        <v/>
       </c>
       <c r="D17" s="5" t="str">
-        <v>jpEIVXB1NNd</v>
+        <v>VIOIFEVWS9N</v>
       </c>
       <c r="E17" s="5" t="str">
-        <v>2019-10-20</v>
+        <v>2021-06-22</v>
       </c>
       <c r="F17" s="5" t="str">
-        <v>sLldHZZgnFx</v>
+        <v>rGl6NA03QF9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>d1RmmimorCK</v>
+        <v/>
       </c>
       <c r="B18" s="4" t="str">
-        <v>visualizations</v>
+        <v>MAP</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>MAL - Reporting completeness</v>
+        <v/>
       </c>
       <c r="D18" s="4" t="str">
-        <v>DFhKOg6whQd</v>
+        <v>Aev0r0LDNjh</v>
       </c>
       <c r="E18" s="4" t="str">
-        <v>2019-10-20</v>
+        <v>2021-06-22</v>
       </c>
       <c r="F18" s="4" t="str">
-        <v>sLldHZZgnFx</v>
+        <v>rGl6NA03QF9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>uNj85CCHumE</v>
+        <v>wBjmnGxpBhy</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>Map</v>
+        <v>AREA</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>MAL: Incidence of confirmed malaria cases</v>
+        <v>MAL - Proportion of facilities with stockout days for RDT</v>
       </c>
       <c r="D19" s="5" t="str">
-        <v>DU6QNCEaZBx</v>
+        <v>svuxlng6Mtv</v>
       </c>
       <c r="E19" s="5" t="str">
-        <v>2020-02-18</v>
+        <v>2021-06-22</v>
       </c>
       <c r="F19" s="5" t="str">
-        <v>VUUrmGS7x42</v>
+        <v>rGl6NA03QF9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>XFGdbwY5OA9</v>
+        <v>u5O5Io0rtav</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>Map</v>
+        <v>COLUMN</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>MAL: Rate of completeness of reporting by health facilities (OPD)</v>
+        <v>MAL - RDT used for diagnosis vs RDT distributed from stock</v>
       </c>
       <c r="D20" s="4" t="str">
-        <v>e7GxLaKwTNk</v>
+        <v>rp1Nf2HU6U5</v>
       </c>
       <c r="E20" s="4" t="str">
-        <v>2020-02-18</v>
+        <v>2021-06-22</v>
       </c>
       <c r="F20" s="4" t="str">
-        <v>VUUrmGS7x42</v>
+        <v>rGl6NA03QF9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>R2aoozdWrnW</v>
+        <v/>
       </c>
       <c r="B21" s="5" t="str">
-        <v>Map</v>
+        <v>TEXT</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v>MAL: Percentage of suspected cases tested</v>
+        <v/>
       </c>
       <c r="D21" s="5" t="str">
-        <v>VEpAXSbCpZk</v>
+        <v>Uh09vUgyCDT</v>
       </c>
       <c r="E21" s="5" t="str">
-        <v>2020-02-18</v>
+        <v>2021-06-22</v>
       </c>
       <c r="F21" s="5" t="str">
-        <v>VUUrmGS7x42</v>
+        <v>rGl6NA03QF9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>ZEBh5DFbW73</v>
+        <v>UIgM3wfpuDv</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>Map</v>
+        <v>PIVOT_TABLE</v>
       </c>
       <c r="C22" s="4" t="str">
-        <v>MAL: Malaria test positivity rate</v>
+        <v>MAL - ACT stock status</v>
       </c>
       <c r="D22" s="4" t="str">
-        <v>VJ0s3O43N5M</v>
+        <v>yPP4bTUOTqn</v>
       </c>
       <c r="E22" s="4" t="str">
-        <v>2020-02-18</v>
+        <v>2021-06-22</v>
       </c>
       <c r="F22" s="4" t="str">
-        <v>VUUrmGS7x42</v>
+        <v>rGl6NA03QF9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>Mbgcb9pdFR1</v>
+        <v>WdMfLZwEGih</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>visualizations</v>
+        <v>PIVOT_TABLE</v>
       </c>
       <c r="C23" s="5" t="str">
-        <v>MAL - Testing (QL)</v>
+        <v>MAL - ACT stock discrepancy</v>
       </c>
       <c r="D23" s="5" t="str">
-        <v>ekPnvSKp0Y2</v>
+        <v>yUXqXSvSBtD</v>
       </c>
       <c r="E23" s="5" t="str">
-        <v>2019-10-20</v>
+        <v>2021-06-22</v>
       </c>
       <c r="F23" s="5" t="str">
-        <v>GEq9y3pVbrb</v>
+        <v>rGl6NA03QF9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>uX3m5YW9cuM</v>
+        <v/>
       </c>
       <c r="B24" s="4" t="str">
-        <v>visualizations</v>
+        <v>MAP</v>
       </c>
       <c r="C24" s="4" t="str">
-        <v>MAL - Case Confirmation (QL)</v>
+        <v/>
       </c>
       <c r="D24" s="4" t="str">
-        <v>CdC9ijmEL83</v>
+        <v>tmO9m2RRJhj</v>
       </c>
       <c r="E24" s="4" t="str">
-        <v>2019-10-20</v>
+        <v>2021-06-22</v>
       </c>
       <c r="F24" s="4" t="str">
-        <v>GEq9y3pVbrb</v>
+        <v>rGl6NA03QF9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>zbZhaW2GXQV</v>
+        <v/>
       </c>
       <c r="B25" s="5" t="str">
-        <v>visualizations</v>
+        <v>MAP</v>
       </c>
       <c r="C25" s="5" t="str">
-        <v>MAL - Percent Tested (QL)</v>
+        <v/>
       </c>
       <c r="D25" s="5" t="str">
-        <v>iap2hP85T9J</v>
+        <v>XG6MN6syUck</v>
       </c>
       <c r="E25" s="5" t="str">
-        <v>2019-10-20</v>
+        <v>2021-06-22</v>
       </c>
       <c r="F25" s="5" t="str">
-        <v>GEq9y3pVbrb</v>
+        <v>rGl6NA03QF9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>zt23Bi5f3F3</v>
+        <v>U78hxMa95Zb</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>visualizations</v>
+        <v>AREA</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>MAL - % of All Deaths and Admissions (QL)</v>
+        <v>MAL - Proportion of facilities with stockout days for ACT</v>
       </c>
       <c r="D26" s="4" t="str">
-        <v>kbiZhonjStw</v>
+        <v>qei9qQjBkxZ</v>
       </c>
       <c r="E26" s="4" t="str">
-        <v>2019-10-20</v>
+        <v>2021-06-22</v>
       </c>
       <c r="F26" s="4" t="str">
-        <v>GEq9y3pVbrb</v>
+        <v>rGl6NA03QF9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
-        <v>v5tVurZ9vUf</v>
+        <v>DxEj12FUBH7</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>visualizations</v>
+        <v>COLUMN</v>
       </c>
       <c r="C27" s="5" t="str">
-        <v>MAL - Ratio Consultancy and Admissions (QL)</v>
+        <v>MAL - Cases treated with ACT vs ACT distributed from stock</v>
       </c>
       <c r="D27" s="5" t="str">
-        <v>xHlTUgbgtkD</v>
+        <v>oZ975ZEZupX</v>
       </c>
       <c r="E27" s="5" t="str">
-        <v>2019-10-20</v>
+        <v>2021-06-22</v>
       </c>
       <c r="F27" s="5" t="str">
-        <v>GEq9y3pVbrb</v>
+        <v>rGl6NA03QF9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>tU3rJIp9STm</v>
+        <v/>
       </c>
       <c r="B28" s="4" t="str">
-        <v>visualizations</v>
+        <v>TEXT</v>
       </c>
       <c r="C28" s="4" t="str">
-        <v>MAL - Case Fatality - OPD and Admissions (QL)</v>
+        <v/>
       </c>
       <c r="D28" s="4" t="str">
-        <v>v4xhUMI9Kf2</v>
+        <v>GaWVjLlMSfB</v>
       </c>
       <c r="E28" s="4" t="str">
-        <v>2019-10-20</v>
+        <v>2021-06-22</v>
       </c>
       <c r="F28" s="4" t="str">
-        <v>GEq9y3pVbrb</v>
+        <v>rGl6NA03QF9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="str">
-        <v>yieNDIkKEu2</v>
+        <v>rhDXNWkNwBS</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>visualizations</v>
+        <v>PIVOT_TABLE</v>
       </c>
       <c r="C29" s="5" t="str">
-        <v>MAL - QL Surveillance - 01</v>
+        <v>MAL - ART stock status</v>
       </c>
       <c r="D29" s="5" t="str">
-        <v>ow9Vb2YzuM6</v>
+        <v>FRWuYTs5TgV</v>
       </c>
       <c r="E29" s="5" t="str">
-        <v>2019-10-20</v>
+        <v>2021-06-22</v>
       </c>
       <c r="F29" s="5" t="str">
-        <v>GEq9y3pVbrb</v>
+        <v>rGl6NA03QF9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v>yJNAGE2iN7e</v>
+        <v>oODq4oDEcBU</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>visualizations</v>
+        <v>PIVOT_TABLE</v>
       </c>
       <c r="C30" s="4" t="str">
-        <v>MAL - Trend in coverages: ANC1, ITNs to pregnant women and infants</v>
+        <v>MAL - ART stock discrepancy</v>
       </c>
       <c r="D30" s="4" t="str">
-        <v>FE6Gs0kiknP</v>
+        <v>WiSMgIcCctv</v>
       </c>
       <c r="E30" s="4" t="str">
-        <v>2019-09-21</v>
+        <v>2021-06-22</v>
       </c>
       <c r="F30" s="4" t="str">
-        <v>Ly3jbrmhRpB</v>
+        <v>rGl6NA03QF9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="str">
-        <v>odF8xIAXyzh</v>
+        <v/>
       </c>
       <c r="B31" s="5" t="str">
-        <v>visualizations</v>
+        <v>MAP</v>
       </c>
       <c r="C31" s="5" t="str">
-        <v>MAL - Trend in coverages: ANC1, IPTp1 and IPTp3</v>
+        <v/>
       </c>
       <c r="D31" s="5" t="str">
-        <v>iG90O2UgrG0</v>
+        <v>ZlTd3JkvNlK</v>
       </c>
       <c r="E31" s="5" t="str">
-        <v>2019-09-21</v>
+        <v>2021-06-22</v>
       </c>
       <c r="F31" s="5" t="str">
-        <v>Ly3jbrmhRpB</v>
+        <v>rGl6NA03QF9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
-        <v>iSZUMq4XZyd</v>
+        <v/>
       </c>
       <c r="B32" s="4" t="str">
-        <v>visualizations</v>
+        <v>MAP</v>
       </c>
       <c r="C32" s="4" t="str">
-        <v>MAL - Trend in MAL - Percentage of estimated pregnancies benefiting from ANC visit and receipt of an ITN</v>
+        <v/>
       </c>
       <c r="D32" s="4" t="str">
-        <v>CpeqQWlVPlI</v>
+        <v>o8kpa2O2Krr</v>
       </c>
       <c r="E32" s="4" t="str">
-        <v>2019-09-21</v>
+        <v>2021-06-22</v>
       </c>
       <c r="F32" s="4" t="str">
-        <v>Ly3jbrmhRpB</v>
+        <v>rGl6NA03QF9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="str">
-        <v>Xx6WI5IfnoQ</v>
+        <v>crtJKEjULHN</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v>visualizations</v>
+        <v>AREA</v>
       </c>
       <c r="C33" s="5" t="str">
-        <v>MAL - Trend in MAL - Percentage of estimated pregnancies benefiting from ANC visit and receipt of 1,2 and 3 doses of IPTp</v>
+        <v>MAL - Proportion of facilities with stockout days for ART</v>
       </c>
       <c r="D33" s="5" t="str">
-        <v>xnIYGQ09XTW</v>
+        <v>ioh26RzeQRL</v>
       </c>
       <c r="E33" s="5" t="str">
-        <v>2019-09-21</v>
+        <v>2021-06-22</v>
       </c>
       <c r="F33" s="5" t="str">
-        <v>Ly3jbrmhRpB</v>
+        <v>rGl6NA03QF9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="str">
+        <v/>
+      </c>
+      <c r="B34" s="4" t="str">
+        <v>TEXT</v>
+      </c>
+      <c r="C34" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D34" s="4" t="str">
+        <v>PlUMIKlHe5L</v>
+      </c>
+      <c r="E34" s="4" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="F34" s="4" t="str">
+        <v>rGl6NA03QF9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="str">
+        <v>J2wuAUXZeYw</v>
+      </c>
+      <c r="B35" s="5" t="str">
+        <v>PIVOT_TABLE</v>
+      </c>
+      <c r="C35" s="5" t="str">
+        <v>MAL - SX-PYR stock status</v>
+      </c>
+      <c r="D35" s="5" t="str">
+        <v>nXsNhBLcWT9</v>
+      </c>
+      <c r="E35" s="5" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="F35" s="5" t="str">
+        <v>rGl6NA03QF9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="str">
+        <v>hxigEHxwMss</v>
+      </c>
+      <c r="B36" s="4" t="str">
+        <v>PIVOT_TABLE</v>
+      </c>
+      <c r="C36" s="4" t="str">
+        <v>MAL - SX-PYR stock discrepancy</v>
+      </c>
+      <c r="D36" s="4" t="str">
+        <v>xgcRO3zEwJp</v>
+      </c>
+      <c r="E36" s="4" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="F36" s="4" t="str">
+        <v>rGl6NA03QF9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="str">
+        <v/>
+      </c>
+      <c r="B37" s="5" t="str">
+        <v>MAP</v>
+      </c>
+      <c r="C37" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D37" s="5" t="str">
+        <v>zwsXrkc8UVH</v>
+      </c>
+      <c r="E37" s="5" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="F37" s="5" t="str">
+        <v>rGl6NA03QF9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="str">
+        <v/>
+      </c>
+      <c r="B38" s="4" t="str">
+        <v>MAP</v>
+      </c>
+      <c r="C38" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D38" s="4" t="str">
+        <v>QvGcfBfFlnL</v>
+      </c>
+      <c r="E38" s="4" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="F38" s="4" t="str">
+        <v>rGl6NA03QF9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="str">
+        <v>dGDFOvzgkdw</v>
+      </c>
+      <c r="B39" s="5" t="str">
+        <v>AREA</v>
+      </c>
+      <c r="C39" s="5" t="str">
+        <v>MAL - Proportion of facilities with stockout days for SX-PYR</v>
+      </c>
+      <c r="D39" s="5" t="str">
+        <v>nH8bRFnbhPn</v>
+      </c>
+      <c r="E39" s="5" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="F39" s="5" t="str">
+        <v>rGl6NA03QF9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="str">
+        <v/>
+      </c>
+      <c r="B40" s="4" t="str">
+        <v>TEXT</v>
+      </c>
+      <c r="C40" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D40" s="4" t="str">
+        <v>EuYjGzt8Uw8</v>
+      </c>
+      <c r="E40" s="4" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="F40" s="4" t="str">
+        <v>rGl6NA03QF9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="str">
+        <v>vBv9CkukHXr</v>
+      </c>
+      <c r="B41" s="5" t="str">
+        <v>PIVOT_TABLE</v>
+      </c>
+      <c r="C41" s="5" t="str">
+        <v>MAL - PMQ stock status</v>
+      </c>
+      <c r="D41" s="5" t="str">
+        <v>ToJSy6zI02J</v>
+      </c>
+      <c r="E41" s="5" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="F41" s="5" t="str">
+        <v>rGl6NA03QF9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="str">
+        <v>uDKGtAjZyQn</v>
+      </c>
+      <c r="B42" s="4" t="str">
+        <v>PIVOT_TABLE</v>
+      </c>
+      <c r="C42" s="4" t="str">
+        <v>MAL - PMQ stock discrepancy</v>
+      </c>
+      <c r="D42" s="4" t="str">
+        <v>jQnb389gven</v>
+      </c>
+      <c r="E42" s="4" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="F42" s="4" t="str">
+        <v>rGl6NA03QF9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="str">
+        <v/>
+      </c>
+      <c r="B43" s="5" t="str">
+        <v>MAP</v>
+      </c>
+      <c r="C43" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D43" s="5" t="str">
+        <v>c2RoT9os4RY</v>
+      </c>
+      <c r="E43" s="5" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="F43" s="5" t="str">
+        <v>rGl6NA03QF9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="str">
+        <v/>
+      </c>
+      <c r="B44" s="4" t="str">
+        <v>MAP</v>
+      </c>
+      <c r="C44" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D44" s="4" t="str">
+        <v>zBl0EJIY6bx</v>
+      </c>
+      <c r="E44" s="4" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="F44" s="4" t="str">
+        <v>rGl6NA03QF9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="str">
+        <v>I6ItxljZV76</v>
+      </c>
+      <c r="B45" s="5" t="str">
+        <v>AREA</v>
+      </c>
+      <c r="C45" s="5" t="str">
+        <v>MAL - Proportion of facilities with stockout days for PMQ</v>
+      </c>
+      <c r="D45" s="5" t="str">
+        <v>UB65VbSz2q7</v>
+      </c>
+      <c r="E45" s="5" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="F45" s="5" t="str">
+        <v>rGl6NA03QF9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="str">
+        <v>hg3TLfpnmMK</v>
+      </c>
+      <c r="B46" s="4" t="str">
+        <v>PIVOT_TABLE</v>
+      </c>
+      <c r="C46" s="4" t="str">
+        <v>MAL - LLIN stock status</v>
+      </c>
+      <c r="D46" s="4" t="str">
+        <v>zuGKeuqpq0h</v>
+      </c>
+      <c r="E46" s="4" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="F46" s="4" t="str">
+        <v>rGl6NA03QF9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="str">
+        <v>KJ6MBCbC77f</v>
+      </c>
+      <c r="B47" s="5" t="str">
+        <v>PIVOT_TABLE</v>
+      </c>
+      <c r="C47" s="5" t="str">
+        <v>MAL - LLIN stock discrepancy</v>
+      </c>
+      <c r="D47" s="5" t="str">
+        <v>LyhZh68HU4n</v>
+      </c>
+      <c r="E47" s="5" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="F47" s="5" t="str">
+        <v>rGl6NA03QF9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="str">
+        <v/>
+      </c>
+      <c r="B48" s="4" t="str">
+        <v>MAP</v>
+      </c>
+      <c r="C48" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D48" s="4" t="str">
+        <v>DHXbx139PR8</v>
+      </c>
+      <c r="E48" s="4" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="F48" s="4" t="str">
+        <v>rGl6NA03QF9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="str">
+        <v/>
+      </c>
+      <c r="B49" s="5" t="str">
+        <v>MAP</v>
+      </c>
+      <c r="C49" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D49" s="5" t="str">
+        <v>DRSRr6hgI5V</v>
+      </c>
+      <c r="E49" s="5" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="F49" s="5" t="str">
+        <v>rGl6NA03QF9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="str">
+        <v>Y50TU1bYMgG</v>
+      </c>
+      <c r="B50" s="4" t="str">
+        <v>AREA</v>
+      </c>
+      <c r="C50" s="4" t="str">
+        <v>MAL - Proportion of facilities with stockout days for LLIN</v>
+      </c>
+      <c r="D50" s="4" t="str">
+        <v>Ko1VSolPyG6</v>
+      </c>
+      <c r="E50" s="4" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="F50" s="4" t="str">
+        <v>rGl6NA03QF9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="str">
+        <v>bIwPfcT9JVN</v>
+      </c>
+      <c r="B51" s="5" t="str">
+        <v>LINE</v>
+      </c>
+      <c r="C51" s="5" t="str">
+        <v>MAL - Surveillance (cases and threshold) - last 12 months</v>
+      </c>
+      <c r="D51" s="5" t="str">
+        <v>bndKqtV1ZGl</v>
+      </c>
+      <c r="E51" s="5" t="str">
+        <v>2020-11-02</v>
+      </c>
+      <c r="F51" s="5" t="str">
+        <v>sLldHZZgnFx</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="str">
+        <v>QqZNdTABzsZ</v>
+      </c>
+      <c r="B52" s="4" t="str">
+        <v>LINE</v>
+      </c>
+      <c r="C52" s="4" t="str">
+        <v>MAL - Testing</v>
+      </c>
+      <c r="D52" s="4" t="str">
+        <v>imp9cY9m5EA</v>
+      </c>
+      <c r="E52" s="4" t="str">
+        <v>2020-11-02</v>
+      </c>
+      <c r="F52" s="4" t="str">
+        <v>sLldHZZgnFx</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="str">
+        <v>tq6l6xuECZo</v>
+      </c>
+      <c r="B53" s="5" t="str">
+        <v>LINE</v>
+      </c>
+      <c r="C53" s="5" t="str">
+        <v>MAL - Deaths</v>
+      </c>
+      <c r="D53" s="5" t="str">
+        <v>COP5m9xs6iY</v>
+      </c>
+      <c r="E53" s="5" t="str">
+        <v>2020-11-02</v>
+      </c>
+      <c r="F53" s="5" t="str">
+        <v>sLldHZZgnFx</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="str">
+        <v>Q0H2GvXlpYB</v>
+      </c>
+      <c r="B54" s="4" t="str">
+        <v>LINE</v>
+      </c>
+      <c r="C54" s="4" t="str">
+        <v>MAL - Deaths</v>
+      </c>
+      <c r="D54" s="4" t="str">
+        <v>x2O1LS4MZx7</v>
+      </c>
+      <c r="E54" s="4" t="str">
+        <v>2020-11-02</v>
+      </c>
+      <c r="F54" s="4" t="str">
+        <v>sLldHZZgnFx</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="str">
+        <v>mmdI4h7KdLL</v>
+      </c>
+      <c r="B55" s="5" t="str">
+        <v>LINE</v>
+      </c>
+      <c r="C55" s="5" t="str">
+        <v>MAL - IPD</v>
+      </c>
+      <c r="D55" s="5" t="str">
+        <v>GBuwmMa1iGE</v>
+      </c>
+      <c r="E55" s="5" t="str">
+        <v>2020-11-02</v>
+      </c>
+      <c r="F55" s="5" t="str">
+        <v>sLldHZZgnFx</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="str">
+        <v>pnEMZYfUAZt</v>
+      </c>
+      <c r="B56" s="4" t="str">
+        <v>LINE</v>
+      </c>
+      <c r="C56" s="4" t="str">
+        <v>MAL - Proportion</v>
+      </c>
+      <c r="D56" s="4" t="str">
+        <v>Jx1yxCt3wvY</v>
+      </c>
+      <c r="E56" s="4" t="str">
+        <v>2020-11-02</v>
+      </c>
+      <c r="F56" s="4" t="str">
+        <v>sLldHZZgnFx</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="str">
+        <v>SKJkOTlS8vN</v>
+      </c>
+      <c r="B57" s="5" t="str">
+        <v>LINE</v>
+      </c>
+      <c r="C57" s="5" t="str">
+        <v>MAL - Positivity</v>
+      </c>
+      <c r="D57" s="5" t="str">
+        <v>zmF1CHyKwiL</v>
+      </c>
+      <c r="E57" s="5" t="str">
+        <v>2020-11-02</v>
+      </c>
+      <c r="F57" s="5" t="str">
+        <v>sLldHZZgnFx</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="str">
+        <v>XG7LBCz7nQn</v>
+      </c>
+      <c r="B58" s="4" t="str">
+        <v>LINE</v>
+      </c>
+      <c r="C58" s="4" t="str">
+        <v>MAL - Conf cases &amp; ABER</v>
+      </c>
+      <c r="D58" s="4" t="str">
+        <v>NGkPe7Z2xco</v>
+      </c>
+      <c r="E58" s="4" t="str">
+        <v>2020-11-02</v>
+      </c>
+      <c r="F58" s="4" t="str">
+        <v>sLldHZZgnFx</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="str">
+        <v>eqbjzgCFSFs</v>
+      </c>
+      <c r="B59" s="5" t="str">
+        <v>LINE</v>
+      </c>
+      <c r="C59" s="5" t="str">
+        <v>MAL - Reporting Comp</v>
+      </c>
+      <c r="D59" s="5" t="str">
+        <v>eEluY5AA8eb</v>
+      </c>
+      <c r="E59" s="5" t="str">
+        <v>2020-11-02</v>
+      </c>
+      <c r="F59" s="5" t="str">
+        <v>sLldHZZgnFx</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="str">
+        <v>wSudey0Yc2R</v>
+      </c>
+      <c r="B60" s="4" t="str">
+        <v>LINE</v>
+      </c>
+      <c r="C60" s="4" t="str">
+        <v>MAL - OPD</v>
+      </c>
+      <c r="D60" s="4" t="str">
+        <v>iFoBSxTa8n3</v>
+      </c>
+      <c r="E60" s="4" t="str">
+        <v>2020-11-02</v>
+      </c>
+      <c r="F60" s="4" t="str">
+        <v>sLldHZZgnFx</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="str">
+        <v>qo7xD7OTGcF</v>
+      </c>
+      <c r="B61" s="5" t="str">
+        <v>PIVOT_TABLE</v>
+      </c>
+      <c r="C61" s="5" t="str">
+        <v>MAL - Microscopy</v>
+      </c>
+      <c r="D61" s="5" t="str">
+        <v>VMJj8auur7X</v>
+      </c>
+      <c r="E61" s="5" t="str">
+        <v>2020-11-02</v>
+      </c>
+      <c r="F61" s="5" t="str">
+        <v>sLldHZZgnFx</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="str">
+        <v>Cyy6FR0wEGe</v>
+      </c>
+      <c r="B62" s="4" t="str">
+        <v>PIVOT_TABLE</v>
+      </c>
+      <c r="C62" s="4" t="str">
+        <v>MAL - Deaths</v>
+      </c>
+      <c r="D62" s="4" t="str">
+        <v>pVa6oAu2DFk</v>
+      </c>
+      <c r="E62" s="4" t="str">
+        <v>2020-11-02</v>
+      </c>
+      <c r="F62" s="4" t="str">
+        <v>sLldHZZgnFx</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5" t="str">
+        <v>GmqjzU8Crmi</v>
+      </c>
+      <c r="B63" s="5" t="str">
+        <v>PIVOT_TABLE</v>
+      </c>
+      <c r="C63" s="5" t="str">
+        <v>MAL - IPD</v>
+      </c>
+      <c r="D63" s="5" t="str">
+        <v>ukizcelacKo</v>
+      </c>
+      <c r="E63" s="5" t="str">
+        <v>2020-11-02</v>
+      </c>
+      <c r="F63" s="5" t="str">
+        <v>sLldHZZgnFx</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="4" t="str">
+        <v>uZ03Z5GgJJ0</v>
+      </c>
+      <c r="B64" s="4" t="str">
+        <v>PIVOT_TABLE</v>
+      </c>
+      <c r="C64" s="4" t="str">
+        <v>MAL - Proportion</v>
+      </c>
+      <c r="D64" s="4" t="str">
+        <v>g3Iv72l0jO5</v>
+      </c>
+      <c r="E64" s="4" t="str">
+        <v>2020-11-02</v>
+      </c>
+      <c r="F64" s="4" t="str">
+        <v>sLldHZZgnFx</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5" t="str">
+        <v>wleqcZVkF9U</v>
+      </c>
+      <c r="B65" s="5" t="str">
+        <v>PIVOT_TABLE</v>
+      </c>
+      <c r="C65" s="5" t="str">
+        <v>MAL - Positivity</v>
+      </c>
+      <c r="D65" s="5" t="str">
+        <v>CnpABmw7iMA</v>
+      </c>
+      <c r="E65" s="5" t="str">
+        <v>2020-11-02</v>
+      </c>
+      <c r="F65" s="5" t="str">
+        <v>sLldHZZgnFx</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="4" t="str">
+        <v>T4eg1e5rjXE</v>
+      </c>
+      <c r="B66" s="4" t="str">
+        <v>PIVOT_TABLE</v>
+      </c>
+      <c r="C66" s="4" t="str">
+        <v>MAL - Conf cases &amp; ABER</v>
+      </c>
+      <c r="D66" s="4" t="str">
+        <v>jpEIVXB1NNd</v>
+      </c>
+      <c r="E66" s="4" t="str">
+        <v>2020-11-02</v>
+      </c>
+      <c r="F66" s="4" t="str">
+        <v>sLldHZZgnFx</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5" t="str">
+        <v>d1RmmimorCK</v>
+      </c>
+      <c r="B67" s="5" t="str">
+        <v>PIVOT_TABLE</v>
+      </c>
+      <c r="C67" s="5" t="str">
+        <v>MAL - Reporting completeness</v>
+      </c>
+      <c r="D67" s="5" t="str">
+        <v>DFhKOg6whQd</v>
+      </c>
+      <c r="E67" s="5" t="str">
+        <v>2020-11-02</v>
+      </c>
+      <c r="F67" s="5" t="str">
+        <v>sLldHZZgnFx</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="4" t="str">
+        <v/>
+      </c>
+      <c r="B68" s="4" t="str">
+        <v>MAP</v>
+      </c>
+      <c r="C68" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D68" s="4" t="str">
+        <v>DU6QNCEaZBx</v>
+      </c>
+      <c r="E68" s="4" t="str">
+        <v>2020-02-18</v>
+      </c>
+      <c r="F68" s="4" t="str">
+        <v>VUUrmGS7x42</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="5" t="str">
+        <v/>
+      </c>
+      <c r="B69" s="5" t="str">
+        <v>MAP</v>
+      </c>
+      <c r="C69" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D69" s="5" t="str">
+        <v>e7GxLaKwTNk</v>
+      </c>
+      <c r="E69" s="5" t="str">
+        <v>2020-02-18</v>
+      </c>
+      <c r="F69" s="5" t="str">
+        <v>VUUrmGS7x42</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="4" t="str">
+        <v/>
+      </c>
+      <c r="B70" s="4" t="str">
+        <v>MAP</v>
+      </c>
+      <c r="C70" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D70" s="4" t="str">
+        <v>VEpAXSbCpZk</v>
+      </c>
+      <c r="E70" s="4" t="str">
+        <v>2020-02-18</v>
+      </c>
+      <c r="F70" s="4" t="str">
+        <v>VUUrmGS7x42</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="5" t="str">
+        <v/>
+      </c>
+      <c r="B71" s="5" t="str">
+        <v>MAP</v>
+      </c>
+      <c r="C71" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D71" s="5" t="str">
+        <v>VJ0s3O43N5M</v>
+      </c>
+      <c r="E71" s="5" t="str">
+        <v>2020-02-18</v>
+      </c>
+      <c r="F71" s="5" t="str">
+        <v>VUUrmGS7x42</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="4" t="str">
+        <v>sgTE8MwRu38</v>
+      </c>
+      <c r="B72" s="4" t="str">
+        <v>PIVOT_TABLE</v>
+      </c>
+      <c r="C72" s="4" t="str">
+        <v>MAL - DQ - Reporting timeliness in public and private sector</v>
+      </c>
+      <c r="D72" s="4" t="str">
+        <v>GONrBVSt5F7</v>
+      </c>
+      <c r="E72" s="4" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="F72" s="4" t="str">
+        <v>xRjeIawqMbW</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="5" t="str">
+        <v>g6am8vrCpkm</v>
+      </c>
+      <c r="B73" s="5" t="str">
+        <v>PIVOT_TABLE</v>
+      </c>
+      <c r="C73" s="5" t="str">
+        <v>MAL - DQ - Reporting completeness in public and private sector</v>
+      </c>
+      <c r="D73" s="5" t="str">
+        <v>BqvKizpoIsa</v>
+      </c>
+      <c r="E73" s="5" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="F73" s="5" t="str">
+        <v>xRjeIawqMbW</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="4" t="str">
+        <v>Nd1Vpv1eWuy</v>
+      </c>
+      <c r="B74" s="4" t="str">
+        <v>LINE</v>
+      </c>
+      <c r="C74" s="4" t="str">
+        <v>MAL - DQ - Test positivity rate</v>
+      </c>
+      <c r="D74" s="4" t="str">
+        <v>TOJLkiaKGuU</v>
+      </c>
+      <c r="E74" s="4" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="F74" s="4" t="str">
+        <v>xRjeIawqMbW</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="5" t="str">
+        <v>uvzNDbkmNEp</v>
+      </c>
+      <c r="B75" s="5" t="str">
+        <v>LINE</v>
+      </c>
+      <c r="C75" s="5" t="str">
+        <v>MAL - DQ - Slide positivity rate</v>
+      </c>
+      <c r="D75" s="5" t="str">
+        <v>OlTklTLg7pU</v>
+      </c>
+      <c r="E75" s="5" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="F75" s="5" t="str">
+        <v>xRjeIawqMbW</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="4" t="str">
+        <v>bmGtBDNFQUQ</v>
+      </c>
+      <c r="B76" s="4" t="str">
+        <v>LINE</v>
+      </c>
+      <c r="C76" s="4" t="str">
+        <v>MAL - DQ - RDT positivity rate</v>
+      </c>
+      <c r="D76" s="4" t="str">
+        <v>iwectp2cms7</v>
+      </c>
+      <c r="E76" s="4" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="F76" s="4" t="str">
+        <v>xRjeIawqMbW</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5" t="str">
+        <v>j8AshcRp31c</v>
+      </c>
+      <c r="B77" s="5" t="str">
+        <v>LINE</v>
+      </c>
+      <c r="C77" s="5" t="str">
+        <v xml:space="preserve">MAL - DQ - Proportion of inpatient deaths </v>
+      </c>
+      <c r="D77" s="5" t="str">
+        <v>KcEKWoKLWHf</v>
+      </c>
+      <c r="E77" s="5" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="F77" s="5" t="str">
+        <v>xRjeIawqMbW</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="4" t="str">
+        <v>wyHtEhO9WJx</v>
+      </c>
+      <c r="B78" s="4" t="str">
+        <v>LINE</v>
+      </c>
+      <c r="C78" s="4" t="str">
+        <v>MAL - DQ - Proportion of outpatient malaria cases</v>
+      </c>
+      <c r="D78" s="4" t="str">
+        <v>JEKL2piQ2vy</v>
+      </c>
+      <c r="E78" s="4" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="F78" s="4" t="str">
+        <v>xRjeIawqMbW</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5" t="str">
+        <v>MqF4vunDaSH</v>
+      </c>
+      <c r="B79" s="5" t="str">
+        <v>LINE</v>
+      </c>
+      <c r="C79" s="5" t="str">
+        <v>MAL - DQ - Reporting timeliness</v>
+      </c>
+      <c r="D79" s="5" t="str">
+        <v>XW8Rdv3YHwk</v>
+      </c>
+      <c r="E79" s="5" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="F79" s="5" t="str">
+        <v>xRjeIawqMbW</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="4" t="str">
+        <v>XHJUbmzHSK0</v>
+      </c>
+      <c r="B80" s="4" t="str">
+        <v>PIVOT_TABLE</v>
+      </c>
+      <c r="C80" s="4" t="str">
+        <v>MAL - DQ - Completeness of variable in actual reports</v>
+      </c>
+      <c r="D80" s="4" t="str">
+        <v>Y4uYGqBTfS1</v>
+      </c>
+      <c r="E80" s="4" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="F80" s="4" t="str">
+        <v>xRjeIawqMbW</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="5" t="str">
+        <v>uGfyrJEQAWx</v>
+      </c>
+      <c r="B81" s="5" t="str">
+        <v>PIVOT_TABLE</v>
+      </c>
+      <c r="C81" s="5" t="str">
+        <v>MAL - Consistency between variables</v>
+      </c>
+      <c r="D81" s="5" t="str">
+        <v>g3uCUO2DaDo</v>
+      </c>
+      <c r="E81" s="5" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="F81" s="5" t="str">
+        <v>xRjeIawqMbW</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="4" t="str">
+        <v>L6B1ookZQMW</v>
+      </c>
+      <c r="B82" s="4" t="str">
+        <v>LINE</v>
+      </c>
+      <c r="C82" s="4" t="str">
+        <v>MAL - DQ - Proportion of inpatient malaria cases</v>
+      </c>
+      <c r="D82" s="4" t="str">
+        <v>dAjnVAES0su</v>
+      </c>
+      <c r="E82" s="4" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="F82" s="4" t="str">
+        <v>xRjeIawqMbW</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="5" t="str">
+        <v>UCT3c9PPCQZ</v>
+      </c>
+      <c r="B83" s="5" t="str">
+        <v>LINE</v>
+      </c>
+      <c r="C83" s="5" t="str">
+        <v>MAL - DQ - Proportion of suspected individuals tested</v>
+      </c>
+      <c r="D83" s="5" t="str">
+        <v>gFSsBtLc6oC</v>
+      </c>
+      <c r="E83" s="5" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="F83" s="5" t="str">
+        <v>xRjeIawqMbW</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="4" t="str">
+        <v>p29zcNGL0Aj</v>
+      </c>
+      <c r="B84" s="4" t="str">
+        <v>LINE</v>
+      </c>
+      <c r="C84" s="4" t="str">
+        <v>MAL - DQ - Reporting completeness</v>
+      </c>
+      <c r="D84" s="4" t="str">
+        <v>eLIsIGsfy1P</v>
+      </c>
+      <c r="E84" s="4" t="str">
+        <v>2021-06-22</v>
+      </c>
+      <c r="F84" s="4" t="str">
+        <v>xRjeIawqMbW</v>
       </c>
     </row>
   </sheetData>
